--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JN102"/>
+  <dimension ref="A1:JO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1281,8 +1281,11 @@
       <c r="JM1" s="2" t="n">
         <v>10738</v>
       </c>
-      <c r="JN1" t="n">
+      <c r="JN1" s="2" t="n">
         <v>10745</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>10755</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2107,8 +2110,11 @@
       <c r="JM2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="JN2" s="2" t="n">
         <v>2022</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -2933,8 +2939,11 @@
       <c r="JM3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JN3" t="n">
+      <c r="JN3" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3759,7 +3768,10 @@
       <c r="JM4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JN4" t="n">
+      <c r="JN4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4585,7 +4597,10 @@
       <c r="JM5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JN5" t="n">
+      <c r="JN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5411,8 +5426,11 @@
       <c r="JM6" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JN6" t="n">
+      <c r="JN6" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6237,8 +6255,11 @@
       <c r="JM7" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JN7" t="n">
+      <c r="JN7" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7063,8 +7084,11 @@
       <c r="JM8" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JN8" t="n">
+      <c r="JN8" s="2" t="n">
         <v>-13</v>
+      </c>
+      <c r="JO8" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7889,7 +7913,10 @@
       <c r="JM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JN9" t="n">
+      <c r="JN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8715,8 +8742,11 @@
       <c r="JM10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JN10" t="n">
+      <c r="JN10" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9541,8 +9571,11 @@
       <c r="JM11" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="JN11" t="n">
+      <c r="JN11" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10367,8 +10400,11 @@
       <c r="JM12" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="JN12" t="n">
+      <c r="JN12" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="JO12" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11193,8 +11229,11 @@
       <c r="JM13" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="JN13" t="n">
+      <c r="JN13" s="2" t="n">
         <v>370</v>
+      </c>
+      <c r="JO13" t="n">
+        <v>374</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12019,8 +12058,11 @@
       <c r="JM14" s="2" t="n">
         <v>1.55</v>
       </c>
-      <c r="JN14" t="n">
+      <c r="JN14" s="2" t="n">
         <v>1.55</v>
+      </c>
+      <c r="JO14" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12845,8 +12887,11 @@
       <c r="JM15" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="JN15" t="n">
+      <c r="JN15" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="JO15" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13671,8 +13716,11 @@
       <c r="JM16" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JN16" t="n">
+      <c r="JN16" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="JO16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14497,8 +14545,11 @@
       <c r="JM17" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JN17" t="n">
+      <c r="JN17" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JO17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15323,8 +15374,11 @@
       <c r="JM18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JN18" t="n">
+      <c r="JN18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JO18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16149,8 +16203,11 @@
       <c r="JM19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JN19" t="n">
+      <c r="JN19" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JO19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16975,8 +17032,11 @@
       <c r="JM20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JN20" t="n">
+      <c r="JN20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JO20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17801,7 +17861,10 @@
       <c r="JM21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JN21" t="n">
+      <c r="JN21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -18627,7 +18690,10 @@
       <c r="JM22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JN22" t="n">
+      <c r="JN22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19453,8 +19519,11 @@
       <c r="JM23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JN23" t="n">
+      <c r="JN23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JO23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20279,7 +20348,10 @@
       <c r="JM24" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JN24" t="n">
+      <c r="JN24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JO24" t="n">
         <v>20</v>
       </c>
     </row>
@@ -21105,8 +21177,11 @@
       <c r="JM25" s="2" t="n">
         <v>44.4</v>
       </c>
-      <c r="JN25" t="n">
+      <c r="JN25" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JO25" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -21931,8 +22006,11 @@
       <c r="JM26" s="2" t="n">
         <v>32.33</v>
       </c>
-      <c r="JN26" t="n">
+      <c r="JN26" s="2" t="n">
         <v>46.25</v>
+      </c>
+      <c r="JO26" t="n">
+        <v>41.56</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22757,8 +22835,11 @@
       <c r="JM27" s="2" t="n">
         <v>14.37</v>
       </c>
-      <c r="JN27" t="n">
+      <c r="JN27" s="2" t="n">
         <v>18.5</v>
+      </c>
+      <c r="JO27" t="n">
+        <v>18.7</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23583,7 +23664,10 @@
       <c r="JM28" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JN28" t="n">
+      <c r="JN28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JO28" t="n">
         <v>37</v>
       </c>
     </row>
@@ -24409,8 +24493,11 @@
       <c r="JM29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JN29" t="n">
+      <c r="JN29" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JO29" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25235,8 +25322,11 @@
       <c r="JM30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JN30" t="n">
+      <c r="JN30" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JO30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26061,8 +26151,11 @@
       <c r="JM31" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="JN31" t="n">
+      <c r="JN31" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JO31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -26887,8 +26980,11 @@
       <c r="JM32" s="2" t="n">
         <v>2.63</v>
       </c>
-      <c r="JN32" t="n">
+      <c r="JN32" s="2" t="n">
         <v>2.65</v>
+      </c>
+      <c r="JO32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27713,8 +27809,11 @@
       <c r="JM33" s="2" t="n">
         <v>5.92</v>
       </c>
-      <c r="JN33" t="n">
+      <c r="JN33" s="2" t="n">
         <v>6.62</v>
+      </c>
+      <c r="JO33" t="n">
+        <v>5.56</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28539,8 +28638,11 @@
       <c r="JM34" s="2" t="n">
         <v>33.8</v>
       </c>
-      <c r="JN34" t="n">
+      <c r="JN34" s="2" t="n">
         <v>32.1</v>
+      </c>
+      <c r="JO34" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29365,8 +29467,11 @@
       <c r="JM35" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="JN35" t="n">
+      <c r="JN35" s="2" t="n">
         <v>15.1</v>
+      </c>
+      <c r="JO35" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30191,8 +30296,11 @@
       <c r="JM36" s="2" t="n">
         <v>188.8</v>
       </c>
-      <c r="JN36" t="n">
+      <c r="JN36" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="JO36" t="n">
+        <v>190.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31017,8 +31125,11 @@
       <c r="JM37" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JN37" t="n">
+      <c r="JN37" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="JO37" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -31843,8 +31954,11 @@
       <c r="JM38" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="JN38" t="n">
+      <c r="JN38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="JO38" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32669,8 +32783,11 @@
       <c r="JM39" s="2" t="n">
         <v>106.3</v>
       </c>
-      <c r="JN39" t="n">
+      <c r="JN39" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="JO39" t="n">
+        <v>116.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33495,8 +33612,11 @@
       <c r="JM40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JN40" t="n">
+      <c r="JN40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JO40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34321,8 +34441,11 @@
       <c r="JM41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JN41" t="n">
+      <c r="JN41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35147,8 +35270,11 @@
       <c r="JM42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JN42" t="n">
+      <c r="JN42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -35973,8 +36099,11 @@
       <c r="JM43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JN43" t="n">
+      <c r="JN43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JO43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -36799,8 +36928,11 @@
       <c r="JM44" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="JN44" t="n">
+      <c r="JN44" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="JO44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -37625,8 +37757,11 @@
       <c r="JM45" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="JN45" t="n">
+      <c r="JN45" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="JO45" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38451,8 +38586,11 @@
       <c r="JM46" s="2" t="n">
         <v>285</v>
       </c>
-      <c r="JN46" t="n">
+      <c r="JN46" s="2" t="n">
         <v>267</v>
+      </c>
+      <c r="JO46" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39277,8 +39415,11 @@
       <c r="JM47" s="2" t="n">
         <v>73.5</v>
       </c>
-      <c r="JN47" t="n">
+      <c r="JN47" s="2" t="n">
         <v>72.2</v>
+      </c>
+      <c r="JO47" t="n">
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40103,8 +40244,11 @@
       <c r="JM48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JN48" t="n">
+      <c r="JN48" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JO48" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -40929,8 +41073,11 @@
       <c r="JM49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JN49" t="n">
+      <c r="JN49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JO49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -41755,8 +41902,11 @@
       <c r="JM50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JN50" t="n">
+      <c r="JN50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JO50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -42581,7 +42731,10 @@
       <c r="JM51" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JN51" t="n">
+      <c r="JN51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JO51" t="n">
         <v>37</v>
       </c>
     </row>
@@ -43407,8 +43560,11 @@
       <c r="JM52" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JN52" t="n">
+      <c r="JN52" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JO52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44233,8 +44389,11 @@
       <c r="JM53" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JN53" t="n">
+      <c r="JN53" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JO53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45059,8 +45218,11 @@
       <c r="JM54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JN54" t="n">
+      <c r="JN54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JO54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -45885,7 +46047,10 @@
       <c r="JM55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JN55" t="n">
+      <c r="JN55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -46711,8 +46876,11 @@
       <c r="JM56" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="JN56" t="n">
+      <c r="JN56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JO56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -47537,8 +47705,11 @@
       <c r="JM57" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="JN57" t="n">
+      <c r="JN57" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="JO57" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48363,8 +48534,11 @@
       <c r="JM58" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="JN58" t="n">
+      <c r="JN58" s="2" t="n">
         <v>169</v>
+      </c>
+      <c r="JO58" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49189,8 +49363,11 @@
       <c r="JM59" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="JN59" t="n">
+      <c r="JN59" s="2" t="n">
         <v>399</v>
+      </c>
+      <c r="JO59" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50015,8 +50192,11 @@
       <c r="JM60" s="2" t="n">
         <v>2.05</v>
       </c>
-      <c r="JN60" t="n">
+      <c r="JN60" s="2" t="n">
         <v>1.36</v>
+      </c>
+      <c r="JO60" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -50841,8 +51021,11 @@
       <c r="JM61" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="JN61" t="n">
+      <c r="JN61" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="JO61" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -51667,8 +51850,11 @@
       <c r="JM62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JN62" t="n">
+      <c r="JN62" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JO62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -52493,8 +52679,11 @@
       <c r="JM63" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JN63" t="n">
+      <c r="JN63" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JO63" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -53319,8 +53508,11 @@
       <c r="JM64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JN64" t="n">
+      <c r="JN64" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JO64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54145,8 +54337,11 @@
       <c r="JM65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JN65" t="n">
+      <c r="JN65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JO65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -54971,8 +55166,11 @@
       <c r="JM66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JN66" t="n">
+      <c r="JN66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JO66" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -55797,8 +55995,11 @@
       <c r="JM67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JN67" t="n">
+      <c r="JN67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JO67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -56623,8 +56824,11 @@
       <c r="JM68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JN68" t="n">
+      <c r="JN68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -57449,8 +57653,11 @@
       <c r="JM69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JN69" t="n">
+      <c r="JN69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JO69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -58275,8 +58482,11 @@
       <c r="JM70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JN70" t="n">
+      <c r="JN70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JO70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59101,8 +59311,11 @@
       <c r="JM71" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JN71" t="n">
+      <c r="JN71" s="2" t="n">
         <v>61.1</v>
+      </c>
+      <c r="JO71" t="n">
+        <v>56.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -59927,8 +60140,11 @@
       <c r="JM72" s="2" t="n">
         <v>35.7</v>
       </c>
-      <c r="JN72" t="n">
+      <c r="JN72" s="2" t="n">
         <v>36.27</v>
+      </c>
+      <c r="JO72" t="n">
+        <v>22.71</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -60753,8 +60969,11 @@
       <c r="JM73" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="JN73" t="n">
+      <c r="JN73" s="2" t="n">
         <v>22.17</v>
+      </c>
+      <c r="JO73" t="n">
+        <v>12.87</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -61579,8 +61798,11 @@
       <c r="JM74" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JN74" t="n">
+      <c r="JN74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JO74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -62405,8 +62627,11 @@
       <c r="JM75" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JN75" t="n">
+      <c r="JN75" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JO75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -63231,8 +63456,11 @@
       <c r="JM76" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JN76" t="n">
+      <c r="JN76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JO76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64057,8 +64285,11 @@
       <c r="JM77" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JN77" t="n">
+      <c r="JN77" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JO77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -64883,8 +65114,11 @@
       <c r="JM78" s="2" t="n">
         <v>2.79</v>
       </c>
-      <c r="JN78" t="n">
+      <c r="JN78" s="2" t="n">
         <v>3.44</v>
+      </c>
+      <c r="JO78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -65709,8 +65943,11 @@
       <c r="JM79" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="JN79" t="n">
+      <c r="JN79" s="2" t="n">
         <v>5.64</v>
+      </c>
+      <c r="JO79" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -66535,8 +66772,11 @@
       <c r="JM80" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="JN80" t="n">
+      <c r="JN80" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JO80" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -67361,8 +67601,11 @@
       <c r="JM81" s="2" t="n">
         <v>25.6</v>
       </c>
-      <c r="JN81" t="n">
+      <c r="JN81" s="2" t="n">
         <v>17.7</v>
+      </c>
+      <c r="JO81" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -68187,8 +68430,11 @@
       <c r="JM82" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="JN82" t="n">
+      <c r="JN82" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="JO82" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -69013,7 +69259,10 @@
       <c r="JM83" s="2" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="JN83" t="n">
+      <c r="JN83" s="2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JO83" t="n">
         <v>87.40000000000001</v>
       </c>
     </row>
@@ -69839,8 +70088,11 @@
       <c r="JM84" s="2" t="n">
         <v>24.16</v>
       </c>
-      <c r="JN84" t="n">
+      <c r="JN84" s="2" t="n">
         <v>24.66</v>
+      </c>
+      <c r="JO84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -70665,8 +70917,11 @@
       <c r="JM85" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="JN85" t="n">
+      <c r="JN85" s="2" t="n">
         <v>85.2</v>
+      </c>
+      <c r="JO85" t="n">
+        <v>113.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -71491,8 +71746,11 @@
       <c r="JM86" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JN86" t="n">
+      <c r="JN86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JO86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -72317,8 +72575,11 @@
       <c r="JM87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN87" t="n">
+      <c r="JN87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JO87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -73143,8 +73404,11 @@
       <c r="JM88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JN88" t="n">
+      <c r="JN88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JO88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -73969,8 +74233,11 @@
       <c r="JM89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JN89" t="n">
+      <c r="JN89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JO89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -74795,8 +75062,11 @@
       <c r="JM90" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="JN90" t="n">
+      <c r="JN90" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="JO90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -75621,8 +75891,11 @@
       <c r="JM91" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="JN91" t="n">
+      <c r="JN91" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="JO91" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -76447,8 +76720,11 @@
       <c r="JM92" s="2" t="n">
         <v>265</v>
       </c>
-      <c r="JN92" t="n">
+      <c r="JN92" s="2" t="n">
         <v>298</v>
+      </c>
+      <c r="JO92" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -77273,8 +77549,11 @@
       <c r="JM93" s="2" t="n">
         <v>74.2</v>
       </c>
-      <c r="JN93" t="n">
+      <c r="JN93" s="2" t="n">
         <v>74.7</v>
+      </c>
+      <c r="JO93" t="n">
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -78099,8 +78378,11 @@
       <c r="JM94" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JN94" t="n">
+      <c r="JN94" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JO94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -78925,8 +79207,11 @@
       <c r="JM95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JN95" t="n">
+      <c r="JN95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JO95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -79751,8 +80036,11 @@
       <c r="JM96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JN96" t="n">
+      <c r="JN96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JO96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -80577,8 +80865,11 @@
       <c r="JM97" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JN97" t="n">
+      <c r="JN97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JO97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -81403,8 +81694,11 @@
       <c r="JM98" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JN98" t="n">
+      <c r="JN98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JO98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -82229,8 +82523,11 @@
       <c r="JM99" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JN99" t="n">
+      <c r="JN99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JO99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -83055,8 +83352,11 @@
       <c r="JM100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JN100" t="n">
+      <c r="JN100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -83881,8 +84181,11 @@
       <c r="JM101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JN101" t="n">
+      <c r="JN101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JO101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -84707,8 +85010,11 @@
       <c r="JM102" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="JN102" t="n">
+      <c r="JN102" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="JO102" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JO102"/>
+  <dimension ref="A1:JP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1284,8 +1284,11 @@
       <c r="JN1" s="2" t="n">
         <v>10745</v>
       </c>
-      <c r="JO1" t="n">
+      <c r="JO1" s="2" t="n">
         <v>10755</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>10764</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2113,7 +2116,10 @@
       <c r="JN2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JO2" t="n">
+      <c r="JO2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JP2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2942,8 +2948,11 @@
       <c r="JN3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JO3" t="n">
+      <c r="JO3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3771,8 +3780,11 @@
       <c r="JN4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JO4" t="n">
+      <c r="JO4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4600,8 +4612,11 @@
       <c r="JN5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JO5" t="n">
+      <c r="JO5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5429,8 +5444,11 @@
       <c r="JN6" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JO6" t="n">
+      <c r="JO6" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6258,8 +6276,11 @@
       <c r="JN7" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="JO7" t="n">
+      <c r="JO7" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7087,8 +7108,11 @@
       <c r="JN8" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="JO8" t="n">
+      <c r="JO8" s="2" t="n">
         <v>-50</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>-51</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7916,7 +7940,10 @@
       <c r="JN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JO9" t="n">
+      <c r="JO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8745,8 +8772,11 @@
       <c r="JN10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO10" t="n">
+      <c r="JO10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9574,8 +9604,11 @@
       <c r="JN11" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="JO11" t="n">
+      <c r="JO11" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10403,8 +10436,11 @@
       <c r="JN12" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="JO12" t="n">
+      <c r="JO12" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11232,8 +11268,11 @@
       <c r="JN13" s="2" t="n">
         <v>370</v>
       </c>
-      <c r="JO13" t="n">
+      <c r="JO13" s="2" t="n">
         <v>374</v>
+      </c>
+      <c r="JP13" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12061,8 +12100,11 @@
       <c r="JN14" s="2" t="n">
         <v>1.55</v>
       </c>
-      <c r="JO14" t="n">
+      <c r="JO14" s="2" t="n">
         <v>1.25</v>
+      </c>
+      <c r="JP14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12890,8 +12932,11 @@
       <c r="JN15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JO15" t="n">
+      <c r="JO15" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="JP15" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13719,8 +13764,11 @@
       <c r="JN16" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JO16" t="n">
+      <c r="JO16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JP16" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14548,8 +14596,11 @@
       <c r="JN17" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JO17" t="n">
+      <c r="JO17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15377,8 +15428,11 @@
       <c r="JN18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JO18" t="n">
+      <c r="JO18" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JP18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16206,8 +16260,11 @@
       <c r="JN19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JO19" t="n">
+      <c r="JO19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JP19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17035,8 +17092,11 @@
       <c r="JN20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JO20" t="n">
+      <c r="JO20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JP20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17864,8 +17924,11 @@
       <c r="JN21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO21" t="n">
+      <c r="JO21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18693,7 +18756,10 @@
       <c r="JN22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JO22" t="n">
+      <c r="JO22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19522,7 +19588,10 @@
       <c r="JN23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JO23" t="n">
+      <c r="JO23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20351,8 +20420,11 @@
       <c r="JN24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JO24" t="n">
+      <c r="JO24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JP24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21180,8 +21252,11 @@
       <c r="JN25" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JO25" t="n">
+      <c r="JO25" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JP25" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22009,8 +22084,11 @@
       <c r="JN26" s="2" t="n">
         <v>46.25</v>
       </c>
-      <c r="JO26" t="n">
+      <c r="JO26" s="2" t="n">
         <v>41.56</v>
+      </c>
+      <c r="JP26" t="n">
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22838,8 +22916,11 @@
       <c r="JN27" s="2" t="n">
         <v>18.5</v>
       </c>
-      <c r="JO27" t="n">
+      <c r="JO27" s="2" t="n">
         <v>18.7</v>
+      </c>
+      <c r="JP27" t="n">
+        <v>22.69</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23667,8 +23748,11 @@
       <c r="JN28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JO28" t="n">
+      <c r="JO28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JP28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24496,8 +24580,11 @@
       <c r="JN29" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JO29" t="n">
+      <c r="JO29" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="JP29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25325,8 +25412,11 @@
       <c r="JN30" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JO30" t="n">
+      <c r="JO30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JP30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26154,8 +26244,11 @@
       <c r="JN31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JO31" t="n">
+      <c r="JO31" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JP31" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -26983,8 +27076,11 @@
       <c r="JN32" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="JO32" t="n">
+      <c r="JO32" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="JP32" t="n">
+        <v>2.31</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27812,8 +27908,11 @@
       <c r="JN33" s="2" t="n">
         <v>6.62</v>
       </c>
-      <c r="JO33" t="n">
+      <c r="JO33" s="2" t="n">
         <v>5.56</v>
+      </c>
+      <c r="JP33" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28641,8 +28740,11 @@
       <c r="JN34" s="2" t="n">
         <v>32.1</v>
       </c>
-      <c r="JO34" t="n">
+      <c r="JO34" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JP34" t="n">
+        <v>37.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29470,8 +29572,11 @@
       <c r="JN35" s="2" t="n">
         <v>15.1</v>
       </c>
-      <c r="JO35" t="n">
+      <c r="JO35" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JP35" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30299,8 +30404,11 @@
       <c r="JN36" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="JO36" t="n">
+      <c r="JO36" s="2" t="n">
         <v>190.2</v>
+      </c>
+      <c r="JP36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31128,8 +31236,11 @@
       <c r="JN37" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JO37" t="n">
+      <c r="JO37" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="JP37" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -31957,8 +32068,11 @@
       <c r="JN38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="JO38" t="n">
+      <c r="JO38" s="2" t="n">
         <v>27.24</v>
+      </c>
+      <c r="JP38" t="n">
+        <v>26.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32786,8 +32900,11 @@
       <c r="JN39" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="JO39" t="n">
+      <c r="JO39" s="2" t="n">
         <v>116.8</v>
+      </c>
+      <c r="JP39" t="n">
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33615,8 +33732,11 @@
       <c r="JN40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JO40" t="n">
+      <c r="JO40" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JP40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34444,8 +34564,11 @@
       <c r="JN41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO41" t="n">
+      <c r="JO41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35273,7 +35396,10 @@
       <c r="JN42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO42" t="n">
+      <c r="JO42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36102,8 +36228,11 @@
       <c r="JN43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO43" t="n">
+      <c r="JO43" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JP43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -36931,8 +37060,11 @@
       <c r="JN44" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="JO44" t="n">
+      <c r="JO44" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="JP44" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -37760,8 +37892,11 @@
       <c r="JN45" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="JO45" t="n">
+      <c r="JO45" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="JP45" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38589,8 +38724,11 @@
       <c r="JN46" s="2" t="n">
         <v>267</v>
       </c>
-      <c r="JO46" t="n">
+      <c r="JO46" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="JP46" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39418,8 +39556,11 @@
       <c r="JN47" s="2" t="n">
         <v>72.2</v>
       </c>
-      <c r="JO47" t="n">
+      <c r="JO47" s="2" t="n">
         <v>67.59999999999999</v>
+      </c>
+      <c r="JP47" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40247,8 +40388,11 @@
       <c r="JN48" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JO48" t="n">
+      <c r="JO48" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="JP48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41076,8 +41220,11 @@
       <c r="JN49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JO49" t="n">
+      <c r="JO49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JP49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -41905,8 +42052,11 @@
       <c r="JN50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JO50" t="n">
+      <c r="JO50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JP50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -42734,8 +42884,11 @@
       <c r="JN51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JO51" t="n">
+      <c r="JO51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JP51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -43563,8 +43716,11 @@
       <c r="JN52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JO52" t="n">
+      <c r="JO52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JP52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44392,8 +44548,11 @@
       <c r="JN53" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JO53" t="n">
+      <c r="JO53" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JP53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45221,7 +45380,10 @@
       <c r="JN54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO54" t="n">
+      <c r="JO54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -46050,8 +46212,11 @@
       <c r="JN55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO55" t="n">
+      <c r="JO55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -46879,8 +47044,11 @@
       <c r="JN56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JO56" t="n">
+      <c r="JO56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JP56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -47708,8 +47876,11 @@
       <c r="JN57" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="JO57" t="n">
+      <c r="JO57" s="2" t="n">
         <v>251</v>
+      </c>
+      <c r="JP57" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48537,8 +48708,11 @@
       <c r="JN58" s="2" t="n">
         <v>169</v>
       </c>
-      <c r="JO58" t="n">
+      <c r="JO58" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="JP58" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49366,8 +49540,11 @@
       <c r="JN59" s="2" t="n">
         <v>399</v>
       </c>
-      <c r="JO59" t="n">
+      <c r="JO59" s="2" t="n">
         <v>386</v>
+      </c>
+      <c r="JP59" t="n">
+        <v>411</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50195,8 +50372,11 @@
       <c r="JN60" s="2" t="n">
         <v>1.36</v>
       </c>
-      <c r="JO60" t="n">
+      <c r="JO60" s="2" t="n">
         <v>1.86</v>
+      </c>
+      <c r="JP60" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51024,8 +51204,11 @@
       <c r="JN61" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="JO61" t="n">
+      <c r="JO61" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="JP61" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -51853,8 +52036,11 @@
       <c r="JN62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JO62" t="n">
+      <c r="JO62" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JP62" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -52682,7 +52868,10 @@
       <c r="JN63" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JO63" t="n">
+      <c r="JO63" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JP63" t="n">
         <v>36</v>
       </c>
     </row>
@@ -53511,8 +53700,11 @@
       <c r="JN64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JO64" t="n">
+      <c r="JO64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JP64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54340,8 +54532,11 @@
       <c r="JN65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JO65" t="n">
+      <c r="JO65" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JP65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -55169,8 +55364,11 @@
       <c r="JN66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JO66" t="n">
+      <c r="JO66" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JP66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -55998,8 +56196,11 @@
       <c r="JN67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JO67" t="n">
+      <c r="JO67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JP67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -56827,8 +57028,11 @@
       <c r="JN68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO68" t="n">
+      <c r="JO68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JP68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -57656,8 +57860,11 @@
       <c r="JN69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JO69" t="n">
+      <c r="JO69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JP69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -58485,8 +58692,11 @@
       <c r="JN70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JO70" t="n">
+      <c r="JO70" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JP70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59314,8 +59524,11 @@
       <c r="JN71" s="2" t="n">
         <v>61.1</v>
       </c>
-      <c r="JO71" t="n">
+      <c r="JO71" s="2" t="n">
         <v>56.7</v>
+      </c>
+      <c r="JP71" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -60143,8 +60356,11 @@
       <c r="JN72" s="2" t="n">
         <v>36.27</v>
       </c>
-      <c r="JO72" t="n">
+      <c r="JO72" s="2" t="n">
         <v>22.71</v>
+      </c>
+      <c r="JP72" t="n">
+        <v>29.36</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -60972,8 +61188,11 @@
       <c r="JN73" s="2" t="n">
         <v>22.17</v>
       </c>
-      <c r="JO73" t="n">
+      <c r="JO73" s="2" t="n">
         <v>12.87</v>
+      </c>
+      <c r="JP73" t="n">
+        <v>18.68</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -61801,8 +62020,11 @@
       <c r="JN74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JO74" t="n">
+      <c r="JO74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JP74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -62630,8 +62852,11 @@
       <c r="JN75" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JO75" t="n">
+      <c r="JO75" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JP75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -63459,8 +63684,11 @@
       <c r="JN76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JO76" t="n">
+      <c r="JO76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JP76" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64288,8 +64516,11 @@
       <c r="JN77" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JO77" t="n">
+      <c r="JO77" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JP77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -65117,8 +65348,11 @@
       <c r="JN78" s="2" t="n">
         <v>3.44</v>
       </c>
-      <c r="JO78" t="n">
+      <c r="JO78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JP78" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -65946,8 +66180,11 @@
       <c r="JN79" s="2" t="n">
         <v>5.64</v>
       </c>
-      <c r="JO79" t="n">
+      <c r="JO79" s="2" t="n">
         <v>3.53</v>
+      </c>
+      <c r="JP79" t="n">
+        <v>4.07</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -66775,8 +67012,11 @@
       <c r="JN80" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="JO80" t="n">
+      <c r="JO80" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JP80" t="n">
+        <v>35.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -67604,8 +67844,11 @@
       <c r="JN81" s="2" t="n">
         <v>17.7</v>
       </c>
-      <c r="JO81" t="n">
+      <c r="JO81" s="2" t="n">
         <v>28.3</v>
+      </c>
+      <c r="JP81" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -68433,8 +68676,11 @@
       <c r="JN82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="JO82" t="n">
+      <c r="JO82" s="2" t="n">
         <v>187.2</v>
+      </c>
+      <c r="JP82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -69262,8 +69508,11 @@
       <c r="JN83" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="JO83" t="n">
+      <c r="JO83" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="JP83" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -70091,8 +70340,11 @@
       <c r="JN84" s="2" t="n">
         <v>24.66</v>
       </c>
-      <c r="JO84" t="n">
+      <c r="JO84" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="JP84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -70920,8 +71172,11 @@
       <c r="JN85" s="2" t="n">
         <v>85.2</v>
       </c>
-      <c r="JO85" t="n">
+      <c r="JO85" s="2" t="n">
         <v>113.2</v>
+      </c>
+      <c r="JP85" t="n">
+        <v>83.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -71749,8 +72004,11 @@
       <c r="JN86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JO86" t="n">
+      <c r="JO86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JP86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -72578,8 +72836,11 @@
       <c r="JN87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JO87" t="n">
+      <c r="JO87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JP87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -73407,8 +73668,11 @@
       <c r="JN88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JO88" t="n">
+      <c r="JO88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -74236,8 +74500,11 @@
       <c r="JN89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JO89" t="n">
+      <c r="JO89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JP89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -75065,8 +75332,11 @@
       <c r="JN90" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="JO90" t="n">
+      <c r="JO90" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="JP90" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -75894,8 +76164,11 @@
       <c r="JN91" s="2" t="n">
         <v>244</v>
       </c>
-      <c r="JO91" t="n">
+      <c r="JO91" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="JP91" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -76723,8 +76996,11 @@
       <c r="JN92" s="2" t="n">
         <v>298</v>
       </c>
-      <c r="JO92" t="n">
+      <c r="JO92" s="2" t="n">
         <v>295</v>
+      </c>
+      <c r="JP92" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -77552,7 +77828,10 @@
       <c r="JN93" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="JO93" t="n">
+      <c r="JO93" s="2" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="JP93" t="n">
         <v>76.40000000000001</v>
       </c>
     </row>
@@ -78381,8 +78660,11 @@
       <c r="JN94" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JO94" t="n">
+      <c r="JO94" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JP94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -79210,8 +79492,11 @@
       <c r="JN95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JO95" t="n">
+      <c r="JO95" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JP95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -80039,8 +80324,11 @@
       <c r="JN96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JO96" t="n">
+      <c r="JO96" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JP96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -80868,8 +81156,11 @@
       <c r="JN97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JO97" t="n">
+      <c r="JO97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JP97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -81697,8 +81988,11 @@
       <c r="JN98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JO98" t="n">
+      <c r="JO98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JP98" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -82526,8 +82820,11 @@
       <c r="JN99" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JO99" t="n">
+      <c r="JO99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JP99" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -83355,8 +83652,11 @@
       <c r="JN100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO100" t="n">
+      <c r="JO100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JP100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -84184,8 +84484,11 @@
       <c r="JN101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JO101" t="n">
+      <c r="JO101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JP101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -85013,8 +85316,11 @@
       <c r="JN102" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="JO102" t="n">
+      <c r="JO102" s="2" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="JP102" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JP102"/>
+  <dimension ref="A1:JQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1287,8 +1287,11 @@
       <c r="JO1" s="2" t="n">
         <v>10755</v>
       </c>
-      <c r="JP1" t="n">
+      <c r="JP1" s="2" t="n">
         <v>10764</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>10769</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2119,7 +2122,10 @@
       <c r="JO2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JP2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JQ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2951,8 +2957,11 @@
       <c r="JO3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP3" t="n">
+      <c r="JP3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3783,7 +3792,10 @@
       <c r="JO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP4" t="n">
+      <c r="JP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4615,8 +4627,11 @@
       <c r="JO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JP5" t="n">
+      <c r="JP5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5447,8 +5462,11 @@
       <c r="JO6" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JP6" t="n">
+      <c r="JP6" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6279,8 +6297,11 @@
       <c r="JO7" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="JP7" t="n">
+      <c r="JP7" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7111,8 +7132,11 @@
       <c r="JO8" s="2" t="n">
         <v>-50</v>
       </c>
-      <c r="JP8" t="n">
+      <c r="JP8" s="2" t="n">
         <v>-51</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7943,8 +7967,11 @@
       <c r="JO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JP9" t="n">
+      <c r="JP9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8775,8 +8802,11 @@
       <c r="JO10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JP10" t="n">
+      <c r="JP10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9607,8 +9637,11 @@
       <c r="JO11" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="JP11" t="n">
+      <c r="JP11" s="2" t="n">
         <v>210</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10439,8 +10472,11 @@
       <c r="JO12" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="JP12" t="n">
+      <c r="JP12" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11271,8 +11307,11 @@
       <c r="JO13" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="JP13" t="n">
+      <c r="JP13" s="2" t="n">
         <v>363</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12103,8 +12142,11 @@
       <c r="JO14" s="2" t="n">
         <v>1.25</v>
       </c>
-      <c r="JP14" t="n">
+      <c r="JP14" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12935,8 +12977,11 @@
       <c r="JO15" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JP15" t="n">
+      <c r="JP15" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13767,8 +13812,11 @@
       <c r="JO16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JP16" t="n">
+      <c r="JP16" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14599,8 +14647,11 @@
       <c r="JO17" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JP17" t="n">
+      <c r="JP17" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15431,8 +15482,11 @@
       <c r="JO18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JP18" t="n">
+      <c r="JP18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16263,8 +16317,11 @@
       <c r="JO19" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JP19" t="n">
+      <c r="JP19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17095,8 +17152,11 @@
       <c r="JO20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JP20" t="n">
+      <c r="JP20" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17927,8 +17987,11 @@
       <c r="JO21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JP21" t="n">
+      <c r="JP21" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JQ21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18759,8 +18822,11 @@
       <c r="JO22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JP22" t="n">
+      <c r="JP22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JQ22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19591,8 +19657,11 @@
       <c r="JO23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JP23" t="n">
+      <c r="JP23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JQ23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20423,8 +20492,11 @@
       <c r="JO24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JP24" t="n">
+      <c r="JP24" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21255,8 +21327,11 @@
       <c r="JO25" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JP25" t="n">
+      <c r="JP25" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>58.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22087,8 +22162,11 @@
       <c r="JO26" s="2" t="n">
         <v>41.56</v>
       </c>
-      <c r="JP26" t="n">
+      <c r="JP26" s="2" t="n">
         <v>72.59999999999999</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22919,8 +22997,11 @@
       <c r="JO27" s="2" t="n">
         <v>18.7</v>
       </c>
-      <c r="JP27" t="n">
+      <c r="JP27" s="2" t="n">
         <v>22.69</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>22.65</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23751,8 +23832,11 @@
       <c r="JO28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JP28" t="n">
+      <c r="JP28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JQ28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24583,8 +24667,11 @@
       <c r="JO29" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JP29" t="n">
+      <c r="JP29" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JQ29" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25415,8 +25502,11 @@
       <c r="JO30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JP30" t="n">
+      <c r="JP30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JQ30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26247,8 +26337,11 @@
       <c r="JO31" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JP31" t="n">
+      <c r="JP31" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JQ31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27079,8 +27172,11 @@
       <c r="JO32" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="JP32" t="n">
+      <c r="JP32" s="2" t="n">
         <v>2.31</v>
+      </c>
+      <c r="JQ32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27911,8 +28007,11 @@
       <c r="JO33" s="2" t="n">
         <v>5.56</v>
       </c>
-      <c r="JP33" t="n">
+      <c r="JP33" s="2" t="n">
         <v>7.4</v>
+      </c>
+      <c r="JQ33" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28743,8 +28842,11 @@
       <c r="JO34" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JP34" t="n">
+      <c r="JP34" s="2" t="n">
         <v>37.8</v>
+      </c>
+      <c r="JQ34" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29575,8 +29677,11 @@
       <c r="JO35" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JP35" t="n">
+      <c r="JP35" s="2" t="n">
         <v>13.5</v>
+      </c>
+      <c r="JQ35" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30407,7 +30512,10 @@
       <c r="JO36" s="2" t="n">
         <v>190.2</v>
       </c>
-      <c r="JP36" t="n">
+      <c r="JP36" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="JQ36" t="n">
         <v>188.7</v>
       </c>
     </row>
@@ -31239,7 +31347,10 @@
       <c r="JO37" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="JP37" t="n">
+      <c r="JP37" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="JQ37" t="n">
         <v>87.3</v>
       </c>
     </row>
@@ -32071,8 +32182,11 @@
       <c r="JO38" s="2" t="n">
         <v>27.24</v>
       </c>
-      <c r="JP38" t="n">
+      <c r="JP38" s="2" t="n">
         <v>26.49</v>
+      </c>
+      <c r="JQ38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32903,8 +33017,11 @@
       <c r="JO39" s="2" t="n">
         <v>116.8</v>
       </c>
-      <c r="JP39" t="n">
+      <c r="JP39" s="2" t="n">
         <v>99.90000000000001</v>
+      </c>
+      <c r="JQ39" t="n">
+        <v>110.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33735,8 +33852,11 @@
       <c r="JO40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JP40" t="n">
+      <c r="JP40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34567,8 +34687,11 @@
       <c r="JO41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JP41" t="n">
+      <c r="JP41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35399,8 +35522,11 @@
       <c r="JO42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JP42" t="n">
+      <c r="JP42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JQ42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -36231,8 +36357,11 @@
       <c r="JO43" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JP43" t="n">
+      <c r="JP43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -37063,8 +37192,11 @@
       <c r="JO44" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="JP44" t="n">
+      <c r="JP44" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -37895,8 +38027,11 @@
       <c r="JO45" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="JP45" t="n">
+      <c r="JP45" s="2" t="n">
         <v>250</v>
+      </c>
+      <c r="JQ45" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38727,8 +38862,11 @@
       <c r="JO46" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="JP46" t="n">
+      <c r="JP46" s="2" t="n">
         <v>276</v>
+      </c>
+      <c r="JQ46" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39559,8 +39697,11 @@
       <c r="JO47" s="2" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="JP47" t="n">
+      <c r="JP47" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="JQ47" t="n">
+        <v>73.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40391,8 +40532,11 @@
       <c r="JO48" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JP48" t="n">
+      <c r="JP48" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JQ48" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41223,8 +41367,11 @@
       <c r="JO49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JP49" t="n">
+      <c r="JP49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JQ49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42055,8 +42202,11 @@
       <c r="JO50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JP50" t="n">
+      <c r="JP50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JQ50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -42887,8 +43037,11 @@
       <c r="JO51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JP51" t="n">
+      <c r="JP51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JQ51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -43719,8 +43872,11 @@
       <c r="JO52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JP52" t="n">
+      <c r="JP52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JQ52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44551,8 +44707,11 @@
       <c r="JO53" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JP53" t="n">
+      <c r="JP53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JQ53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45383,8 +45542,11 @@
       <c r="JO54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JP54" t="n">
+      <c r="JP54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JQ54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46215,8 +46377,11 @@
       <c r="JO55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JP55" t="n">
+      <c r="JP55" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JQ55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47047,8 +47212,11 @@
       <c r="JO56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JP56" t="n">
+      <c r="JP56" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="JQ56" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -47879,8 +48047,11 @@
       <c r="JO57" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="JP57" t="n">
+      <c r="JP57" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="JQ57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48711,8 +48882,11 @@
       <c r="JO58" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="JP58" t="n">
+      <c r="JP58" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="JQ58" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49543,8 +49717,11 @@
       <c r="JO59" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="JP59" t="n">
+      <c r="JP59" s="2" t="n">
         <v>411</v>
+      </c>
+      <c r="JQ59" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50375,8 +50552,11 @@
       <c r="JO60" s="2" t="n">
         <v>1.86</v>
       </c>
-      <c r="JP60" t="n">
+      <c r="JP60" s="2" t="n">
         <v>1.54</v>
+      </c>
+      <c r="JQ60" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51207,8 +51387,11 @@
       <c r="JO61" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="JP61" t="n">
+      <c r="JP61" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="JQ61" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52039,8 +52222,11 @@
       <c r="JO62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JP62" t="n">
+      <c r="JP62" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="JQ62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -52871,8 +53057,11 @@
       <c r="JO63" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JP63" t="n">
+      <c r="JP63" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JQ63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -53703,8 +53892,11 @@
       <c r="JO64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JP64" t="n">
+      <c r="JP64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JQ64" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54535,8 +54727,11 @@
       <c r="JO65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JP65" t="n">
+      <c r="JP65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JQ65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -55367,8 +55562,11 @@
       <c r="JO66" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JP66" t="n">
+      <c r="JP66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JQ66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -56199,8 +56397,11 @@
       <c r="JO67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JP67" t="n">
+      <c r="JP67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JQ67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57031,8 +57232,11 @@
       <c r="JO68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JP68" t="n">
+      <c r="JP68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JQ68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -57863,8 +58067,11 @@
       <c r="JO69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JP69" t="n">
+      <c r="JP69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JQ69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -58695,8 +58902,11 @@
       <c r="JO70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JP70" t="n">
+      <c r="JP70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JQ70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59527,8 +59737,11 @@
       <c r="JO71" s="2" t="n">
         <v>56.7</v>
       </c>
-      <c r="JP71" t="n">
+      <c r="JP71" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="JQ71" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -60359,8 +60572,11 @@
       <c r="JO72" s="2" t="n">
         <v>22.71</v>
       </c>
-      <c r="JP72" t="n">
+      <c r="JP72" s="2" t="n">
         <v>29.36</v>
+      </c>
+      <c r="JQ72" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -61191,8 +61407,11 @@
       <c r="JO73" s="2" t="n">
         <v>12.87</v>
       </c>
-      <c r="JP73" t="n">
+      <c r="JP73" s="2" t="n">
         <v>18.68</v>
+      </c>
+      <c r="JQ73" t="n">
+        <v>18.67</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62023,8 +62242,11 @@
       <c r="JO74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JP74" t="n">
+      <c r="JP74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JQ74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -62855,8 +63077,11 @@
       <c r="JO75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JP75" t="n">
+      <c r="JP75" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JQ75" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -63687,8 +63912,11 @@
       <c r="JO76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JP76" t="n">
+      <c r="JP76" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JQ76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64519,8 +64747,11 @@
       <c r="JO77" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JP77" t="n">
+      <c r="JP77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JQ77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -65351,8 +65582,11 @@
       <c r="JO78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JP78" t="n">
+      <c r="JP78" s="2" t="n">
         <v>2.59</v>
+      </c>
+      <c r="JQ78" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -66183,8 +66417,11 @@
       <c r="JO79" s="2" t="n">
         <v>3.53</v>
       </c>
-      <c r="JP79" t="n">
+      <c r="JP79" s="2" t="n">
         <v>4.07</v>
+      </c>
+      <c r="JQ79" t="n">
+        <v>6.86</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67015,8 +67252,11 @@
       <c r="JO80" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JP80" t="n">
+      <c r="JP80" s="2" t="n">
         <v>35.1</v>
+      </c>
+      <c r="JQ80" t="n">
+        <v>35.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -67847,8 +68087,11 @@
       <c r="JO81" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="JP81" t="n">
+      <c r="JP81" s="2" t="n">
         <v>24.6</v>
+      </c>
+      <c r="JQ81" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -68679,8 +68922,11 @@
       <c r="JO82" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="JP82" t="n">
+      <c r="JP82" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="JQ82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -69511,8 +69757,11 @@
       <c r="JO83" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="JP83" t="n">
+      <c r="JP83" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="JQ83" t="n">
+        <v>89.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -70343,8 +70592,11 @@
       <c r="JO84" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="JP84" t="n">
+      <c r="JP84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="JQ84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -71175,8 +71427,11 @@
       <c r="JO85" s="2" t="n">
         <v>113.2</v>
       </c>
-      <c r="JP85" t="n">
+      <c r="JP85" s="2" t="n">
         <v>83.90000000000001</v>
+      </c>
+      <c r="JQ85" t="n">
+        <v>105.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -72007,8 +72262,11 @@
       <c r="JO86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JP86" t="n">
+      <c r="JP86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -72839,8 +73097,11 @@
       <c r="JO87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JP87" t="n">
+      <c r="JP87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -73671,8 +73932,11 @@
       <c r="JO88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JP88" t="n">
+      <c r="JP88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -74503,8 +74767,11 @@
       <c r="JO89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JP89" t="n">
+      <c r="JP89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JQ89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -75335,8 +75602,11 @@
       <c r="JO90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="JP90" t="n">
+      <c r="JP90" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="JQ90" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -76167,8 +76437,11 @@
       <c r="JO91" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="JP91" t="n">
+      <c r="JP91" s="2" t="n">
         <v>276</v>
+      </c>
+      <c r="JQ91" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -76999,8 +77272,11 @@
       <c r="JO92" s="2" t="n">
         <v>295</v>
       </c>
-      <c r="JP92" t="n">
+      <c r="JP92" s="2" t="n">
         <v>314</v>
+      </c>
+      <c r="JQ92" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -77831,8 +78107,11 @@
       <c r="JO93" s="2" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="JP93" t="n">
+      <c r="JP93" s="2" t="n">
         <v>76.40000000000001</v>
+      </c>
+      <c r="JQ93" t="n">
+        <v>70.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -78663,8 +78942,11 @@
       <c r="JO94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JP94" t="n">
+      <c r="JP94" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JQ94" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -79495,8 +79777,11 @@
       <c r="JO95" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JP95" t="n">
+      <c r="JP95" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JQ95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -80327,8 +80612,11 @@
       <c r="JO96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JP96" t="n">
+      <c r="JP96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JQ96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -81159,8 +81447,11 @@
       <c r="JO97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JP97" t="n">
+      <c r="JP97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JQ97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -81991,8 +82282,11 @@
       <c r="JO98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JP98" t="n">
+      <c r="JP98" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JQ98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -82823,8 +83117,11 @@
       <c r="JO99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JP99" t="n">
+      <c r="JP99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JQ99" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -83655,8 +83952,11 @@
       <c r="JO100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP100" t="n">
+      <c r="JP100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JQ100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -84487,8 +84787,11 @@
       <c r="JO101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JP101" t="n">
+      <c r="JP101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JQ101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -85319,8 +85622,11 @@
       <c r="JO102" s="2" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="JP102" t="n">
+      <c r="JP102" s="2" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="JQ102" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JQ102"/>
+  <dimension ref="A1:JR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1290,8 +1290,11 @@
       <c r="JP1" s="2" t="n">
         <v>10764</v>
       </c>
-      <c r="JQ1" t="n">
+      <c r="JQ1" s="2" t="n">
         <v>10769</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>10781</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2125,7 +2128,10 @@
       <c r="JP2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="JQ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JR2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2960,8 +2966,11 @@
       <c r="JP3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JQ3" t="n">
+      <c r="JQ3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3795,8 +3804,11 @@
       <c r="JP4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JQ4" t="n">
+      <c r="JQ4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4630,8 +4642,11 @@
       <c r="JP5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JQ5" t="n">
+      <c r="JQ5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5465,8 +5480,11 @@
       <c r="JP6" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JQ6" t="n">
+      <c r="JQ6" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6300,8 +6318,11 @@
       <c r="JP7" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="JQ7" t="n">
+      <c r="JQ7" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7135,8 +7156,11 @@
       <c r="JP8" s="2" t="n">
         <v>-51</v>
       </c>
-      <c r="JQ8" t="n">
+      <c r="JQ8" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7970,7 +7994,10 @@
       <c r="JP9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JQ9" t="n">
+      <c r="JQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8805,8 +8832,11 @@
       <c r="JP10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JQ10" t="n">
+      <c r="JQ10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9640,8 +9670,11 @@
       <c r="JP11" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="JQ11" t="n">
+      <c r="JQ11" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10475,8 +10508,11 @@
       <c r="JP12" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="JQ12" t="n">
+      <c r="JQ12" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11310,8 +11346,11 @@
       <c r="JP13" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="JQ13" t="n">
+      <c r="JQ13" s="2" t="n">
         <v>385</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12145,8 +12184,11 @@
       <c r="JP14" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="JQ14" t="n">
+      <c r="JQ14" s="2" t="n">
         <v>1.5</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12980,8 +13022,11 @@
       <c r="JP15" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="JQ15" t="n">
+      <c r="JQ15" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13815,8 +13860,11 @@
       <c r="JP16" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JQ16" t="n">
+      <c r="JQ16" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14650,8 +14698,11 @@
       <c r="JP17" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JQ17" t="n">
+      <c r="JQ17" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15485,8 +15536,11 @@
       <c r="JP18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JQ18" t="n">
+      <c r="JQ18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JR18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16320,8 +16374,11 @@
       <c r="JP19" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JQ19" t="n">
+      <c r="JQ19" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JR19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17155,8 +17212,11 @@
       <c r="JP20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JQ20" t="n">
+      <c r="JQ20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JR20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17990,8 +18050,11 @@
       <c r="JP21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JQ21" t="n">
+      <c r="JQ21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JR21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18825,8 +18888,11 @@
       <c r="JP22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JQ22" t="n">
+      <c r="JQ22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JR22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19660,8 +19726,11 @@
       <c r="JP23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JQ23" t="n">
+      <c r="JQ23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JR23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20495,8 +20564,11 @@
       <c r="JP24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JQ24" t="n">
+      <c r="JQ24" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21330,8 +21402,11 @@
       <c r="JP25" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="JQ25" t="n">
+      <c r="JQ25" s="2" t="n">
         <v>58.8</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>41.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22165,8 +22240,11 @@
       <c r="JP26" s="2" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="JQ26" t="n">
+      <c r="JQ26" s="2" t="n">
         <v>38.5</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>30.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23000,8 +23078,11 @@
       <c r="JP27" s="2" t="n">
         <v>22.69</v>
       </c>
-      <c r="JQ27" t="n">
+      <c r="JQ27" s="2" t="n">
         <v>22.65</v>
+      </c>
+      <c r="JR27" t="n">
+        <v>12.55</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23835,8 +23916,11 @@
       <c r="JP28" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JQ28" t="n">
+      <c r="JQ28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JR28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24670,8 +24754,11 @@
       <c r="JP29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JQ29" t="n">
+      <c r="JQ29" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JR29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25505,8 +25592,11 @@
       <c r="JP30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JQ30" t="n">
+      <c r="JQ30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JR30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26340,8 +26430,11 @@
       <c r="JP31" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JQ31" t="n">
+      <c r="JQ31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JR31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27175,8 +27268,11 @@
       <c r="JP32" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="JQ32" t="n">
+      <c r="JQ32" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR32" t="n">
+        <v>2.21</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28010,8 +28106,11 @@
       <c r="JP33" s="2" t="n">
         <v>7.4</v>
       </c>
-      <c r="JQ33" t="n">
+      <c r="JQ33" s="2" t="n">
         <v>5.1</v>
+      </c>
+      <c r="JR33" t="n">
+        <v>5.33</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28845,8 +28944,11 @@
       <c r="JP34" s="2" t="n">
         <v>37.8</v>
       </c>
-      <c r="JQ34" t="n">
+      <c r="JQ34" s="2" t="n">
         <v>31.4</v>
+      </c>
+      <c r="JR34" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29680,8 +29782,11 @@
       <c r="JP35" s="2" t="n">
         <v>13.5</v>
       </c>
-      <c r="JQ35" t="n">
+      <c r="JQ35" s="2" t="n">
         <v>19.6</v>
+      </c>
+      <c r="JR35" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30515,8 +30620,11 @@
       <c r="JP36" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="JQ36" t="n">
+      <c r="JQ36" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="JR36" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31350,8 +31458,11 @@
       <c r="JP37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="JQ37" t="n">
+      <c r="JQ37" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="JR37" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32185,8 +32296,11 @@
       <c r="JP38" s="2" t="n">
         <v>26.49</v>
       </c>
-      <c r="JQ38" t="n">
+      <c r="JQ38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="JR38" t="n">
+        <v>27.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33020,8 +33134,11 @@
       <c r="JP39" s="2" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="JQ39" t="n">
+      <c r="JQ39" s="2" t="n">
         <v>110.7</v>
+      </c>
+      <c r="JR39" t="n">
+        <v>114.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33855,8 +33972,11 @@
       <c r="JP40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ40" t="n">
+      <c r="JQ40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JR40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34690,8 +34810,11 @@
       <c r="JP41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JQ41" t="n">
+      <c r="JQ41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JR41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35525,7 +35648,10 @@
       <c r="JP42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JQ42" t="n">
+      <c r="JQ42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36360,7 +36486,10 @@
       <c r="JP43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ43" t="n">
+      <c r="JQ43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -37195,8 +37324,11 @@
       <c r="JP44" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="JQ44" t="n">
+      <c r="JQ44" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="JR44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38030,8 +38162,11 @@
       <c r="JP45" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="JQ45" t="n">
+      <c r="JQ45" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="JR45" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38865,8 +39000,11 @@
       <c r="JP46" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="JQ46" t="n">
+      <c r="JQ46" s="2" t="n">
         <v>284</v>
+      </c>
+      <c r="JR46" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39700,8 +39838,11 @@
       <c r="JP47" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JQ47" t="n">
+      <c r="JQ47" s="2" t="n">
         <v>73.8</v>
+      </c>
+      <c r="JR47" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40535,8 +40676,11 @@
       <c r="JP48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JQ48" t="n">
+      <c r="JQ48" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JR48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41370,8 +41514,11 @@
       <c r="JP49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JQ49" t="n">
+      <c r="JQ49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JR49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42205,8 +42352,11 @@
       <c r="JP50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JQ50" t="n">
+      <c r="JQ50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JR50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43040,8 +43190,11 @@
       <c r="JP51" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JQ51" t="n">
+      <c r="JQ51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JR51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -43875,8 +44028,11 @@
       <c r="JP52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JQ52" t="n">
+      <c r="JQ52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JR52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44710,8 +44866,11 @@
       <c r="JP53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JQ53" t="n">
+      <c r="JQ53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JR53" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45545,8 +45704,11 @@
       <c r="JP54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JQ54" t="n">
+      <c r="JQ54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JR54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46380,8 +46542,11 @@
       <c r="JP55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JQ55" t="n">
+      <c r="JQ55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JR55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47215,8 +47380,11 @@
       <c r="JP56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JQ56" t="n">
+      <c r="JQ56" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JR56" t="n">
+        <v>41.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48050,8 +48218,11 @@
       <c r="JP57" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="JQ57" t="n">
+      <c r="JQ57" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="JR57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48885,8 +49056,11 @@
       <c r="JP58" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="JQ58" t="n">
+      <c r="JQ58" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="JR58" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49720,8 +49894,11 @@
       <c r="JP59" s="2" t="n">
         <v>411</v>
       </c>
-      <c r="JQ59" t="n">
+      <c r="JQ59" s="2" t="n">
         <v>336</v>
+      </c>
+      <c r="JR59" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50555,8 +50732,11 @@
       <c r="JP60" s="2" t="n">
         <v>1.54</v>
       </c>
-      <c r="JQ60" t="n">
+      <c r="JQ60" s="2" t="n">
         <v>1.8</v>
+      </c>
+      <c r="JR60" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51390,8 +51570,11 @@
       <c r="JP61" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="JQ61" t="n">
+      <c r="JQ61" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="JR61" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52225,8 +52408,11 @@
       <c r="JP62" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="JQ62" t="n">
+      <c r="JQ62" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JR62" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -53060,8 +53246,11 @@
       <c r="JP63" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JQ63" t="n">
+      <c r="JQ63" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JR63" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -53895,8 +54084,11 @@
       <c r="JP64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JQ64" t="n">
+      <c r="JQ64" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JR64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54730,8 +54922,11 @@
       <c r="JP65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JQ65" t="n">
+      <c r="JQ65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JR65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -55565,8 +55760,11 @@
       <c r="JP66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JQ66" t="n">
+      <c r="JQ66" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JR66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -56400,8 +56598,11 @@
       <c r="JP67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JQ67" t="n">
+      <c r="JQ67" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57235,8 +57436,11 @@
       <c r="JP68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JQ68" t="n">
+      <c r="JQ68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JR68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -58070,8 +58274,11 @@
       <c r="JP69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JQ69" t="n">
+      <c r="JQ69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JR69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -58905,8 +59112,11 @@
       <c r="JP70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JQ70" t="n">
+      <c r="JQ70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JR70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59740,8 +59950,11 @@
       <c r="JP71" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="JQ71" t="n">
+      <c r="JQ71" s="2" t="n">
         <v>38.9</v>
+      </c>
+      <c r="JR71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -60575,8 +60788,11 @@
       <c r="JP72" s="2" t="n">
         <v>29.36</v>
       </c>
-      <c r="JQ72" t="n">
+      <c r="JQ72" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JR72" t="n">
+        <v>32.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -61410,8 +61626,11 @@
       <c r="JP73" s="2" t="n">
         <v>18.68</v>
       </c>
-      <c r="JQ73" t="n">
+      <c r="JQ73" s="2" t="n">
         <v>18.67</v>
+      </c>
+      <c r="JR73" t="n">
+        <v>16.33</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62245,8 +62464,11 @@
       <c r="JP74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JQ74" t="n">
+      <c r="JQ74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JR74" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -63080,8 +63302,11 @@
       <c r="JP75" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JQ75" t="n">
+      <c r="JQ75" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JR75" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -63915,8 +64140,11 @@
       <c r="JP76" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JQ76" t="n">
+      <c r="JQ76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JR76" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64750,7 +64978,10 @@
       <c r="JP77" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JQ77" t="n">
+      <c r="JQ77" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JR77" t="n">
         <v>48</v>
       </c>
     </row>
@@ -65585,8 +65816,11 @@
       <c r="JP78" s="2" t="n">
         <v>2.59</v>
       </c>
-      <c r="JQ78" t="n">
+      <c r="JQ78" s="2" t="n">
         <v>2.67</v>
+      </c>
+      <c r="JR78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -66420,8 +66654,11 @@
       <c r="JP79" s="2" t="n">
         <v>4.07</v>
       </c>
-      <c r="JQ79" t="n">
+      <c r="JQ79" s="2" t="n">
         <v>6.86</v>
+      </c>
+      <c r="JR79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67255,8 +67492,11 @@
       <c r="JP80" s="2" t="n">
         <v>35.1</v>
       </c>
-      <c r="JQ80" t="n">
+      <c r="JQ80" s="2" t="n">
         <v>35.4</v>
+      </c>
+      <c r="JR80" t="n">
+        <v>41.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -68090,8 +68330,11 @@
       <c r="JP81" s="2" t="n">
         <v>24.6</v>
       </c>
-      <c r="JQ81" t="n">
+      <c r="JQ81" s="2" t="n">
         <v>14.6</v>
+      </c>
+      <c r="JR81" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -68925,8 +69168,11 @@
       <c r="JP82" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="JQ82" t="n">
+      <c r="JQ82" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="JR82" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -69760,8 +70006,11 @@
       <c r="JP83" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="JQ83" t="n">
+      <c r="JQ83" s="2" t="n">
         <v>89.2</v>
+      </c>
+      <c r="JR83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -70595,8 +70844,11 @@
       <c r="JP84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="JQ84" t="n">
+      <c r="JQ84" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="JR84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -71430,8 +71682,11 @@
       <c r="JP85" s="2" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="JQ85" t="n">
+      <c r="JQ85" s="2" t="n">
         <v>105.1</v>
+      </c>
+      <c r="JR85" t="n">
+        <v>109.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -72265,8 +72520,11 @@
       <c r="JP86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ86" t="n">
+      <c r="JQ86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JR86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -73100,8 +73358,11 @@
       <c r="JP87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ87" t="n">
+      <c r="JQ87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JR87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -73935,8 +74196,11 @@
       <c r="JP88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ88" t="n">
+      <c r="JQ88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JR88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -74770,8 +75034,11 @@
       <c r="JP89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JQ89" t="n">
+      <c r="JQ89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JR89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -75605,8 +75872,11 @@
       <c r="JP90" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="JQ90" t="n">
+      <c r="JQ90" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="JR90" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -76440,8 +76710,11 @@
       <c r="JP91" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="JQ91" t="n">
+      <c r="JQ91" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="JR91" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -77275,8 +77548,11 @@
       <c r="JP92" s="2" t="n">
         <v>314</v>
       </c>
-      <c r="JQ92" t="n">
+      <c r="JQ92" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="JR92" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -78110,8 +78386,11 @@
       <c r="JP93" s="2" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="JQ93" t="n">
+      <c r="JQ93" s="2" t="n">
         <v>70.5</v>
+      </c>
+      <c r="JR93" t="n">
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -78945,8 +79224,11 @@
       <c r="JP94" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JQ94" t="n">
+      <c r="JQ94" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JR94" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -79780,8 +80062,11 @@
       <c r="JP95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JQ95" t="n">
+      <c r="JQ95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JR95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -80615,8 +80900,11 @@
       <c r="JP96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JQ96" t="n">
+      <c r="JQ96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JR96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -81450,8 +81738,11 @@
       <c r="JP97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JQ97" t="n">
+      <c r="JQ97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JR97" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -82285,8 +82576,11 @@
       <c r="JP98" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JQ98" t="n">
+      <c r="JQ98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JR98" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -83120,8 +83414,11 @@
       <c r="JP99" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JQ99" t="n">
+      <c r="JQ99" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JR99" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -83955,8 +84252,11 @@
       <c r="JP100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JQ100" t="n">
+      <c r="JQ100" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JR100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -84790,8 +85090,11 @@
       <c r="JP101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JQ101" t="n">
+      <c r="JQ101" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -85625,8 +85928,11 @@
       <c r="JP102" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="JQ102" t="n">
+      <c r="JQ102" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="JR102" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JR102"/>
+  <dimension ref="A1:JS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1293,8 +1293,11 @@
       <c r="JQ1" s="2" t="n">
         <v>10769</v>
       </c>
-      <c r="JR1" t="n">
+      <c r="JR1" s="2" t="n">
         <v>10781</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>10792</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2131,7 +2134,10 @@
       <c r="JQ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="JR2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2969,8 +2975,11 @@
       <c r="JQ3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR3" t="n">
+      <c r="JR3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3807,7 +3816,10 @@
       <c r="JQ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JR4" t="n">
+      <c r="JR4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4645,8 +4657,11 @@
       <c r="JQ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JR5" t="n">
+      <c r="JR5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5483,8 +5498,11 @@
       <c r="JQ6" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JR6" t="n">
+      <c r="JR6" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6321,8 +6339,11 @@
       <c r="JQ7" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JR7" t="n">
+      <c r="JR7" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7159,8 +7180,11 @@
       <c r="JQ8" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JR8" t="n">
+      <c r="JR8" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>-14</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7997,8 +8021,11 @@
       <c r="JQ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JR9" t="n">
+      <c r="JR9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8835,8 +8862,11 @@
       <c r="JQ10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JR10" t="n">
+      <c r="JR10" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9673,8 +9703,11 @@
       <c r="JQ11" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="JR11" t="n">
+      <c r="JR11" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10511,8 +10544,11 @@
       <c r="JQ12" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="JR12" t="n">
+      <c r="JR12" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11349,8 +11385,11 @@
       <c r="JQ13" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="JR13" t="n">
+      <c r="JR13" s="2" t="n">
         <v>364</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12187,8 +12226,11 @@
       <c r="JQ14" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="JR14" t="n">
+      <c r="JR14" s="2" t="n">
         <v>1.91</v>
+      </c>
+      <c r="JS14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13025,8 +13067,11 @@
       <c r="JQ15" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="JR15" t="n">
+      <c r="JR15" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="JS15" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13863,8 +13908,11 @@
       <c r="JQ16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JR16" t="n">
+      <c r="JR16" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14701,8 +14749,11 @@
       <c r="JQ17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JR17" t="n">
+      <c r="JR17" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15539,8 +15590,11 @@
       <c r="JQ18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JR18" t="n">
+      <c r="JR18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JS18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16377,8 +16431,11 @@
       <c r="JQ19" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JR19" t="n">
+      <c r="JR19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JS19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17215,8 +17272,11 @@
       <c r="JQ20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JR20" t="n">
+      <c r="JR20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JS20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18053,8 +18113,11 @@
       <c r="JQ21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JR21" t="n">
+      <c r="JR21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18891,8 +18954,11 @@
       <c r="JQ22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JR22" t="n">
+      <c r="JR22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JS22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19729,8 +19795,11 @@
       <c r="JQ23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JR23" t="n">
+      <c r="JR23" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JS23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20567,8 +20636,11 @@
       <c r="JQ24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JR24" t="n">
+      <c r="JR24" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21405,8 +21477,11 @@
       <c r="JQ25" s="2" t="n">
         <v>58.8</v>
       </c>
-      <c r="JR25" t="n">
+      <c r="JR25" s="2" t="n">
         <v>41.4</v>
+      </c>
+      <c r="JS25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22243,8 +22318,11 @@
       <c r="JQ26" s="2" t="n">
         <v>38.5</v>
       </c>
-      <c r="JR26" t="n">
+      <c r="JR26" s="2" t="n">
         <v>30.33</v>
+      </c>
+      <c r="JS26" t="n">
+        <v>44.12</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23081,8 +23159,11 @@
       <c r="JQ27" s="2" t="n">
         <v>22.65</v>
       </c>
-      <c r="JR27" t="n">
+      <c r="JR27" s="2" t="n">
         <v>12.55</v>
+      </c>
+      <c r="JS27" t="n">
+        <v>22.06</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23919,8 +24000,11 @@
       <c r="JQ28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JR28" t="n">
+      <c r="JR28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JS28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24757,7 +24841,10 @@
       <c r="JQ29" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JR29" t="n">
+      <c r="JR29" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JS29" t="n">
         <v>63</v>
       </c>
     </row>
@@ -25595,8 +25682,11 @@
       <c r="JQ30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JR30" t="n">
+      <c r="JR30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JS30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26433,8 +26523,11 @@
       <c r="JQ31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JR31" t="n">
+      <c r="JR31" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JS31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27271,8 +27364,11 @@
       <c r="JQ32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR32" t="n">
+      <c r="JR32" s="2" t="n">
         <v>2.21</v>
+      </c>
+      <c r="JS32" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28109,8 +28205,11 @@
       <c r="JQ33" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="JR33" t="n">
+      <c r="JR33" s="2" t="n">
         <v>5.33</v>
+      </c>
+      <c r="JS33" t="n">
+        <v>6.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28947,8 +29046,11 @@
       <c r="JQ34" s="2" t="n">
         <v>31.4</v>
       </c>
-      <c r="JR34" t="n">
+      <c r="JR34" s="2" t="n">
         <v>34.4</v>
+      </c>
+      <c r="JS34" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29785,8 +29887,11 @@
       <c r="JQ35" s="2" t="n">
         <v>19.6</v>
       </c>
-      <c r="JR35" t="n">
+      <c r="JR35" s="2" t="n">
         <v>18.8</v>
+      </c>
+      <c r="JS35" t="n">
+        <v>15.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30623,8 +30728,11 @@
       <c r="JQ36" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="JR36" t="n">
+      <c r="JR36" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="JS36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31461,8 +31569,11 @@
       <c r="JQ37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="JR37" t="n">
+      <c r="JR37" s="2" t="n">
         <v>87.8</v>
+      </c>
+      <c r="JS37" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32299,8 +32410,11 @@
       <c r="JQ38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="JR38" t="n">
+      <c r="JR38" s="2" t="n">
         <v>27.16</v>
+      </c>
+      <c r="JS38" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33137,8 +33251,11 @@
       <c r="JQ39" s="2" t="n">
         <v>110.7</v>
       </c>
-      <c r="JR39" t="n">
+      <c r="JR39" s="2" t="n">
         <v>114.2</v>
+      </c>
+      <c r="JS39" t="n">
+        <v>118.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33975,7 +34092,10 @@
       <c r="JQ40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JR40" t="n">
+      <c r="JR40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34813,8 +34933,11 @@
       <c r="JQ41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JR41" t="n">
+      <c r="JR41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35651,7 +35774,10 @@
       <c r="JQ42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR42" t="n">
+      <c r="JR42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36489,8 +36615,11 @@
       <c r="JQ43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JR43" t="n">
+      <c r="JR43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JS43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -37327,8 +37456,11 @@
       <c r="JQ44" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="JR44" t="n">
+      <c r="JR44" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="JS44" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38165,8 +38297,11 @@
       <c r="JQ45" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="JR45" t="n">
+      <c r="JR45" s="2" t="n">
         <v>210</v>
+      </c>
+      <c r="JS45" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -39003,8 +39138,11 @@
       <c r="JQ46" s="2" t="n">
         <v>284</v>
       </c>
-      <c r="JR46" t="n">
+      <c r="JR46" s="2" t="n">
         <v>265</v>
+      </c>
+      <c r="JS46" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39841,8 +39979,11 @@
       <c r="JQ47" s="2" t="n">
         <v>73.8</v>
       </c>
-      <c r="JR47" t="n">
+      <c r="JR47" s="2" t="n">
         <v>72.8</v>
+      </c>
+      <c r="JS47" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40679,7 +40820,10 @@
       <c r="JQ48" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JR48" t="n">
+      <c r="JR48" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JS48" t="n">
         <v>63</v>
       </c>
     </row>
@@ -41517,8 +41661,11 @@
       <c r="JQ49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JR49" t="n">
+      <c r="JR49" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JS49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42355,8 +42502,11 @@
       <c r="JQ50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JR50" t="n">
+      <c r="JR50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JS50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43193,8 +43343,11 @@
       <c r="JQ51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JR51" t="n">
+      <c r="JR51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JS51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -44031,8 +44184,11 @@
       <c r="JQ52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JR52" t="n">
+      <c r="JR52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JS52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44869,8 +45025,11 @@
       <c r="JQ53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JR53" t="n">
+      <c r="JR53" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JS53" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45707,8 +45866,11 @@
       <c r="JQ54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR54" t="n">
+      <c r="JR54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46545,8 +46707,11 @@
       <c r="JQ55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JR55" t="n">
+      <c r="JR55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47383,8 +47548,11 @@
       <c r="JQ56" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JR56" t="n">
+      <c r="JR56" s="2" t="n">
         <v>41.7</v>
+      </c>
+      <c r="JS56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48221,8 +48389,11 @@
       <c r="JQ57" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="JR57" t="n">
+      <c r="JR57" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="JS57" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -49059,8 +49230,11 @@
       <c r="JQ58" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="JR58" t="n">
+      <c r="JR58" s="2" t="n">
         <v>174</v>
+      </c>
+      <c r="JS58" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49897,8 +50071,11 @@
       <c r="JQ59" s="2" t="n">
         <v>336</v>
       </c>
-      <c r="JR59" t="n">
+      <c r="JR59" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="JS59" t="n">
+        <v>323</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50735,8 +50912,11 @@
       <c r="JQ60" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="JR60" t="n">
+      <c r="JR60" s="2" t="n">
         <v>1.25</v>
+      </c>
+      <c r="JS60" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51573,8 +51753,11 @@
       <c r="JQ61" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="JR61" t="n">
+      <c r="JR61" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="JS61" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52411,8 +52594,11 @@
       <c r="JQ62" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JR62" t="n">
+      <c r="JR62" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="JS62" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -53249,8 +53435,11 @@
       <c r="JQ63" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JR63" t="n">
+      <c r="JR63" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JS63" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -54087,8 +54276,11 @@
       <c r="JQ64" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JR64" t="n">
+      <c r="JR64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JS64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54925,8 +55117,11 @@
       <c r="JQ65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JR65" t="n">
+      <c r="JR65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JS65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -55763,8 +55958,11 @@
       <c r="JQ66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JR66" t="n">
+      <c r="JR66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JS66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -56601,8 +56799,11 @@
       <c r="JQ67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR67" t="n">
+      <c r="JR67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JS67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57439,7 +57640,10 @@
       <c r="JQ68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JR68" t="n">
+      <c r="JR68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS68" t="n">
         <v>8</v>
       </c>
     </row>
@@ -58277,8 +58481,11 @@
       <c r="JQ69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JR69" t="n">
+      <c r="JR69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -59115,8 +59322,11 @@
       <c r="JQ70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JR70" t="n">
+      <c r="JR70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JS70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59953,7 +60163,10 @@
       <c r="JQ71" s="2" t="n">
         <v>38.9</v>
       </c>
-      <c r="JR71" t="n">
+      <c r="JR71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JS71" t="n">
         <v>50</v>
       </c>
     </row>
@@ -60791,8 +61004,11 @@
       <c r="JQ72" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JR72" t="n">
+      <c r="JR72" s="2" t="n">
         <v>32.67</v>
+      </c>
+      <c r="JS72" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -61629,8 +61845,11 @@
       <c r="JQ73" s="2" t="n">
         <v>18.67</v>
       </c>
-      <c r="JR73" t="n">
+      <c r="JR73" s="2" t="n">
         <v>16.33</v>
+      </c>
+      <c r="JS73" t="n">
+        <v>16.15</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62467,8 +62686,11 @@
       <c r="JQ74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JR74" t="n">
+      <c r="JR74" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JS74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -63305,8 +63527,11 @@
       <c r="JQ75" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JR75" t="n">
+      <c r="JR75" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="JS75" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -64143,8 +64368,11 @@
       <c r="JQ76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JR76" t="n">
+      <c r="JR76" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JS76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64981,8 +65209,11 @@
       <c r="JQ77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JR77" t="n">
+      <c r="JR77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JS77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -65819,8 +66050,11 @@
       <c r="JQ78" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="JR78" t="n">
+      <c r="JR78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JS78" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -66657,8 +66891,11 @@
       <c r="JQ79" s="2" t="n">
         <v>6.86</v>
       </c>
-      <c r="JR79" t="n">
+      <c r="JR79" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS79" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67495,8 +67732,11 @@
       <c r="JQ80" s="2" t="n">
         <v>35.4</v>
       </c>
-      <c r="JR80" t="n">
+      <c r="JR80" s="2" t="n">
         <v>41.7</v>
+      </c>
+      <c r="JS80" t="n">
+        <v>31.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -68333,8 +68573,11 @@
       <c r="JQ81" s="2" t="n">
         <v>14.6</v>
       </c>
-      <c r="JR81" t="n">
+      <c r="JR81" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JS81" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -69171,8 +69414,11 @@
       <c r="JQ82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="JR82" t="n">
+      <c r="JR82" s="2" t="n">
         <v>186.6</v>
+      </c>
+      <c r="JS82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -70009,8 +70255,11 @@
       <c r="JQ83" s="2" t="n">
         <v>89.2</v>
       </c>
-      <c r="JR83" t="n">
+      <c r="JR83" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="JS83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -70847,8 +71096,11 @@
       <c r="JQ84" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="JR84" t="n">
+      <c r="JR84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="JS84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -71685,8 +71937,11 @@
       <c r="JQ85" s="2" t="n">
         <v>105.1</v>
       </c>
-      <c r="JR85" t="n">
+      <c r="JR85" s="2" t="n">
         <v>109.3</v>
+      </c>
+      <c r="JS85" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -72523,8 +72778,11 @@
       <c r="JQ86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JR86" t="n">
+      <c r="JR86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JS86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -73361,8 +73619,11 @@
       <c r="JQ87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR87" t="n">
+      <c r="JR87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -74199,8 +74460,11 @@
       <c r="JQ88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JR88" t="n">
+      <c r="JR88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -75037,8 +75301,11 @@
       <c r="JQ89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JR89" t="n">
+      <c r="JR89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JS89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -75875,8 +76142,11 @@
       <c r="JQ90" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="JR90" t="n">
+      <c r="JR90" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="JS90" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -76713,8 +76983,11 @@
       <c r="JQ91" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="JR91" t="n">
+      <c r="JR91" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="JS91" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -77551,8 +77824,11 @@
       <c r="JQ92" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="JR92" t="n">
+      <c r="JR92" s="2" t="n">
         <v>273</v>
+      </c>
+      <c r="JS92" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -78389,8 +78665,11 @@
       <c r="JQ93" s="2" t="n">
         <v>70.5</v>
       </c>
-      <c r="JR93" t="n">
+      <c r="JR93" s="2" t="n">
         <v>69.59999999999999</v>
+      </c>
+      <c r="JS93" t="n">
+        <v>66.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -79227,8 +79506,11 @@
       <c r="JQ94" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JR94" t="n">
+      <c r="JR94" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="JS94" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -80065,7 +80347,10 @@
       <c r="JQ95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JR95" t="n">
+      <c r="JR95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS95" t="n">
         <v>8</v>
       </c>
     </row>
@@ -80903,7 +81188,10 @@
       <c r="JQ96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JR96" t="n">
+      <c r="JR96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS96" t="n">
         <v>8</v>
       </c>
     </row>
@@ -81741,8 +82029,11 @@
       <c r="JQ97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JR97" t="n">
+      <c r="JR97" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JS97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -82579,8 +82870,11 @@
       <c r="JQ98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JR98" t="n">
+      <c r="JR98" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JS98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -83417,8 +83711,11 @@
       <c r="JQ99" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JR99" t="n">
+      <c r="JR99" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JS99" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -84255,8 +84552,11 @@
       <c r="JQ100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JR100" t="n">
+      <c r="JR100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JS100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -85093,8 +85393,11 @@
       <c r="JQ101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR101" t="n">
+      <c r="JR101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JS101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -85931,8 +86234,11 @@
       <c r="JQ102" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="JR102" t="n">
+      <c r="JR102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JS102" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,10 +448,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JS102"/>
+  <dimension ref="A1:JX102"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="JS8" activeCellId="0" sqref="JS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
@@ -1296,8 +1296,21 @@
       <c r="JR1" s="2" t="n">
         <v>10781</v>
       </c>
-      <c r="JS1" t="n">
+      <c r="JS1" s="2" t="n">
         <v>10792</v>
+      </c>
+      <c r="JT1" s="2" t="n">
+        <v>10796</v>
+      </c>
+      <c r="JU1" s="2" t="n"/>
+      <c r="JV1" s="2" t="n">
+        <v>10796</v>
+      </c>
+      <c r="JW1" s="2" t="n">
+        <v>10796</v>
+      </c>
+      <c r="JX1" t="n">
+        <v>10796</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2137,7 +2150,20 @@
       <c r="JR2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JS2" t="n">
+      <c r="JS2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JT2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JU2" s="2" t="n"/>
+      <c r="JV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JW2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JX2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2978,8 +3004,21 @@
       <c r="JR3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JS3" t="n">
+      <c r="JS3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JT3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU3" s="2" t="n"/>
+      <c r="JV3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3819,7 +3858,20 @@
       <c r="JR4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JS4" t="n">
+      <c r="JS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU4" s="2" t="n"/>
+      <c r="JV4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,8 +4712,21 @@
       <c r="JR5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JS5" t="n">
+      <c r="JS5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JT5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU5" s="2" t="n"/>
+      <c r="JV5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5501,8 +5566,21 @@
       <c r="JR6" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="JS6" t="n">
+      <c r="JS6" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JT6" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="JU6" s="2" t="n"/>
+      <c r="JV6" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="JW6" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6342,8 +6420,21 @@
       <c r="JR7" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="JS7" t="n">
+      <c r="JS7" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JT7" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JU7" s="2" t="n"/>
+      <c r="JV7" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JW7" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JX7" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7183,8 +7274,21 @@
       <c r="JR8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS8" t="n">
+      <c r="JS8" s="2" t="n">
         <v>-14</v>
+      </c>
+      <c r="JT8" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JU8" s="2" t="n"/>
+      <c r="JV8" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JW8" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JX8" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8024,8 +8128,21 @@
       <c r="JR9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JS9" t="n">
+      <c r="JS9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JT9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU9" s="2" t="n"/>
+      <c r="JV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8865,8 +8982,21 @@
       <c r="JR10" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JS10" t="n">
+      <c r="JS10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JT10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU10" s="2" t="n"/>
+      <c r="JV10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9706,8 +9836,21 @@
       <c r="JR11" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="JS11" t="n">
+      <c r="JS11" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="JT11" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="JU11" s="2" t="n"/>
+      <c r="JV11" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="JW11" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="JX11" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10547,8 +10690,21 @@
       <c r="JR12" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="JS12" t="n">
+      <c r="JS12" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="JT12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JU12" s="2" t="n"/>
+      <c r="JV12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JW12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JX12" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11388,8 +11544,21 @@
       <c r="JR13" s="2" t="n">
         <v>364</v>
       </c>
-      <c r="JS13" t="n">
+      <c r="JS13" s="2" t="n">
         <v>353</v>
+      </c>
+      <c r="JT13" s="2" t="n">
+        <v>373</v>
+      </c>
+      <c r="JU13" s="2" t="n"/>
+      <c r="JV13" s="2" t="n">
+        <v>373</v>
+      </c>
+      <c r="JW13" s="2" t="n">
+        <v>373</v>
+      </c>
+      <c r="JX13" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12229,8 +12398,21 @@
       <c r="JR14" s="2" t="n">
         <v>1.91</v>
       </c>
-      <c r="JS14" t="n">
+      <c r="JS14" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="JT14" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="JU14" s="2" t="n"/>
+      <c r="JV14" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="JW14" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="JX14" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13070,8 +13252,21 @@
       <c r="JR15" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="JS15" t="n">
+      <c r="JS15" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JT15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JU15" s="2" t="n"/>
+      <c r="JV15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JW15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JX15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13911,7 +14106,20 @@
       <c r="JR16" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JS16" t="n">
+      <c r="JS16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JT16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JU16" s="2" t="n"/>
+      <c r="JV16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JW16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JX16" t="n">
         <v>58</v>
       </c>
     </row>
@@ -14752,8 +14960,21 @@
       <c r="JR17" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JS17" t="n">
+      <c r="JS17" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JT17" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JU17" s="2" t="n"/>
+      <c r="JV17" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JW17" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JX17" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15593,8 +15814,21 @@
       <c r="JR18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JS18" t="n">
+      <c r="JS18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JT18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JU18" s="2" t="n"/>
+      <c r="JV18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JW18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JX18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16434,8 +16668,21 @@
       <c r="JR19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JS19" t="n">
+      <c r="JS19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JT19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JU19" s="2" t="n"/>
+      <c r="JV19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JW19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JX19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17275,8 +17522,21 @@
       <c r="JR20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JS20" t="n">
+      <c r="JS20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JT20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JU20" s="2" t="n"/>
+      <c r="JV20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JW20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JX20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18116,8 +18376,21 @@
       <c r="JR21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS21" t="n">
+      <c r="JS21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JT21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JU21" s="2" t="n"/>
+      <c r="JV21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JW21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JX21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18957,8 +19230,21 @@
       <c r="JR22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JS22" t="n">
+      <c r="JS22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JT22" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JU22" s="2" t="n"/>
+      <c r="JV22" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JW22" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JX22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19798,8 +20084,21 @@
       <c r="JR23" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JS23" t="n">
+      <c r="JS23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JT23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JU23" s="2" t="n"/>
+      <c r="JV23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20639,8 +20938,21 @@
       <c r="JR24" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JS24" t="n">
+      <c r="JS24" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JT24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JU24" s="2" t="n"/>
+      <c r="JV24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JW24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JX24" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21480,8 +21792,21 @@
       <c r="JR25" s="2" t="n">
         <v>41.4</v>
       </c>
-      <c r="JS25" t="n">
+      <c r="JS25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JT25" s="2" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="JU25" s="2" t="n"/>
+      <c r="JV25" s="2" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="JW25" s="2" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="JX25" t="n">
+        <v>51.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22321,8 +22646,21 @@
       <c r="JR26" s="2" t="n">
         <v>30.33</v>
       </c>
-      <c r="JS26" t="n">
+      <c r="JS26" s="2" t="n">
         <v>44.12</v>
+      </c>
+      <c r="JT26" s="2" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="JU26" s="2" t="n"/>
+      <c r="JV26" s="2" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="JW26" s="2" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="JX26" t="n">
+        <v>21.94</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23162,8 +23500,21 @@
       <c r="JR27" s="2" t="n">
         <v>12.55</v>
       </c>
-      <c r="JS27" t="n">
+      <c r="JS27" s="2" t="n">
         <v>22.06</v>
+      </c>
+      <c r="JT27" s="2" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="JU27" s="2" t="n"/>
+      <c r="JV27" s="2" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="JW27" s="2" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="JX27" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24003,8 +24354,21 @@
       <c r="JR28" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JS28" t="n">
+      <c r="JS28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JT28" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JU28" s="2" t="n"/>
+      <c r="JV28" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JW28" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JX28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24844,8 +25208,21 @@
       <c r="JR29" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JS29" t="n">
+      <c r="JS29" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JT29" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JU29" s="2" t="n"/>
+      <c r="JV29" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JW29" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JX29" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25685,8 +26062,21 @@
       <c r="JR30" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JS30" t="n">
+      <c r="JS30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JT30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JU30" s="2" t="n"/>
+      <c r="JV30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JW30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JX30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26526,8 +26916,21 @@
       <c r="JR31" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JS31" t="n">
+      <c r="JS31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JT31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JU31" s="2" t="n"/>
+      <c r="JV31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JW31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JX31" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27367,8 +27770,21 @@
       <c r="JR32" s="2" t="n">
         <v>2.21</v>
       </c>
-      <c r="JS32" t="n">
+      <c r="JS32" s="2" t="n">
         <v>3.19</v>
+      </c>
+      <c r="JT32" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="JU32" s="2" t="n"/>
+      <c r="JV32" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="JW32" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="JX32" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28208,8 +28624,21 @@
       <c r="JR33" s="2" t="n">
         <v>5.33</v>
       </c>
-      <c r="JS33" t="n">
+      <c r="JS33" s="2" t="n">
         <v>6.38</v>
+      </c>
+      <c r="JT33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JU33" s="2" t="n"/>
+      <c r="JV33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JW33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JX33" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -29049,8 +29478,21 @@
       <c r="JR34" s="2" t="n">
         <v>34.4</v>
       </c>
-      <c r="JS34" t="n">
+      <c r="JS34" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="JT34" s="2" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="JU34" s="2" t="n"/>
+      <c r="JV34" s="2" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="JW34" s="2" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="JX34" t="n">
+        <v>51.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29890,8 +30332,21 @@
       <c r="JR35" s="2" t="n">
         <v>18.8</v>
       </c>
-      <c r="JS35" t="n">
+      <c r="JS35" s="2" t="n">
         <v>15.7</v>
+      </c>
+      <c r="JT35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JU35" s="2" t="n"/>
+      <c r="JV35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JW35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JX35" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30731,8 +31186,21 @@
       <c r="JR36" s="2" t="n">
         <v>189.3</v>
       </c>
-      <c r="JS36" t="n">
+      <c r="JS36" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="JT36" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JU36" s="2" t="n"/>
+      <c r="JV36" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JW36" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JX36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31572,8 +32040,21 @@
       <c r="JR37" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="JS37" t="n">
+      <c r="JS37" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="JT37" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="JU37" s="2" t="n"/>
+      <c r="JV37" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="JW37" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="JX37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32413,8 +32894,21 @@
       <c r="JR38" s="2" t="n">
         <v>27.16</v>
       </c>
-      <c r="JS38" t="n">
+      <c r="JS38" s="2" t="n">
         <v>27.24</v>
+      </c>
+      <c r="JT38" s="2" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="JU38" s="2" t="n"/>
+      <c r="JV38" s="2" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="JW38" s="2" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="JX38" t="n">
+        <v>26.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33254,8 +33748,21 @@
       <c r="JR39" s="2" t="n">
         <v>114.2</v>
       </c>
-      <c r="JS39" t="n">
+      <c r="JS39" s="2" t="n">
         <v>118.8</v>
+      </c>
+      <c r="JT39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="JU39" s="2" t="n"/>
+      <c r="JV39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="JW39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="JX39" t="n">
+        <v>114.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -34095,8 +34602,21 @@
       <c r="JR40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS40" t="n">
+      <c r="JS40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JT40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU40" s="2" t="n"/>
+      <c r="JV40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34936,8 +35456,21 @@
       <c r="JR41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS41" t="n">
+      <c r="JS41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JT41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JU41" s="2" t="n"/>
+      <c r="JV41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JX41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35777,8 +36310,21 @@
       <c r="JR42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS42" t="n">
+      <c r="JS42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JT42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU42" s="2" t="n"/>
+      <c r="JV42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -36618,8 +37164,21 @@
       <c r="JR43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JS43" t="n">
+      <c r="JS43" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JT43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU43" s="2" t="n"/>
+      <c r="JV43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -37459,8 +38018,21 @@
       <c r="JR44" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="JS44" t="n">
+      <c r="JS44" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="JT44" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="JU44" s="2" t="n"/>
+      <c r="JV44" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="JW44" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="JX44" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38300,8 +38872,21 @@
       <c r="JR45" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="JS45" t="n">
+      <c r="JS45" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="JT45" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="JU45" s="2" t="n"/>
+      <c r="JV45" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="JW45" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="JX45" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -39141,8 +39726,21 @@
       <c r="JR46" s="2" t="n">
         <v>265</v>
       </c>
-      <c r="JS46" t="n">
+      <c r="JS46" s="2" t="n">
         <v>252</v>
+      </c>
+      <c r="JT46" s="2" t="n">
+        <v>281</v>
+      </c>
+      <c r="JU46" s="2" t="n"/>
+      <c r="JV46" s="2" t="n">
+        <v>281</v>
+      </c>
+      <c r="JW46" s="2" t="n">
+        <v>281</v>
+      </c>
+      <c r="JX46" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39982,8 +40580,21 @@
       <c r="JR47" s="2" t="n">
         <v>72.8</v>
       </c>
-      <c r="JS47" t="n">
+      <c r="JS47" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="JT47" s="2" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="JU47" s="2" t="n"/>
+      <c r="JV47" s="2" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="JW47" s="2" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="JX47" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40823,8 +41434,21 @@
       <c r="JR48" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JS48" t="n">
+      <c r="JS48" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JT48" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JU48" s="2" t="n"/>
+      <c r="JV48" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JW48" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JX48" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41664,8 +42288,21 @@
       <c r="JR49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JS49" t="n">
+      <c r="JS49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JT49" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JU49" s="2" t="n"/>
+      <c r="JV49" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JW49" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JX49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42505,8 +43142,21 @@
       <c r="JR50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JS50" t="n">
+      <c r="JS50" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JT50" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JU50" s="2" t="n"/>
+      <c r="JV50" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JW50" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JX50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43346,8 +43996,21 @@
       <c r="JR51" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JS51" t="n">
+      <c r="JS51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JT51" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JU51" s="2" t="n"/>
+      <c r="JV51" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JW51" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JX51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -44187,8 +44850,21 @@
       <c r="JR52" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JS52" t="n">
+      <c r="JS52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JT52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JU52" s="2" t="n"/>
+      <c r="JV52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JW52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JX52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -45028,8 +45704,21 @@
       <c r="JR53" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="JS53" t="n">
+      <c r="JS53" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JT53" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JU53" s="2" t="n"/>
+      <c r="JV53" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JW53" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JX53" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45869,8 +46558,21 @@
       <c r="JR54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JS54" t="n">
+      <c r="JS54" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JT54" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JU54" s="2" t="n"/>
+      <c r="JV54" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JW54" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JX54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46710,8 +47412,21 @@
       <c r="JR55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS55" t="n">
+      <c r="JS55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JT55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JU55" s="2" t="n"/>
+      <c r="JV55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JW55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JX55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47551,8 +48266,21 @@
       <c r="JR56" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="JS56" t="n">
+      <c r="JS56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JT56" s="2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="JU56" s="2" t="n"/>
+      <c r="JV56" s="2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="JW56" s="2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="JX56" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48392,8 +49120,21 @@
       <c r="JR57" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="JS57" t="n">
+      <c r="JS57" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="JT57" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="JU57" s="2" t="n"/>
+      <c r="JV57" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="JW57" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="JX57" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -49233,8 +49974,21 @@
       <c r="JR58" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="JS58" t="n">
+      <c r="JS58" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="JT58" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="JU58" s="2" t="n"/>
+      <c r="JV58" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="JW58" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="JX58" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -50074,8 +50828,21 @@
       <c r="JR59" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="JS59" t="n">
+      <c r="JS59" s="2" t="n">
         <v>323</v>
+      </c>
+      <c r="JT59" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="JU59" s="2" t="n"/>
+      <c r="JV59" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="JW59" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="JX59" t="n">
+        <v>337</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50915,8 +51682,21 @@
       <c r="JR60" s="2" t="n">
         <v>1.25</v>
       </c>
-      <c r="JS60" t="n">
+      <c r="JS60" s="2" t="n">
         <v>2.05</v>
+      </c>
+      <c r="JT60" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="JU60" s="2" t="n"/>
+      <c r="JV60" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="JW60" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="JX60" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51756,8 +52536,21 @@
       <c r="JR61" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JS61" t="n">
+      <c r="JS61" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JT61" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JU61" s="2" t="n"/>
+      <c r="JV61" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JW61" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JX61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52597,8 +53390,21 @@
       <c r="JR62" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JS62" t="n">
+      <c r="JS62" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JT62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JU62" s="2" t="n"/>
+      <c r="JV62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JW62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JX62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -53438,8 +54244,21 @@
       <c r="JR63" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JS63" t="n">
+      <c r="JS63" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JT63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JU63" s="2" t="n"/>
+      <c r="JV63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JW63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JX63" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -54279,8 +55098,21 @@
       <c r="JR64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JS64" t="n">
+      <c r="JS64" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JT64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JU64" s="2" t="n"/>
+      <c r="JV64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JW64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JX64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -55120,8 +55952,21 @@
       <c r="JR65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JS65" t="n">
+      <c r="JS65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JT65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JU65" s="2" t="n"/>
+      <c r="JV65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JW65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JX65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -55961,7 +56806,20 @@
       <c r="JR66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JS66" t="n">
+      <c r="JS66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JU66" s="2" t="n"/>
+      <c r="JV66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JW66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JX66" t="n">
         <v>10</v>
       </c>
     </row>
@@ -56802,8 +57660,21 @@
       <c r="JR67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JS67" t="n">
+      <c r="JS67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JT67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU67" s="2" t="n"/>
+      <c r="JV67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57643,8 +58514,21 @@
       <c r="JR68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JS68" t="n">
+      <c r="JS68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JT68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU68" s="2" t="n"/>
+      <c r="JV68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -58484,7 +59368,20 @@
       <c r="JR69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JS69" t="n">
+      <c r="JS69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JU69" s="2" t="n"/>
+      <c r="JV69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -59325,8 +60222,21 @@
       <c r="JR70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JS70" t="n">
+      <c r="JS70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JT70" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JU70" s="2" t="n"/>
+      <c r="JV70" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JW70" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JX70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -60166,8 +61076,21 @@
       <c r="JR71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JS71" t="n">
+      <c r="JS71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JT71" s="2" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="JU71" s="2" t="n"/>
+      <c r="JV71" s="2" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="JW71" s="2" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="JX71" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -61007,8 +61930,21 @@
       <c r="JR72" s="2" t="n">
         <v>32.67</v>
       </c>
-      <c r="JS72" t="n">
+      <c r="JS72" s="2" t="n">
         <v>32.3</v>
+      </c>
+      <c r="JT72" s="2" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="JU72" s="2" t="n"/>
+      <c r="JV72" s="2" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="JW72" s="2" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="JX72" t="n">
+        <v>33.7</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -61848,8 +62784,21 @@
       <c r="JR73" s="2" t="n">
         <v>16.33</v>
       </c>
-      <c r="JS73" t="n">
+      <c r="JS73" s="2" t="n">
         <v>16.15</v>
+      </c>
+      <c r="JT73" s="2" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="JU73" s="2" t="n"/>
+      <c r="JV73" s="2" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="JW73" s="2" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="JX73" t="n">
+        <v>17.74</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62689,8 +63638,21 @@
       <c r="JR74" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JS74" t="n">
+      <c r="JS74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JT74" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JU74" s="2" t="n"/>
+      <c r="JV74" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JW74" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JX74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -63530,8 +64492,21 @@
       <c r="JR75" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JS75" t="n">
+      <c r="JS75" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JT75" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JU75" s="2" t="n"/>
+      <c r="JV75" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JW75" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JX75" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -64371,8 +65346,21 @@
       <c r="JR76" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JS76" t="n">
+      <c r="JS76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JT76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JU76" s="2" t="n"/>
+      <c r="JV76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JW76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JX76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -65212,8 +66200,21 @@
       <c r="JR77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JS77" t="n">
+      <c r="JS77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JT77" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JU77" s="2" t="n"/>
+      <c r="JV77" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JW77" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JX77" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -66053,8 +67054,21 @@
       <c r="JR78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JS78" t="n">
+      <c r="JS78" s="2" t="n">
         <v>2.85</v>
+      </c>
+      <c r="JT78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="JU78" s="2" t="n"/>
+      <c r="JV78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="JW78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="JX78" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -66894,8 +67908,21 @@
       <c r="JR79" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JS79" t="n">
+      <c r="JS79" s="2" t="n">
         <v>5.7</v>
+      </c>
+      <c r="JT79" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="JU79" s="2" t="n"/>
+      <c r="JV79" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="JW79" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="JX79" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67735,8 +68762,21 @@
       <c r="JR80" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="JS80" t="n">
+      <c r="JS80" s="2" t="n">
         <v>31.6</v>
+      </c>
+      <c r="JT80" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JU80" s="2" t="n"/>
+      <c r="JV80" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JW80" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JX80" t="n">
+        <v>38.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -68576,8 +69616,21 @@
       <c r="JR81" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JS81" t="n">
+      <c r="JS81" s="2" t="n">
         <v>17.5</v>
+      </c>
+      <c r="JT81" s="2" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="JU81" s="2" t="n"/>
+      <c r="JV81" s="2" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="JW81" s="2" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="JX81" t="n">
+        <v>22.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -69417,8 +70470,21 @@
       <c r="JR82" s="2" t="n">
         <v>186.6</v>
       </c>
-      <c r="JS82" t="n">
+      <c r="JS82" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="JT82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="JU82" s="2" t="n"/>
+      <c r="JV82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="JW82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="JX82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -70258,8 +71324,21 @@
       <c r="JR83" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JS83" t="n">
+      <c r="JS83" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="JT83" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JU83" s="2" t="n"/>
+      <c r="JV83" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JW83" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JX83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -71099,8 +72178,21 @@
       <c r="JR84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="JS84" t="n">
+      <c r="JS84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JT84" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JU84" s="2" t="n"/>
+      <c r="JV84" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JW84" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JX84" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -71940,8 +73032,21 @@
       <c r="JR85" s="2" t="n">
         <v>109.3</v>
       </c>
-      <c r="JS85" t="n">
+      <c r="JS85" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="JT85" s="2" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="JU85" s="2" t="n"/>
+      <c r="JV85" s="2" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="JW85" s="2" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="JX85" t="n">
+        <v>71.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -72781,8 +73886,21 @@
       <c r="JR86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JS86" t="n">
+      <c r="JS86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JT86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU86" s="2" t="n"/>
+      <c r="JV86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -73622,8 +74740,21 @@
       <c r="JR87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JS87" t="n">
+      <c r="JS87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JT87" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JU87" s="2" t="n"/>
+      <c r="JV87" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JW87" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JX87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -74463,8 +75594,21 @@
       <c r="JR88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS88" t="n">
+      <c r="JS88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JT88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU88" s="2" t="n"/>
+      <c r="JV88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JX88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -75304,8 +76448,21 @@
       <c r="JR89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JS89" t="n">
+      <c r="JS89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JT89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU89" s="2" t="n"/>
+      <c r="JV89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -76145,8 +77302,21 @@
       <c r="JR90" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="JS90" t="n">
+      <c r="JS90" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="JT90" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="JU90" s="2" t="n"/>
+      <c r="JV90" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="JW90" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="JX90" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -76986,8 +78156,21 @@
       <c r="JR91" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="JS91" t="n">
+      <c r="JS91" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="JT91" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="JU91" s="2" t="n"/>
+      <c r="JV91" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="JW91" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="JX91" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -77827,8 +79010,21 @@
       <c r="JR92" s="2" t="n">
         <v>273</v>
       </c>
-      <c r="JS92" t="n">
+      <c r="JS92" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="JT92" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JU92" s="2" t="n"/>
+      <c r="JV92" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JW92" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JX92" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -78668,8 +79864,21 @@
       <c r="JR93" s="2" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="JS93" t="n">
+      <c r="JS93" s="2" t="n">
         <v>66.3</v>
+      </c>
+      <c r="JT93" s="2" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="JU93" s="2" t="n"/>
+      <c r="JV93" s="2" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="JW93" s="2" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="JX93" t="n">
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -79509,8 +80718,21 @@
       <c r="JR94" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JS94" t="n">
+      <c r="JS94" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JT94" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JU94" s="2" t="n"/>
+      <c r="JV94" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JW94" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JX94" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -80350,8 +81572,21 @@
       <c r="JR95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JS95" t="n">
+      <c r="JS95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JT95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JU95" s="2" t="n"/>
+      <c r="JV95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JW95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JX95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -81191,7 +82426,20 @@
       <c r="JR96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JS96" t="n">
+      <c r="JS96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU96" s="2" t="n"/>
+      <c r="JV96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX96" t="n">
         <v>8</v>
       </c>
     </row>
@@ -82032,8 +83280,21 @@
       <c r="JR97" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JS97" t="n">
+      <c r="JS97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JT97" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JU97" s="2" t="n"/>
+      <c r="JV97" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JW97" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JX97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -82873,8 +84134,21 @@
       <c r="JR98" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JS98" t="n">
+      <c r="JS98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JT98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JU98" s="2" t="n"/>
+      <c r="JV98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JW98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JX98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -83714,8 +84988,21 @@
       <c r="JR99" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JS99" t="n">
+      <c r="JS99" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JT99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JU99" s="2" t="n"/>
+      <c r="JV99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JW99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JX99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -84555,8 +85842,21 @@
       <c r="JR100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JS100" t="n">
+      <c r="JS100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JT100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU100" s="2" t="n"/>
+      <c r="JV100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JX100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -85396,8 +86696,21 @@
       <c r="JR101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JS101" t="n">
+      <c r="JS101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JT101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU101" s="2" t="n"/>
+      <c r="JV101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -86237,8 +87550,21 @@
       <c r="JR102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JS102" t="n">
+      <c r="JS102" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JT102" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JU102" s="2" t="n"/>
+      <c r="JV102" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JW102" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JX102" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KL102"/>
+  <dimension ref="A1:KM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JY92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KE94" activeCellId="0" sqref="KE94"/>
@@ -1354,8 +1354,11 @@
       <c r="KK1" s="2" t="n">
         <v>10834</v>
       </c>
-      <c r="KL1" t="n">
+      <c r="KL1" s="2" t="n">
         <v>10845</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>10853</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2252,7 +2255,10 @@
       <c r="KK2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KL2" t="n">
+      <c r="KL2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KM2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3150,8 +3156,11 @@
       <c r="KK3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KL3" t="n">
+      <c r="KL3" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4048,8 +4057,11 @@
       <c r="KK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KL4" t="n">
+      <c r="KL4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4946,8 +4958,11 @@
       <c r="KK5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KL5" t="n">
+      <c r="KL5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KM5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5844,8 +5859,11 @@
       <c r="KK6" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KL6" t="n">
+      <c r="KL6" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="KM6" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6742,8 +6760,11 @@
       <c r="KK7" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KL7" t="n">
+      <c r="KL7" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="KM7" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7640,8 +7661,11 @@
       <c r="KK8" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KL8" t="n">
+      <c r="KL8" s="2" t="n">
         <v>-7</v>
+      </c>
+      <c r="KM8" t="n">
+        <v>-22</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8538,7 +8562,10 @@
       <c r="KK9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KL9" t="n">
+      <c r="KL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9436,8 +9463,11 @@
       <c r="KK10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KL10" t="n">
+      <c r="KL10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KM10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10334,8 +10364,11 @@
       <c r="KK11" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KL11" t="n">
+      <c r="KL11" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KM11" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11232,8 +11265,11 @@
       <c r="KK12" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="KL12" t="n">
+      <c r="KL12" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KM12" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12130,8 +12166,11 @@
       <c r="KK13" s="2" t="n">
         <v>399</v>
       </c>
-      <c r="KL13" t="n">
+      <c r="KL13" s="2" t="n">
         <v>365</v>
+      </c>
+      <c r="KM13" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13028,8 +13067,11 @@
       <c r="KK14" s="2" t="n">
         <v>1.29</v>
       </c>
-      <c r="KL14" t="n">
+      <c r="KL14" s="2" t="n">
         <v>1.43</v>
+      </c>
+      <c r="KM14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13926,8 +13968,11 @@
       <c r="KK15" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KL15" t="n">
+      <c r="KL15" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KM15" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14824,8 +14869,11 @@
       <c r="KK16" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KL16" t="n">
+      <c r="KL16" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KM16" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15722,8 +15770,11 @@
       <c r="KK17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KL17" t="n">
+      <c r="KL17" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KM17" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16620,8 +16671,11 @@
       <c r="KK18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KL18" t="n">
+      <c r="KL18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KM18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17518,8 +17572,11 @@
       <c r="KK19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KL19" t="n">
+      <c r="KL19" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KM19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18416,8 +18473,11 @@
       <c r="KK20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KL20" t="n">
+      <c r="KL20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KM20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19314,8 +19374,11 @@
       <c r="KK21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL21" t="n">
+      <c r="KL21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KM21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20212,8 +20275,11 @@
       <c r="KK22" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KL22" t="n">
+      <c r="KL22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KM22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21110,8 +21176,11 @@
       <c r="KK23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KL23" t="n">
+      <c r="KL23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KM23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22008,8 +22077,11 @@
       <c r="KK24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KL24" t="n">
+      <c r="KL24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KM24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22906,8 +22978,11 @@
       <c r="KK25" s="2" t="n">
         <v>36.7</v>
       </c>
-      <c r="KL25" t="n">
+      <c r="KL25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KM25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23804,8 +23879,11 @@
       <c r="KK26" s="2" t="n">
         <v>36.27</v>
       </c>
-      <c r="KL26" t="n">
+      <c r="KL26" s="2" t="n">
         <v>33.18</v>
+      </c>
+      <c r="KM26" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24702,8 +24780,11 @@
       <c r="KK27" s="2" t="n">
         <v>13.3</v>
       </c>
-      <c r="KL27" t="n">
+      <c r="KL27" s="2" t="n">
         <v>16.59</v>
+      </c>
+      <c r="KM27" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25600,8 +25681,11 @@
       <c r="KK28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KL28" t="n">
+      <c r="KL28" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KM28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26498,8 +26582,11 @@
       <c r="KK29" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KL29" t="n">
+      <c r="KL29" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KM29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27396,8 +27483,11 @@
       <c r="KK30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KL30" t="n">
+      <c r="KL30" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KM30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28294,8 +28384,11 @@
       <c r="KK31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KL31" t="n">
+      <c r="KL31" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KM31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29192,8 +29285,11 @@
       <c r="KK32" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="KL32" t="n">
+      <c r="KL32" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KM32" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30090,8 +30186,11 @@
       <c r="KK33" s="2" t="n">
         <v>4.91</v>
       </c>
-      <c r="KL33" t="n">
+      <c r="KL33" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KM33" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30988,8 +31087,11 @@
       <c r="KK34" s="2" t="n">
         <v>51.9</v>
       </c>
-      <c r="KL34" t="n">
+      <c r="KL34" s="2" t="n">
         <v>30.3</v>
+      </c>
+      <c r="KM34" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31886,8 +31988,11 @@
       <c r="KK35" s="2" t="n">
         <v>20.4</v>
       </c>
-      <c r="KL35" t="n">
+      <c r="KL35" s="2" t="n">
         <v>16.7</v>
+      </c>
+      <c r="KM35" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32784,8 +32889,11 @@
       <c r="KK36" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KL36" t="n">
+      <c r="KL36" s="2" t="n">
         <v>189.4</v>
+      </c>
+      <c r="KM36" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33682,7 +33790,10 @@
       <c r="KK37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="KL37" t="n">
+      <c r="KL37" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="KM37" t="n">
         <v>87</v>
       </c>
     </row>
@@ -34580,8 +34691,11 @@
       <c r="KK38" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="KL38" t="n">
+      <c r="KL38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KM38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35478,8 +35592,11 @@
       <c r="KK39" s="2" t="n">
         <v>106.4</v>
       </c>
-      <c r="KL39" t="n">
+      <c r="KL39" s="2" t="n">
         <v>102.7</v>
+      </c>
+      <c r="KM39" t="n">
+        <v>109.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36376,7 +36493,10 @@
       <c r="KK40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KL40" t="n">
+      <c r="KL40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -37274,8 +37394,11 @@
       <c r="KK41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KL41" t="n">
+      <c r="KL41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KM41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38172,7 +38295,10 @@
       <c r="KK42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL42" t="n">
+      <c r="KL42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KM42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39070,8 +39196,11 @@
       <c r="KK43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL43" t="n">
+      <c r="KL43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KM43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39968,8 +40097,11 @@
       <c r="KK44" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="KL44" t="n">
+      <c r="KL44" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="KM44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40866,8 +40998,11 @@
       <c r="KK45" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="KL45" t="n">
+      <c r="KL45" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="KM45" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41764,8 +41899,11 @@
       <c r="KK46" s="2" t="n">
         <v>277</v>
       </c>
-      <c r="KL46" t="n">
+      <c r="KL46" s="2" t="n">
         <v>259</v>
+      </c>
+      <c r="KM46" t="n">
+        <v>293</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42662,8 +42800,11 @@
       <c r="KK47" s="2" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c r="KL47" t="n">
+      <c r="KL47" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KM47" t="n">
+        <v>73.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43560,8 +43701,11 @@
       <c r="KK48" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KL48" t="n">
+      <c r="KL48" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KM48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44458,8 +44602,11 @@
       <c r="KK49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL49" t="n">
+      <c r="KL49" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KM49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45356,8 +45503,11 @@
       <c r="KK50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KL50" t="n">
+      <c r="KL50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KM50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46254,8 +46404,11 @@
       <c r="KK51" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KL51" t="n">
+      <c r="KL51" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KM51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47152,8 +47305,11 @@
       <c r="KK52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KL52" t="n">
+      <c r="KL52" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KM52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48050,8 +48206,11 @@
       <c r="KK53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KL53" t="n">
+      <c r="KL53" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KM53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48948,8 +49107,11 @@
       <c r="KK54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KL54" t="n">
+      <c r="KL54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KM54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49846,8 +50008,11 @@
       <c r="KK55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL55" t="n">
+      <c r="KL55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KM55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50744,8 +50909,11 @@
       <c r="KK56" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="KL56" t="n">
+      <c r="KL56" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="KM56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51642,8 +51810,11 @@
       <c r="KK57" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="KL57" t="n">
+      <c r="KL57" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="KM57" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52540,8 +52711,11 @@
       <c r="KK58" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="KL58" t="n">
+      <c r="KL58" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="KM58" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53438,8 +53612,11 @@
       <c r="KK59" s="2" t="n">
         <v>298</v>
       </c>
-      <c r="KL59" t="n">
+      <c r="KL59" s="2" t="n">
         <v>322</v>
+      </c>
+      <c r="KM59" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54336,8 +54513,11 @@
       <c r="KK60" s="2" t="n">
         <v>1.87</v>
       </c>
-      <c r="KL60" t="n">
+      <c r="KL60" s="2" t="n">
         <v>2.79</v>
+      </c>
+      <c r="KM60" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55234,8 +55414,11 @@
       <c r="KK61" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KL61" t="n">
+      <c r="KL61" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KM61" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56132,7 +56315,10 @@
       <c r="KK62" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="KL62" t="n">
+      <c r="KL62" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KM62" t="n">
         <v>71</v>
       </c>
     </row>
@@ -57030,8 +57216,11 @@
       <c r="KK63" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KL63" t="n">
+      <c r="KL63" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KM63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57928,8 +58117,11 @@
       <c r="KK64" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KL64" t="n">
+      <c r="KL64" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KM64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58826,8 +59018,11 @@
       <c r="KK65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KL65" t="n">
+      <c r="KL65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KM65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59724,8 +59919,11 @@
       <c r="KK66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL66" t="n">
+      <c r="KL66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KM66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60622,8 +60820,11 @@
       <c r="KK67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KL67" t="n">
+      <c r="KL67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KM67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61520,7 +61721,10 @@
       <c r="KK68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KL68" t="n">
+      <c r="KL68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM68" t="n">
         <v>5</v>
       </c>
     </row>
@@ -62418,8 +62622,11 @@
       <c r="KK69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KL69" t="n">
+      <c r="KL69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KM69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63316,8 +63523,11 @@
       <c r="KK70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KL70" t="n">
+      <c r="KL70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KM70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64214,8 +64424,11 @@
       <c r="KK71" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="KL71" t="n">
+      <c r="KL71" s="2" t="n">
         <v>68.40000000000001</v>
+      </c>
+      <c r="KM71" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65112,8 +65325,11 @@
       <c r="KK72" s="2" t="n">
         <v>59.6</v>
       </c>
-      <c r="KL72" t="n">
+      <c r="KL72" s="2" t="n">
         <v>24.77</v>
+      </c>
+      <c r="KM72" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66010,8 +66226,11 @@
       <c r="KK73" s="2" t="n">
         <v>19.87</v>
       </c>
-      <c r="KL73" t="n">
+      <c r="KL73" s="2" t="n">
         <v>16.95</v>
+      </c>
+      <c r="KM73" t="n">
+        <v>14.73</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66908,8 +67127,11 @@
       <c r="KK74" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KL74" t="n">
+      <c r="KL74" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KM74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -67806,8 +68028,11 @@
       <c r="KK75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KL75" t="n">
+      <c r="KL75" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KM75" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68704,8 +68929,11 @@
       <c r="KK76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KL76" t="n">
+      <c r="KL76" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KM76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69602,8 +69830,11 @@
       <c r="KK77" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KL77" t="n">
+      <c r="KL77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KM77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70500,8 +70731,11 @@
       <c r="KK78" s="2" t="n">
         <v>2.73</v>
       </c>
-      <c r="KL78" t="n">
+      <c r="KL78" s="2" t="n">
         <v>2.53</v>
+      </c>
+      <c r="KM78" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71398,8 +71632,11 @@
       <c r="KK79" s="2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="KL79" t="n">
+      <c r="KL79" s="2" t="n">
         <v>3.69</v>
+      </c>
+      <c r="KM79" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72296,8 +72533,11 @@
       <c r="KK80" s="2" t="n">
         <v>34.1</v>
       </c>
-      <c r="KL80" t="n">
+      <c r="KL80" s="2" t="n">
         <v>37.5</v>
+      </c>
+      <c r="KM80" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73194,8 +73434,11 @@
       <c r="KK81" s="2" t="n">
         <v>12.2</v>
       </c>
-      <c r="KL81" t="n">
+      <c r="KL81" s="2" t="n">
         <v>27.1</v>
+      </c>
+      <c r="KM81" t="n">
+        <v>31.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74092,8 +74335,11 @@
       <c r="KK82" s="2" t="n">
         <v>186.8</v>
       </c>
-      <c r="KL82" t="n">
+      <c r="KL82" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="KM82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74990,8 +75236,11 @@
       <c r="KK83" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KL83" t="n">
+      <c r="KL83" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KM83" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75888,8 +76137,11 @@
       <c r="KK84" s="2" t="n">
         <v>24.24</v>
       </c>
-      <c r="KL84" t="n">
+      <c r="KL84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KM84" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76786,8 +77038,11 @@
       <c r="KK85" s="2" t="n">
         <v>72.90000000000001</v>
       </c>
-      <c r="KL85" t="n">
+      <c r="KL85" s="2" t="n">
         <v>78.2</v>
+      </c>
+      <c r="KM85" t="n">
+        <v>122.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77684,7 +77939,10 @@
       <c r="KK86" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KL86" t="n">
+      <c r="KL86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -78582,8 +78840,11 @@
       <c r="KK87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KL87" t="n">
+      <c r="KL87" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KM87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -79480,7 +79741,10 @@
       <c r="KK88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KL88" t="n">
+      <c r="KL88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KM88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -80378,8 +80642,11 @@
       <c r="KK89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KL89" t="n">
+      <c r="KL89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KM89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81276,8 +81543,11 @@
       <c r="KK90" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="KL90" t="n">
+      <c r="KL90" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="KM90" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82174,8 +82444,11 @@
       <c r="KK91" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KL91" t="n">
+      <c r="KL91" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="KM91" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83072,8 +83345,11 @@
       <c r="KK92" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="KL92" t="n">
+      <c r="KL92" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="KM92" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83970,8 +84246,11 @@
       <c r="KK93" s="2" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="KL93" t="n">
+      <c r="KL93" s="2" t="n">
         <v>66.09999999999999</v>
+      </c>
+      <c r="KM93" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84868,8 +85147,11 @@
       <c r="KK94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KL94" t="n">
+      <c r="KL94" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KM94" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -85766,8 +86048,11 @@
       <c r="KK95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL95" t="n">
+      <c r="KL95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KM95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86664,8 +86949,11 @@
       <c r="KK96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL96" t="n">
+      <c r="KL96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KM96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -87562,8 +87850,11 @@
       <c r="KK97" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KL97" t="n">
+      <c r="KL97" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KM97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -88460,8 +88751,11 @@
       <c r="KK98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KL98" t="n">
+      <c r="KL98" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KM98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89358,8 +89652,11 @@
       <c r="KK99" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KL99" t="n">
+      <c r="KL99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KM99" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90256,8 +90553,11 @@
       <c r="KK100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KL100" t="n">
+      <c r="KL100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KM100" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91154,8 +91454,11 @@
       <c r="KK101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KL101" t="n">
+      <c r="KL101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KM101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92052,8 +92355,11 @@
       <c r="KK102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KL102" t="n">
+      <c r="KL102" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="KM102" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KN102"/>
+  <dimension ref="A1:KO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JY92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KE94" activeCellId="0" sqref="KE94"/>
@@ -1360,8 +1360,11 @@
       <c r="KM1" s="2" t="n">
         <v>10853</v>
       </c>
-      <c r="KN1" t="n">
+      <c r="KN1" s="2" t="n">
         <v>10858</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>10870</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2264,7 +2267,10 @@
       <c r="KM2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KN2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KO2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3168,8 +3174,11 @@
       <c r="KM3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KN3" t="n">
+      <c r="KN3" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4072,8 +4081,11 @@
       <c r="KM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KN4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4976,7 +4988,10 @@
       <c r="KM5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN5" t="n">
+      <c r="KN5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5880,8 +5895,11 @@
       <c r="KM6" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KN6" t="n">
+      <c r="KN6" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6784,8 +6802,11 @@
       <c r="KM7" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="KN7" t="n">
+      <c r="KN7" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7688,8 +7709,11 @@
       <c r="KM8" s="2" t="n">
         <v>-22</v>
       </c>
-      <c r="KN8" t="n">
+      <c r="KN8" s="2" t="n">
         <v>-22</v>
+      </c>
+      <c r="KO8" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8592,8 +8616,11 @@
       <c r="KM9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KN9" t="n">
+      <c r="KN9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9496,8 +9523,11 @@
       <c r="KM10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN10" t="n">
+      <c r="KN10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10400,8 +10430,11 @@
       <c r="KM11" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="KN11" t="n">
+      <c r="KN11" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11304,8 +11337,11 @@
       <c r="KM12" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="KN12" t="n">
+      <c r="KN12" s="2" t="n">
         <v>168</v>
+      </c>
+      <c r="KO12" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12208,8 +12244,11 @@
       <c r="KM13" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="KN13" t="n">
+      <c r="KN13" s="2" t="n">
         <v>381</v>
+      </c>
+      <c r="KO13" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13112,8 +13151,11 @@
       <c r="KM14" s="2" t="n">
         <v>1.34</v>
       </c>
-      <c r="KN14" t="n">
+      <c r="KN14" s="2" t="n">
         <v>1.27</v>
+      </c>
+      <c r="KO14" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14016,8 +14058,11 @@
       <c r="KM15" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="KN15" t="n">
+      <c r="KN15" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14920,8 +14965,11 @@
       <c r="KM16" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KN16" t="n">
+      <c r="KN16" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KO16" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15824,8 +15872,11 @@
       <c r="KM17" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KN17" t="n">
+      <c r="KN17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16728,7 +16779,10 @@
       <c r="KM18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KN18" t="n">
+      <c r="KN18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KO18" t="n">
         <v>19</v>
       </c>
     </row>
@@ -17632,8 +17686,11 @@
       <c r="KM19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KN19" t="n">
+      <c r="KN19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KO19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18536,8 +18593,11 @@
       <c r="KM20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN20" t="n">
+      <c r="KN20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19440,8 +19500,11 @@
       <c r="KM21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN21" t="n">
+      <c r="KN21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KO21" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20344,8 +20407,11 @@
       <c r="KM22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KN22" t="n">
+      <c r="KN22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21248,8 +21314,11 @@
       <c r="KM23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN23" t="n">
+      <c r="KN23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22152,8 +22221,11 @@
       <c r="KM24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KN24" t="n">
+      <c r="KN24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KO24" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23056,8 +23128,11 @@
       <c r="KM25" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KN25" t="n">
+      <c r="KN25" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KO25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23960,8 +24035,11 @@
       <c r="KM26" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KN26" t="n">
+      <c r="KN26" s="2" t="n">
         <v>29.31</v>
+      </c>
+      <c r="KO26" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24864,8 +24942,11 @@
       <c r="KM27" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KN27" t="n">
+      <c r="KN27" s="2" t="n">
         <v>19.05</v>
+      </c>
+      <c r="KO27" t="n">
+        <v>12.3</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25768,8 +25849,11 @@
       <c r="KM28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KN28" t="n">
+      <c r="KN28" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KO28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26672,8 +26756,11 @@
       <c r="KM29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KN29" t="n">
+      <c r="KN29" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KO29" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27576,8 +27663,11 @@
       <c r="KM30" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KN30" t="n">
+      <c r="KN30" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KO30" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28480,8 +28570,11 @@
       <c r="KM31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KN31" t="n">
+      <c r="KN31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KO31" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29384,8 +29477,11 @@
       <c r="KM32" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="KN32" t="n">
+      <c r="KN32" s="2" t="n">
         <v>2.55</v>
+      </c>
+      <c r="KO32" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30288,8 +30384,11 @@
       <c r="KM33" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="KN33" t="n">
+      <c r="KN33" s="2" t="n">
         <v>3.92</v>
+      </c>
+      <c r="KO33" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31192,8 +31291,11 @@
       <c r="KM34" s="2" t="n">
         <v>47.1</v>
       </c>
-      <c r="KN34" t="n">
+      <c r="KN34" s="2" t="n">
         <v>39.2</v>
+      </c>
+      <c r="KO34" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32096,8 +32198,11 @@
       <c r="KM35" s="2" t="n">
         <v>19.6</v>
       </c>
-      <c r="KN35" t="n">
+      <c r="KN35" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="KO35" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33000,8 +33105,11 @@
       <c r="KM36" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KN36" t="n">
+      <c r="KN36" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="KO36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33904,8 +34012,11 @@
       <c r="KM37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KN37" t="n">
+      <c r="KN37" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="KO37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34808,8 +34919,11 @@
       <c r="KM38" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="KN38" t="n">
+      <c r="KN38" s="2" t="n">
         <v>26.58</v>
+      </c>
+      <c r="KO38" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35712,8 +35826,11 @@
       <c r="KM39" s="2" t="n">
         <v>109.8</v>
       </c>
-      <c r="KN39" t="n">
+      <c r="KN39" s="2" t="n">
         <v>111.6</v>
+      </c>
+      <c r="KO39" t="n">
+        <v>114.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36616,8 +36733,11 @@
       <c r="KM40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN40" t="n">
+      <c r="KN40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37520,8 +37640,11 @@
       <c r="KM41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KN41" t="n">
+      <c r="KN41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KO41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38424,8 +38547,11 @@
       <c r="KM42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KN42" t="n">
+      <c r="KN42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KO42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39328,8 +39454,11 @@
       <c r="KM43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN43" t="n">
+      <c r="KN43" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40232,8 +40361,11 @@
       <c r="KM44" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="KN44" t="n">
+      <c r="KN44" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KO44" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41136,8 +41268,11 @@
       <c r="KM45" s="2" t="n">
         <v>267</v>
       </c>
-      <c r="KN45" t="n">
+      <c r="KN45" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="KO45" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42040,8 +42175,11 @@
       <c r="KM46" s="2" t="n">
         <v>293</v>
       </c>
-      <c r="KN46" t="n">
+      <c r="KN46" s="2" t="n">
         <v>286</v>
+      </c>
+      <c r="KO46" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42944,8 +43082,11 @@
       <c r="KM47" s="2" t="n">
         <v>73.2</v>
       </c>
-      <c r="KN47" t="n">
+      <c r="KN47" s="2" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="KO47" t="n">
+        <v>76.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43848,8 +43989,11 @@
       <c r="KM48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KN48" t="n">
+      <c r="KN48" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KO48" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44752,8 +44896,11 @@
       <c r="KM49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KN49" t="n">
+      <c r="KN49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45656,8 +45803,11 @@
       <c r="KM50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KN50" t="n">
+      <c r="KN50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KO50" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46560,8 +46710,11 @@
       <c r="KM51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KN51" t="n">
+      <c r="KN51" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KO51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47464,8 +47617,11 @@
       <c r="KM52" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KN52" t="n">
+      <c r="KN52" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KO52" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48368,8 +48524,11 @@
       <c r="KM53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KN53" t="n">
+      <c r="KN53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KO53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49272,8 +49431,11 @@
       <c r="KM54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN54" t="n">
+      <c r="KN54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50176,8 +50338,11 @@
       <c r="KM55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN55" t="n">
+      <c r="KN55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KO55" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51080,8 +51245,11 @@
       <c r="KM56" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KN56" t="n">
+      <c r="KN56" s="2" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="KO56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51984,8 +52152,11 @@
       <c r="KM57" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="KN57" t="n">
+      <c r="KN57" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="KO57" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52888,8 +53059,11 @@
       <c r="KM58" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="KN58" t="n">
+      <c r="KN58" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="KO58" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53792,8 +53966,11 @@
       <c r="KM59" s="2" t="n">
         <v>324</v>
       </c>
-      <c r="KN59" t="n">
+      <c r="KN59" s="2" t="n">
         <v>311</v>
+      </c>
+      <c r="KO59" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54696,8 +54873,11 @@
       <c r="KM60" s="2" t="n">
         <v>1.77</v>
       </c>
-      <c r="KN60" t="n">
+      <c r="KN60" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="KO60" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55600,8 +55780,11 @@
       <c r="KM61" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KN61" t="n">
+      <c r="KN61" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KO61" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56504,8 +56687,11 @@
       <c r="KM62" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KN62" t="n">
+      <c r="KN62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KO62" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57408,8 +57594,11 @@
       <c r="KM63" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KN63" t="n">
+      <c r="KN63" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KO63" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58312,8 +58501,11 @@
       <c r="KM64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KN64" t="n">
+      <c r="KN64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KO64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59216,7 +59408,10 @@
       <c r="KM65" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KN65" t="n">
+      <c r="KN65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KO65" t="n">
         <v>19</v>
       </c>
     </row>
@@ -60120,8 +60315,11 @@
       <c r="KM66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KN66" t="n">
+      <c r="KN66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KO66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61024,8 +61222,11 @@
       <c r="KM67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KN67" t="n">
+      <c r="KN67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KO67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61928,8 +62129,11 @@
       <c r="KM68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN68" t="n">
+      <c r="KN68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62832,8 +63036,11 @@
       <c r="KM69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KN69" t="n">
+      <c r="KN69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KO69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63736,8 +63943,11 @@
       <c r="KM70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KN70" t="n">
+      <c r="KN70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KO70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64640,8 +64850,11 @@
       <c r="KM71" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="KN71" t="n">
+      <c r="KN71" s="2" t="n">
         <v>59.3</v>
+      </c>
+      <c r="KO71" t="n">
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65544,8 +65757,11 @@
       <c r="KM72" s="2" t="n">
         <v>21.6</v>
       </c>
-      <c r="KN72" t="n">
+      <c r="KN72" s="2" t="n">
         <v>19.44</v>
+      </c>
+      <c r="KO72" t="n">
+        <v>25.31</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66448,8 +66664,11 @@
       <c r="KM73" s="2" t="n">
         <v>14.73</v>
       </c>
-      <c r="KN73" t="n">
+      <c r="KN73" s="2" t="n">
         <v>11.52</v>
+      </c>
+      <c r="KO73" t="n">
+        <v>17.32</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67352,8 +67571,11 @@
       <c r="KM74" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KN74" t="n">
+      <c r="KN74" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KO74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68256,8 +68478,11 @@
       <c r="KM75" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KN75" t="n">
+      <c r="KN75" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KO75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69160,8 +69385,11 @@
       <c r="KM76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KN76" t="n">
+      <c r="KN76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KO76" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70064,8 +70292,11 @@
       <c r="KM77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KN77" t="n">
+      <c r="KN77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KO77" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70968,8 +71199,11 @@
       <c r="KM78" s="2" t="n">
         <v>2.14</v>
       </c>
-      <c r="KN78" t="n">
+      <c r="KN78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KO78" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71872,8 +72106,11 @@
       <c r="KM79" s="2" t="n">
         <v>3.13</v>
       </c>
-      <c r="KN79" t="n">
+      <c r="KN79" s="2" t="n">
         <v>3.38</v>
+      </c>
+      <c r="KO79" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72776,8 +73013,11 @@
       <c r="KM80" s="2" t="n">
         <v>42.6</v>
       </c>
-      <c r="KN80" t="n">
+      <c r="KN80" s="2" t="n">
         <v>42.6</v>
+      </c>
+      <c r="KO80" t="n">
+        <v>47.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73680,8 +73920,11 @@
       <c r="KM81" s="2" t="n">
         <v>31.9</v>
       </c>
-      <c r="KN81" t="n">
+      <c r="KN81" s="2" t="n">
         <v>29.6</v>
+      </c>
+      <c r="KO81" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74584,8 +74827,11 @@
       <c r="KM82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KN82" t="n">
+      <c r="KN82" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="KO82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75488,8 +75734,11 @@
       <c r="KM83" s="2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="KN83" t="n">
+      <c r="KN83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="KO83" t="n">
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76392,8 +76641,11 @@
       <c r="KM84" s="2" t="n">
         <v>27.24</v>
       </c>
-      <c r="KN84" t="n">
+      <c r="KN84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KO84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77296,8 +77548,11 @@
       <c r="KM85" s="2" t="n">
         <v>122.1</v>
       </c>
-      <c r="KN85" t="n">
+      <c r="KN85" s="2" t="n">
         <v>102.9</v>
+      </c>
+      <c r="KO85" t="n">
+        <v>92.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78200,8 +78455,11 @@
       <c r="KM86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN86" t="n">
+      <c r="KN86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79104,8 +79362,11 @@
       <c r="KM87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN87" t="n">
+      <c r="KN87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80008,7 +80269,10 @@
       <c r="KM88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KN88" t="n">
+      <c r="KN88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KO88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -80912,8 +81176,11 @@
       <c r="KM89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN89" t="n">
+      <c r="KN89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81816,8 +82083,11 @@
       <c r="KM90" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="KN90" t="n">
+      <c r="KN90" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="KO90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82720,8 +82990,11 @@
       <c r="KM91" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="KN91" t="n">
+      <c r="KN91" s="2" t="n">
         <v>171</v>
+      </c>
+      <c r="KO91" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83624,8 +83897,11 @@
       <c r="KM92" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KN92" t="n">
+      <c r="KN92" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="KO92" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84528,8 +84804,11 @@
       <c r="KM93" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="KN93" t="n">
+      <c r="KN93" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KO93" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85432,8 +85711,11 @@
       <c r="KM94" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KN94" t="n">
+      <c r="KN94" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KO94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86336,8 +86618,11 @@
       <c r="KM95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN95" t="n">
+      <c r="KN95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87240,8 +87525,11 @@
       <c r="KM96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KN96" t="n">
+      <c r="KN96" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KO96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88144,8 +88432,11 @@
       <c r="KM97" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KN97" t="n">
+      <c r="KN97" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KO97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89048,8 +89339,11 @@
       <c r="KM98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KN98" t="n">
+      <c r="KN98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KO98" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89952,8 +90246,11 @@
       <c r="KM99" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KN99" t="n">
+      <c r="KN99" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KO99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90856,8 +91153,11 @@
       <c r="KM100" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KN100" t="n">
+      <c r="KN100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91760,8 +92060,11 @@
       <c r="KM101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KN101" t="n">
+      <c r="KN101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KO101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92664,8 +92967,11 @@
       <c r="KM102" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="KN102" t="n">
+      <c r="KN102" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KO102" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KO102"/>
+  <dimension ref="A1:KP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JY92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KE94" activeCellId="0" sqref="KE94"/>
@@ -1363,8 +1363,11 @@
       <c r="KN1" s="2" t="n">
         <v>10858</v>
       </c>
-      <c r="KO1" t="n">
+      <c r="KO1" s="2" t="n">
         <v>10870</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>10882</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2270,7 +2273,10 @@
       <c r="KN2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KO2" t="n">
+      <c r="KO2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KP2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3177,8 +3183,11 @@
       <c r="KN3" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KO3" t="n">
+      <c r="KO3" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4084,8 +4093,11 @@
       <c r="KN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO4" t="n">
+      <c r="KO4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4991,8 +5003,11 @@
       <c r="KN5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO5" t="n">
+      <c r="KO5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KP5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5898,8 +5913,11 @@
       <c r="KN6" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KO6" t="n">
+      <c r="KO6" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6805,8 +6823,11 @@
       <c r="KN7" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="KO7" t="n">
+      <c r="KO7" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7712,8 +7733,11 @@
       <c r="KN8" s="2" t="n">
         <v>-22</v>
       </c>
-      <c r="KO8" t="n">
+      <c r="KO8" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KP8" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8619,7 +8643,10 @@
       <c r="KN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO9" t="n">
+      <c r="KO9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9526,8 +9553,11 @@
       <c r="KN10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KO10" t="n">
+      <c r="KO10" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KP10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10433,8 +10463,11 @@
       <c r="KN11" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="KO11" t="n">
+      <c r="KO11" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="KP11" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11340,8 +11373,11 @@
       <c r="KN12" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="KO12" t="n">
+      <c r="KO12" s="2" t="n">
         <v>165</v>
+      </c>
+      <c r="KP12" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12247,8 +12283,11 @@
       <c r="KN13" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="KO13" t="n">
+      <c r="KO13" s="2" t="n">
         <v>369</v>
+      </c>
+      <c r="KP13" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13154,8 +13193,11 @@
       <c r="KN14" s="2" t="n">
         <v>1.27</v>
       </c>
-      <c r="KO14" t="n">
+      <c r="KO14" s="2" t="n">
         <v>1.24</v>
+      </c>
+      <c r="KP14" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14061,8 +14103,11 @@
       <c r="KN15" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="KO15" t="n">
+      <c r="KO15" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="KP15" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14968,8 +15013,11 @@
       <c r="KN16" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KO16" t="n">
+      <c r="KO16" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="KP16" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15875,8 +15923,11 @@
       <c r="KN17" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KO17" t="n">
+      <c r="KO17" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KP17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16782,8 +16833,11 @@
       <c r="KN18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KO18" t="n">
+      <c r="KO18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KP18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17689,8 +17743,11 @@
       <c r="KN19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KO19" t="n">
+      <c r="KO19" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KP19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18596,8 +18653,11 @@
       <c r="KN20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KO20" t="n">
+      <c r="KO20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KP20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19503,8 +19563,11 @@
       <c r="KN21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KO21" t="n">
+      <c r="KO21" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KP21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20410,8 +20473,11 @@
       <c r="KN22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO22" t="n">
+      <c r="KO22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KP22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21317,8 +21383,11 @@
       <c r="KN23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO23" t="n">
+      <c r="KO23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KP23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22224,8 +22293,11 @@
       <c r="KN24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KO24" t="n">
+      <c r="KO24" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KP24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23131,8 +23203,11 @@
       <c r="KN25" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KO25" t="n">
+      <c r="KO25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KP25" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24038,8 +24113,11 @@
       <c r="KN26" s="2" t="n">
         <v>29.31</v>
       </c>
-      <c r="KO26" t="n">
+      <c r="KO26" s="2" t="n">
         <v>24.6</v>
+      </c>
+      <c r="KP26" t="n">
+        <v>19.75</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24945,8 +25023,11 @@
       <c r="KN27" s="2" t="n">
         <v>19.05</v>
       </c>
-      <c r="KO27" t="n">
+      <c r="KO27" s="2" t="n">
         <v>12.3</v>
+      </c>
+      <c r="KP27" t="n">
+        <v>14.36</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25852,8 +25933,11 @@
       <c r="KN28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KO28" t="n">
+      <c r="KO28" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KP28" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26759,8 +26843,11 @@
       <c r="KN29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KO29" t="n">
+      <c r="KO29" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KP29" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27666,8 +27753,11 @@
       <c r="KN30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KO30" t="n">
+      <c r="KO30" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KP30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28573,8 +28663,11 @@
       <c r="KN31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KO31" t="n">
+      <c r="KO31" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KP31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29480,8 +29573,11 @@
       <c r="KN32" s="2" t="n">
         <v>2.55</v>
       </c>
-      <c r="KO32" t="n">
+      <c r="KO32" s="2" t="n">
         <v>2.4</v>
+      </c>
+      <c r="KP32" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30387,8 +30483,11 @@
       <c r="KN33" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="KO33" t="n">
+      <c r="KO33" s="2" t="n">
         <v>4.8</v>
+      </c>
+      <c r="KP33" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31294,8 +31393,11 @@
       <c r="KN34" s="2" t="n">
         <v>39.2</v>
       </c>
-      <c r="KO34" t="n">
+      <c r="KO34" s="2" t="n">
         <v>36.1</v>
+      </c>
+      <c r="KP34" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32201,8 +32303,11 @@
       <c r="KN35" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="KO35" t="n">
+      <c r="KO35" s="2" t="n">
         <v>20.8</v>
+      </c>
+      <c r="KP35" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33108,8 +33213,11 @@
       <c r="KN36" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KO36" t="n">
+      <c r="KO36" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KP36" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34015,8 +34123,11 @@
       <c r="KN37" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="KO37" t="n">
+      <c r="KO37" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="KP37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34922,8 +35033,11 @@
       <c r="KN38" s="2" t="n">
         <v>26.58</v>
       </c>
-      <c r="KO38" t="n">
+      <c r="KO38" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KP38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35829,8 +35943,11 @@
       <c r="KN39" s="2" t="n">
         <v>111.6</v>
       </c>
-      <c r="KO39" t="n">
+      <c r="KO39" s="2" t="n">
         <v>114.8</v>
+      </c>
+      <c r="KP39" t="n">
+        <v>104.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36736,8 +36853,11 @@
       <c r="KN40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO40" t="n">
+      <c r="KO40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37643,7 +37763,10 @@
       <c r="KN41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KO41" t="n">
+      <c r="KO41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38550,7 +38673,10 @@
       <c r="KN42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KO42" t="n">
+      <c r="KO42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39457,8 +39583,11 @@
       <c r="KN43" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO43" t="n">
+      <c r="KO43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KP43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40364,8 +40493,11 @@
       <c r="KN44" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="KO44" t="n">
+      <c r="KO44" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="KP44" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41271,8 +41403,11 @@
       <c r="KN45" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="KO45" t="n">
+      <c r="KO45" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="KP45" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42178,8 +42313,11 @@
       <c r="KN46" s="2" t="n">
         <v>286</v>
       </c>
-      <c r="KO46" t="n">
+      <c r="KO46" s="2" t="n">
         <v>283</v>
+      </c>
+      <c r="KP46" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43085,8 +43223,11 @@
       <c r="KN47" s="2" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="KO47" t="n">
+      <c r="KO47" s="2" t="n">
         <v>76.7</v>
+      </c>
+      <c r="KP47" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43992,8 +44133,11 @@
       <c r="KN48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KO48" t="n">
+      <c r="KO48" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KP48" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44899,8 +45043,11 @@
       <c r="KN49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO49" t="n">
+      <c r="KO49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KP49" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45806,8 +45953,11 @@
       <c r="KN50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KO50" t="n">
+      <c r="KO50" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KP50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46713,8 +46863,11 @@
       <c r="KN51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KO51" t="n">
+      <c r="KO51" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KP51" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47620,8 +47773,11 @@
       <c r="KN52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KO52" t="n">
+      <c r="KO52" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KP52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48527,8 +48683,11 @@
       <c r="KN53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KO53" t="n">
+      <c r="KO53" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KP53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49434,8 +49593,11 @@
       <c r="KN54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO54" t="n">
+      <c r="KO54" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KP54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50341,8 +50503,11 @@
       <c r="KN55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KO55" t="n">
+      <c r="KO55" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KP55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51248,8 +51413,11 @@
       <c r="KN56" s="2" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="KO56" t="n">
+      <c r="KO56" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="KP56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52155,8 +52323,11 @@
       <c r="KN57" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="KO57" t="n">
+      <c r="KO57" s="2" t="n">
         <v>181</v>
+      </c>
+      <c r="KP57" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53062,8 +53233,11 @@
       <c r="KN58" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="KO58" t="n">
+      <c r="KO58" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="KP58" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53969,8 +54143,11 @@
       <c r="KN59" s="2" t="n">
         <v>311</v>
       </c>
-      <c r="KO59" t="n">
+      <c r="KO59" s="2" t="n">
         <v>329</v>
+      </c>
+      <c r="KP59" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54876,8 +55053,11 @@
       <c r="KN60" s="2" t="n">
         <v>1.59</v>
       </c>
-      <c r="KO60" t="n">
+      <c r="KO60" s="2" t="n">
         <v>1.22</v>
+      </c>
+      <c r="KP60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55783,8 +55963,11 @@
       <c r="KN61" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KO61" t="n">
+      <c r="KO61" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KP61" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56690,8 +56873,11 @@
       <c r="KN62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KO62" t="n">
+      <c r="KO62" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KP62" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57597,8 +57783,11 @@
       <c r="KN63" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KO63" t="n">
+      <c r="KO63" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KP63" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58504,8 +58693,11 @@
       <c r="KN64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KO64" t="n">
+      <c r="KO64" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KP64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59411,8 +59603,11 @@
       <c r="KN65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KO65" t="n">
+      <c r="KO65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KP65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60318,8 +60513,11 @@
       <c r="KN66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KO66" t="n">
+      <c r="KO66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KP66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61225,7 +61423,10 @@
       <c r="KN67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KO67" t="n">
+      <c r="KO67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KP67" t="n">
         <v>10</v>
       </c>
     </row>
@@ -62132,7 +62333,10 @@
       <c r="KN68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO68" t="n">
+      <c r="KO68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -63039,8 +63243,11 @@
       <c r="KN69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO69" t="n">
+      <c r="KO69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KP69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63946,8 +64153,11 @@
       <c r="KN70" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KO70" t="n">
+      <c r="KO70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KP70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64853,8 +65063,11 @@
       <c r="KN71" s="2" t="n">
         <v>59.3</v>
       </c>
-      <c r="KO71" t="n">
+      <c r="KO71" s="2" t="n">
         <v>68.40000000000001</v>
+      </c>
+      <c r="KP71" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65760,8 +65973,11 @@
       <c r="KN72" s="2" t="n">
         <v>19.44</v>
       </c>
-      <c r="KO72" t="n">
+      <c r="KO72" s="2" t="n">
         <v>25.31</v>
+      </c>
+      <c r="KP72" t="n">
+        <v>36.82</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66667,8 +66883,11 @@
       <c r="KN73" s="2" t="n">
         <v>11.52</v>
       </c>
-      <c r="KO73" t="n">
+      <c r="KO73" s="2" t="n">
         <v>17.32</v>
+      </c>
+      <c r="KP73" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67574,8 +67793,11 @@
       <c r="KN74" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KO74" t="n">
+      <c r="KO74" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KP74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68481,8 +68703,11 @@
       <c r="KN75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KO75" t="n">
+      <c r="KO75" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KP75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69388,8 +69613,11 @@
       <c r="KN76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KO76" t="n">
+      <c r="KO76" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KP76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70295,8 +70523,11 @@
       <c r="KN77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KO77" t="n">
+      <c r="KO77" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KP77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71202,8 +71433,11 @@
       <c r="KN78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KO78" t="n">
+      <c r="KO78" s="2" t="n">
         <v>1.89</v>
+      </c>
+      <c r="KP78" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72109,8 +72343,11 @@
       <c r="KN79" s="2" t="n">
         <v>3.38</v>
       </c>
-      <c r="KO79" t="n">
+      <c r="KO79" s="2" t="n">
         <v>2.77</v>
+      </c>
+      <c r="KP79" t="n">
+        <v>4.18</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73016,8 +73253,11 @@
       <c r="KN80" s="2" t="n">
         <v>42.6</v>
       </c>
-      <c r="KO80" t="n">
+      <c r="KO80" s="2" t="n">
         <v>47.2</v>
+      </c>
+      <c r="KP80" t="n">
+        <v>32.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73923,8 +74163,11 @@
       <c r="KN81" s="2" t="n">
         <v>29.6</v>
       </c>
-      <c r="KO81" t="n">
+      <c r="KO81" s="2" t="n">
         <v>36.1</v>
+      </c>
+      <c r="KP81" t="n">
+        <v>23.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74830,8 +75073,11 @@
       <c r="KN82" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="KO82" t="n">
+      <c r="KO82" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KP82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75737,8 +75983,11 @@
       <c r="KN83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KO83" t="n">
+      <c r="KO83" s="2" t="n">
         <v>84.90000000000001</v>
+      </c>
+      <c r="KP83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76644,8 +76893,11 @@
       <c r="KN84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KO84" t="n">
+      <c r="KO84" s="2" t="n">
         <v>24.8</v>
+      </c>
+      <c r="KP84" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77551,8 +77803,11 @@
       <c r="KN85" s="2" t="n">
         <v>102.9</v>
       </c>
-      <c r="KO85" t="n">
+      <c r="KO85" s="2" t="n">
         <v>92.2</v>
+      </c>
+      <c r="KP85" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78458,8 +78713,11 @@
       <c r="KN86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO86" t="n">
+      <c r="KO86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KP86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79365,8 +79623,11 @@
       <c r="KN87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO87" t="n">
+      <c r="KO87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP87" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80272,8 +80533,11 @@
       <c r="KN88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO88" t="n">
+      <c r="KO88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KP88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81179,7 +81443,10 @@
       <c r="KN89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO89" t="n">
+      <c r="KO89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -82086,8 +82353,11 @@
       <c r="KN90" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="KO90" t="n">
+      <c r="KO90" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="KP90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82993,8 +83263,11 @@
       <c r="KN91" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="KO91" t="n">
+      <c r="KO91" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="KP91" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83900,8 +84173,11 @@
       <c r="KN92" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="KO92" t="n">
+      <c r="KO92" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="KP92" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84807,8 +85083,11 @@
       <c r="KN93" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KO93" t="n">
+      <c r="KO93" s="2" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="KP93" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85714,8 +85993,11 @@
       <c r="KN94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KO94" t="n">
+      <c r="KO94" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KP94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86621,8 +86903,11 @@
       <c r="KN95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KO95" t="n">
+      <c r="KO95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KP95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87528,8 +87813,11 @@
       <c r="KN96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KO96" t="n">
+      <c r="KO96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KP96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88435,8 +88723,11 @@
       <c r="KN97" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KO97" t="n">
+      <c r="KO97" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KP97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89342,8 +89633,11 @@
       <c r="KN98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KO98" t="n">
+      <c r="KO98" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KP98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -90249,8 +90543,11 @@
       <c r="KN99" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KO99" t="n">
+      <c r="KO99" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KP99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -91156,8 +91453,11 @@
       <c r="KN100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO100" t="n">
+      <c r="KO100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KP100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92063,7 +92363,10 @@
       <c r="KN101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KO101" t="n">
+      <c r="KO101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KP101" t="n">
         <v>10</v>
       </c>
     </row>
@@ -92970,8 +93273,11 @@
       <c r="KN102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KO102" t="n">
+      <c r="KO102" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="KP102" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KP102"/>
+  <dimension ref="A1:KQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JY92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KE94" activeCellId="0" sqref="KE94"/>
@@ -1366,8 +1366,11 @@
       <c r="KO1" s="2" t="n">
         <v>10870</v>
       </c>
-      <c r="KP1" t="n">
+      <c r="KP1" s="2" t="n">
         <v>10882</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>10892</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2276,7 +2279,10 @@
       <c r="KO2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KP2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KQ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3186,8 +3192,11 @@
       <c r="KO3" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KP3" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4096,7 +4105,10 @@
       <c r="KO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5006,8 +5018,11 @@
       <c r="KO5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP5" t="n">
+      <c r="KP5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KQ5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5916,8 +5931,11 @@
       <c r="KO6" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="KP6" t="n">
+      <c r="KP6" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6826,8 +6844,11 @@
       <c r="KO7" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="KP7" t="n">
+      <c r="KP7" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KQ7" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7736,8 +7757,11 @@
       <c r="KO8" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KP8" t="n">
+      <c r="KP8" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KQ8" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8646,8 +8670,11 @@
       <c r="KO9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP9" t="n">
+      <c r="KP9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9556,8 +9583,11 @@
       <c r="KO10" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KP10" t="n">
+      <c r="KP10" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10466,8 +10496,11 @@
       <c r="KO11" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="KP11" t="n">
+      <c r="KP11" s="2" t="n">
         <v>182</v>
+      </c>
+      <c r="KQ11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11376,8 +11409,11 @@
       <c r="KO12" s="2" t="n">
         <v>165</v>
       </c>
-      <c r="KP12" t="n">
+      <c r="KP12" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KQ12" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12286,8 +12322,11 @@
       <c r="KO13" s="2" t="n">
         <v>369</v>
       </c>
-      <c r="KP13" t="n">
+      <c r="KP13" s="2" t="n">
         <v>316</v>
+      </c>
+      <c r="KQ13" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13196,8 +13235,11 @@
       <c r="KO14" s="2" t="n">
         <v>1.24</v>
       </c>
-      <c r="KP14" t="n">
+      <c r="KP14" s="2" t="n">
         <v>1.36</v>
+      </c>
+      <c r="KQ14" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14106,8 +14148,11 @@
       <c r="KO15" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="KP15" t="n">
+      <c r="KP15" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KQ15" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15016,8 +15061,11 @@
       <c r="KO16" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KP16" t="n">
+      <c r="KP16" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KQ16" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15926,8 +15974,11 @@
       <c r="KO17" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KP17" t="n">
+      <c r="KP17" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KQ17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16836,8 +16887,11 @@
       <c r="KO18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KP18" t="n">
+      <c r="KP18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KQ18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17746,8 +17800,11 @@
       <c r="KO19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP19" t="n">
+      <c r="KP19" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18656,8 +18713,11 @@
       <c r="KO20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP20" t="n">
+      <c r="KP20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KQ20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19566,8 +19626,11 @@
       <c r="KO21" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP21" t="n">
+      <c r="KP21" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KQ21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20476,8 +20539,11 @@
       <c r="KO22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP22" t="n">
+      <c r="KP22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KQ22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21386,7 +21452,10 @@
       <c r="KO23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP23" t="n">
+      <c r="KP23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22296,7 +22365,10 @@
       <c r="KO24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KP24" t="n">
+      <c r="KP24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KQ24" t="n">
         <v>22</v>
       </c>
     </row>
@@ -23206,8 +23278,11 @@
       <c r="KO25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP25" t="n">
+      <c r="KP25" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="KQ25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24116,8 +24191,11 @@
       <c r="KO26" s="2" t="n">
         <v>24.6</v>
       </c>
-      <c r="KP26" t="n">
+      <c r="KP26" s="2" t="n">
         <v>19.75</v>
+      </c>
+      <c r="KQ26" t="n">
+        <v>34.45</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25026,8 +25104,11 @@
       <c r="KO27" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="KP27" t="n">
+      <c r="KP27" s="2" t="n">
         <v>14.36</v>
+      </c>
+      <c r="KQ27" t="n">
+        <v>17.23</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25936,8 +26017,11 @@
       <c r="KO28" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KP28" t="n">
+      <c r="KP28" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KQ28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26846,8 +26930,11 @@
       <c r="KO29" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KP29" t="n">
+      <c r="KP29" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KQ29" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27756,8 +27843,11 @@
       <c r="KO30" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KP30" t="n">
+      <c r="KP30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KQ30" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28666,8 +28756,11 @@
       <c r="KO31" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KP31" t="n">
+      <c r="KP31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KQ31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29576,8 +29669,11 @@
       <c r="KO32" s="2" t="n">
         <v>2.4</v>
       </c>
-      <c r="KP32" t="n">
+      <c r="KP32" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="KQ32" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30486,8 +30582,11 @@
       <c r="KO33" s="2" t="n">
         <v>4.8</v>
       </c>
-      <c r="KP33" t="n">
+      <c r="KP33" s="2" t="n">
         <v>3.25</v>
+      </c>
+      <c r="KQ33" t="n">
+        <v>4.64</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31396,8 +31495,11 @@
       <c r="KO34" s="2" t="n">
         <v>36.1</v>
       </c>
-      <c r="KP34" t="n">
+      <c r="KP34" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="KQ34" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32306,8 +32408,11 @@
       <c r="KO35" s="2" t="n">
         <v>20.8</v>
       </c>
-      <c r="KP35" t="n">
+      <c r="KP35" s="2" t="n">
         <v>30.8</v>
+      </c>
+      <c r="KQ35" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33216,8 +33321,11 @@
       <c r="KO36" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="KP36" t="n">
+      <c r="KP36" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="KQ36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34126,7 +34234,10 @@
       <c r="KO37" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KP37" t="n">
+      <c r="KP37" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="KQ37" t="n">
         <v>87</v>
       </c>
     </row>
@@ -35036,8 +35147,11 @@
       <c r="KO38" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KP38" t="n">
+      <c r="KP38" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="KQ38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35946,8 +36060,11 @@
       <c r="KO39" s="2" t="n">
         <v>114.8</v>
       </c>
-      <c r="KP39" t="n">
+      <c r="KP39" s="2" t="n">
         <v>104.8</v>
+      </c>
+      <c r="KQ39" t="n">
+        <v>106.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36856,8 +36973,11 @@
       <c r="KO40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP40" t="n">
+      <c r="KP40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37766,8 +37886,11 @@
       <c r="KO41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP41" t="n">
+      <c r="KP41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KQ41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38676,7 +38799,10 @@
       <c r="KO42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP42" t="n">
+      <c r="KP42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KQ42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39586,7 +39712,10 @@
       <c r="KO43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP43" t="n">
+      <c r="KP43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -40496,8 +40625,11 @@
       <c r="KO44" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="KP44" t="n">
+      <c r="KP44" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="KQ44" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41406,8 +41538,11 @@
       <c r="KO45" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="KP45" t="n">
+      <c r="KP45" s="2" t="n">
         <v>181</v>
+      </c>
+      <c r="KQ45" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42316,8 +42451,11 @@
       <c r="KO46" s="2" t="n">
         <v>283</v>
       </c>
-      <c r="KP46" t="n">
+      <c r="KP46" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="KQ46" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43226,8 +43364,11 @@
       <c r="KO47" s="2" t="n">
         <v>76.7</v>
       </c>
-      <c r="KP47" t="n">
+      <c r="KP47" s="2" t="n">
         <v>75.3</v>
+      </c>
+      <c r="KQ47" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44136,8 +44277,11 @@
       <c r="KO48" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KP48" t="n">
+      <c r="KP48" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KQ48" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45046,8 +45190,11 @@
       <c r="KO49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KP49" t="n">
+      <c r="KP49" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KQ49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45956,8 +46103,11 @@
       <c r="KO50" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KP50" t="n">
+      <c r="KP50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KQ50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46866,8 +47016,11 @@
       <c r="KO51" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KP51" t="n">
+      <c r="KP51" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KQ51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47776,8 +47929,11 @@
       <c r="KO52" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KP52" t="n">
+      <c r="KP52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KQ52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48686,8 +48842,11 @@
       <c r="KO53" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KP53" t="n">
+      <c r="KP53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KQ53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49596,8 +49755,11 @@
       <c r="KO54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP54" t="n">
+      <c r="KP54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50506,8 +50668,11 @@
       <c r="KO55" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP55" t="n">
+      <c r="KP55" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KQ55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51416,8 +51581,11 @@
       <c r="KO56" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KP56" t="n">
+      <c r="KP56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KQ56" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52326,8 +52494,11 @@
       <c r="KO57" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="KP57" t="n">
+      <c r="KP57" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="KQ57" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53236,8 +53407,11 @@
       <c r="KO58" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="KP58" t="n">
+      <c r="KP58" s="2" t="n">
         <v>176</v>
+      </c>
+      <c r="KQ58" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54146,8 +54320,11 @@
       <c r="KO59" s="2" t="n">
         <v>329</v>
       </c>
-      <c r="KP59" t="n">
+      <c r="KP59" s="2" t="n">
         <v>405</v>
+      </c>
+      <c r="KQ59" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55056,8 +55233,11 @@
       <c r="KO60" s="2" t="n">
         <v>1.22</v>
       </c>
-      <c r="KP60" t="n">
+      <c r="KP60" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="KQ60" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55966,8 +56146,11 @@
       <c r="KO61" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KP61" t="n">
+      <c r="KP61" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="KQ61" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56876,8 +57059,11 @@
       <c r="KO62" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KP62" t="n">
+      <c r="KP62" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KQ62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57786,8 +57972,11 @@
       <c r="KO63" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KP63" t="n">
+      <c r="KP63" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KQ63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58696,8 +58885,11 @@
       <c r="KO64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP64" t="n">
+      <c r="KP64" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59606,8 +59798,11 @@
       <c r="KO65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KP65" t="n">
+      <c r="KP65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KQ65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60516,8 +60711,11 @@
       <c r="KO66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP66" t="n">
+      <c r="KP66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KQ66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61426,8 +61624,11 @@
       <c r="KO67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP67" t="n">
+      <c r="KP67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62336,8 +62537,11 @@
       <c r="KO68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP68" t="n">
+      <c r="KP68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KQ68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63246,8 +63450,11 @@
       <c r="KO69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP69" t="n">
+      <c r="KP69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64156,8 +64363,11 @@
       <c r="KO70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KP70" t="n">
+      <c r="KP70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KQ70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65066,8 +65276,11 @@
       <c r="KO71" s="2" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="KP71" t="n">
+      <c r="KP71" s="2" t="n">
         <v>61.1</v>
+      </c>
+      <c r="KQ71" t="n">
+        <v>54.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65976,8 +66189,11 @@
       <c r="KO72" s="2" t="n">
         <v>25.31</v>
       </c>
-      <c r="KP72" t="n">
+      <c r="KP72" s="2" t="n">
         <v>36.82</v>
+      </c>
+      <c r="KQ72" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66886,8 +67102,11 @@
       <c r="KO73" s="2" t="n">
         <v>17.32</v>
       </c>
-      <c r="KP73" t="n">
+      <c r="KP73" s="2" t="n">
         <v>22.5</v>
+      </c>
+      <c r="KQ73" t="n">
+        <v>15.71</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67796,8 +68015,11 @@
       <c r="KO74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KP74" t="n">
+      <c r="KP74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KQ74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68706,8 +68928,11 @@
       <c r="KO75" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KP75" t="n">
+      <c r="KP75" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KQ75" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69616,8 +69841,11 @@
       <c r="KO76" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KP76" t="n">
+      <c r="KP76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KQ76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70526,8 +70754,11 @@
       <c r="KO77" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KP77" t="n">
+      <c r="KP77" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KQ77" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71436,8 +71667,11 @@
       <c r="KO78" s="2" t="n">
         <v>1.89</v>
       </c>
-      <c r="KP78" t="n">
+      <c r="KP78" s="2" t="n">
         <v>2.56</v>
+      </c>
+      <c r="KQ78" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72346,8 +72580,11 @@
       <c r="KO79" s="2" t="n">
         <v>2.77</v>
       </c>
-      <c r="KP79" t="n">
+      <c r="KP79" s="2" t="n">
         <v>4.18</v>
+      </c>
+      <c r="KQ79" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73256,8 +73493,11 @@
       <c r="KO80" s="2" t="n">
         <v>47.2</v>
       </c>
-      <c r="KP80" t="n">
+      <c r="KP80" s="2" t="n">
         <v>32.6</v>
+      </c>
+      <c r="KQ80" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74166,8 +74406,11 @@
       <c r="KO81" s="2" t="n">
         <v>36.1</v>
       </c>
-      <c r="KP81" t="n">
+      <c r="KP81" s="2" t="n">
         <v>23.9</v>
+      </c>
+      <c r="KQ81" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75076,8 +75319,11 @@
       <c r="KO82" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="KP82" t="n">
+      <c r="KP82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KQ82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75986,8 +76232,11 @@
       <c r="KO83" s="2" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="KP83" t="n">
+      <c r="KP83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="KQ83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76896,8 +77145,11 @@
       <c r="KO84" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="KP84" t="n">
+      <c r="KP84" s="2" t="n">
         <v>24.66</v>
+      </c>
+      <c r="KQ84" t="n">
+        <v>27.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77806,8 +78058,11 @@
       <c r="KO85" s="2" t="n">
         <v>92.2</v>
       </c>
-      <c r="KP85" t="n">
+      <c r="KP85" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="KQ85" t="n">
+        <v>117.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78716,8 +78971,11 @@
       <c r="KO86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP86" t="n">
+      <c r="KP86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79626,8 +79884,11 @@
       <c r="KO87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP87" t="n">
+      <c r="KP87" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KQ87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80536,8 +80797,11 @@
       <c r="KO88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP88" t="n">
+      <c r="KP88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KQ88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81446,8 +81710,11 @@
       <c r="KO89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP89" t="n">
+      <c r="KP89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KQ89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82356,8 +82623,11 @@
       <c r="KO90" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="KP90" t="n">
+      <c r="KP90" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="KQ90" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -83266,8 +83536,11 @@
       <c r="KO91" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="KP91" t="n">
+      <c r="KP91" s="2" t="n">
         <v>258</v>
+      </c>
+      <c r="KQ91" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -84176,8 +84449,11 @@
       <c r="KO92" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="KP92" t="n">
+      <c r="KP92" s="2" t="n">
         <v>309</v>
+      </c>
+      <c r="KQ92" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85086,8 +85362,11 @@
       <c r="KO93" s="2" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="KP93" t="n">
+      <c r="KP93" s="2" t="n">
         <v>76.3</v>
+      </c>
+      <c r="KQ93" t="n">
+        <v>76.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85996,8 +86275,11 @@
       <c r="KO94" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KP94" t="n">
+      <c r="KP94" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KQ94" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86906,8 +87188,11 @@
       <c r="KO95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP95" t="n">
+      <c r="KP95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KQ95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87816,8 +88101,11 @@
       <c r="KO96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KP96" t="n">
+      <c r="KP96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KQ96" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88726,8 +89014,11 @@
       <c r="KO97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KP97" t="n">
+      <c r="KP97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KQ97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89636,8 +89927,11 @@
       <c r="KO98" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KP98" t="n">
+      <c r="KP98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KQ98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -90546,8 +90840,11 @@
       <c r="KO99" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KP99" t="n">
+      <c r="KP99" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KQ99" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -91456,8 +91753,11 @@
       <c r="KO100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP100" t="n">
+      <c r="KP100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KQ100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92366,8 +92666,11 @@
       <c r="KO101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP101" t="n">
+      <c r="KP101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -93276,8 +93579,11 @@
       <c r="KO102" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="KP102" t="n">
+      <c r="KP102" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="KQ102" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KS102"/>
+  <dimension ref="A1:KT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JY92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KE94" activeCellId="0" sqref="KE94"/>
@@ -1375,8 +1375,11 @@
       <c r="KR1" s="2" t="n">
         <v>10901</v>
       </c>
-      <c r="KS1" t="n">
+      <c r="KS1" s="2" t="n">
         <v>10906</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>10919</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2294,7 +2297,10 @@
       <c r="KR2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KS2" t="n">
+      <c r="KS2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KT2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3213,8 +3219,11 @@
       <c r="KR3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KS3" t="n">
+      <c r="KS3" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4132,8 +4141,11 @@
       <c r="KR4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS4" t="n">
+      <c r="KS4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5051,7 +5063,10 @@
       <c r="KR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS5" t="n">
+      <c r="KS5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5970,8 +5985,11 @@
       <c r="KR6" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KS6" t="n">
+      <c r="KS6" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6889,8 +6907,11 @@
       <c r="KR7" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KS7" t="n">
+      <c r="KS7" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KT7" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7808,8 +7829,11 @@
       <c r="KR8" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="KS8" t="n">
+      <c r="KS8" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KT8" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8727,8 +8751,11 @@
       <c r="KR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS9" t="n">
+      <c r="KS9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9646,8 +9673,11 @@
       <c r="KR10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KS10" t="n">
+      <c r="KS10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KT10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10565,8 +10595,11 @@
       <c r="KR11" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="KS11" t="n">
+      <c r="KS11" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="KT11" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11484,8 +11517,11 @@
       <c r="KR12" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="KS12" t="n">
+      <c r="KS12" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KT12" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12403,8 +12439,11 @@
       <c r="KR13" s="2" t="n">
         <v>372</v>
       </c>
-      <c r="KS13" t="n">
+      <c r="KS13" s="2" t="n">
         <v>372</v>
+      </c>
+      <c r="KT13" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13322,8 +13361,11 @@
       <c r="KR14" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="KS14" t="n">
+      <c r="KS14" s="2" t="n">
         <v>1.58</v>
+      </c>
+      <c r="KT14" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14241,8 +14283,11 @@
       <c r="KR15" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KS15" t="n">
+      <c r="KS15" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="KT15" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15160,8 +15205,11 @@
       <c r="KR16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KS16" t="n">
+      <c r="KS16" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KT16" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16079,8 +16127,11 @@
       <c r="KR17" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KS17" t="n">
+      <c r="KS17" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KT17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16998,8 +17049,11 @@
       <c r="KR18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KS18" t="n">
+      <c r="KS18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KT18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17917,8 +17971,11 @@
       <c r="KR19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KS19" t="n">
+      <c r="KS19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KT19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18836,8 +18893,11 @@
       <c r="KR20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS20" t="n">
+      <c r="KS20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KT20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19755,7 +19815,10 @@
       <c r="KR21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS21" t="n">
+      <c r="KS21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT21" t="n">
         <v>8</v>
       </c>
     </row>
@@ -20674,8 +20737,11 @@
       <c r="KR22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS22" t="n">
+      <c r="KS22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21593,8 +21659,11 @@
       <c r="KR23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS23" t="n">
+      <c r="KS23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22512,8 +22581,11 @@
       <c r="KR24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KS24" t="n">
+      <c r="KS24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KT24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23431,8 +23503,11 @@
       <c r="KR25" s="2" t="n">
         <v>52.4</v>
       </c>
-      <c r="KS25" t="n">
+      <c r="KS25" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KT25" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24350,8 +24425,11 @@
       <c r="KR26" s="2" t="n">
         <v>33.82</v>
       </c>
-      <c r="KS26" t="n">
+      <c r="KS26" s="2" t="n">
         <v>28.62</v>
+      </c>
+      <c r="KT26" t="n">
+        <v>38.4</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25269,8 +25347,11 @@
       <c r="KR27" s="2" t="n">
         <v>17.71</v>
       </c>
-      <c r="KS27" t="n">
+      <c r="KS27" s="2" t="n">
         <v>14.88</v>
+      </c>
+      <c r="KT27" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26188,8 +26269,11 @@
       <c r="KR28" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KS28" t="n">
+      <c r="KS28" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KT28" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27107,8 +27191,11 @@
       <c r="KR29" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KS29" t="n">
+      <c r="KS29" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KT29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28026,8 +28113,11 @@
       <c r="KR30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KS30" t="n">
+      <c r="KS30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KT30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28945,8 +29035,11 @@
       <c r="KR31" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KS31" t="n">
+      <c r="KS31" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KT31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29864,8 +29957,11 @@
       <c r="KR32" s="2" t="n">
         <v>2.76</v>
       </c>
-      <c r="KS32" t="n">
+      <c r="KS32" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="KT32" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30783,8 +30879,11 @@
       <c r="KR33" s="2" t="n">
         <v>5.27</v>
       </c>
-      <c r="KS33" t="n">
+      <c r="KS33" s="2" t="n">
         <v>3.77</v>
+      </c>
+      <c r="KT33" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31702,8 +31801,11 @@
       <c r="KR34" s="2" t="n">
         <v>36.2</v>
       </c>
-      <c r="KS34" t="n">
+      <c r="KS34" s="2" t="n">
         <v>44.9</v>
+      </c>
+      <c r="KT34" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32621,8 +32723,11 @@
       <c r="KR35" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KS35" t="n">
+      <c r="KS35" s="2" t="n">
         <v>26.5</v>
+      </c>
+      <c r="KT35" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33540,8 +33645,11 @@
       <c r="KR36" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="KS36" t="n">
+      <c r="KS36" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KT36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34459,8 +34567,11 @@
       <c r="KR37" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KS37" t="n">
+      <c r="KS37" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KT37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35378,8 +35489,11 @@
       <c r="KR38" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="KS38" t="n">
+      <c r="KS38" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KT38" t="n">
+        <v>26.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36297,8 +36411,11 @@
       <c r="KR39" s="2" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="KS39" t="n">
+      <c r="KS39" s="2" t="n">
         <v>108.3</v>
+      </c>
+      <c r="KT39" t="n">
+        <v>118.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37216,8 +37333,11 @@
       <c r="KR40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KS40" t="n">
+      <c r="KS40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KT40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38135,8 +38255,11 @@
       <c r="KR41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS41" t="n">
+      <c r="KS41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KT41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39054,7 +39177,10 @@
       <c r="KR42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS42" t="n">
+      <c r="KS42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -39973,8 +40099,11 @@
       <c r="KR43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS43" t="n">
+      <c r="KS43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40892,8 +41021,11 @@
       <c r="KR44" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="KS44" t="n">
+      <c r="KS44" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KT44" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41811,8 +41943,11 @@
       <c r="KR45" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="KS45" t="n">
+      <c r="KS45" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="KT45" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42730,8 +42865,11 @@
       <c r="KR46" s="2" t="n">
         <v>252</v>
       </c>
-      <c r="KS46" t="n">
+      <c r="KS46" s="2" t="n">
         <v>273</v>
+      </c>
+      <c r="KT46" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43649,8 +43787,11 @@
       <c r="KR47" s="2" t="n">
         <v>67.7</v>
       </c>
-      <c r="KS47" t="n">
+      <c r="KS47" s="2" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="KT47" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44568,8 +44709,11 @@
       <c r="KR48" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KS48" t="n">
+      <c r="KS48" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KT48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45487,8 +45631,11 @@
       <c r="KR49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS49" t="n">
+      <c r="KS49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46406,8 +46553,11 @@
       <c r="KR50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KS50" t="n">
+      <c r="KS50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KT50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47325,8 +47475,11 @@
       <c r="KR51" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KS51" t="n">
+      <c r="KS51" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KT51" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48244,8 +48397,11 @@
       <c r="KR52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KS52" t="n">
+      <c r="KS52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KT52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49163,8 +49319,11 @@
       <c r="KR53" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KS53" t="n">
+      <c r="KS53" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KT53" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50082,8 +50241,11 @@
       <c r="KR54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS54" t="n">
+      <c r="KS54" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51001,7 +51163,10 @@
       <c r="KR55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS55" t="n">
+      <c r="KS55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT55" t="n">
         <v>8</v>
       </c>
     </row>
@@ -51920,8 +52085,11 @@
       <c r="KR56" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="KS56" t="n">
+      <c r="KS56" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KT56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52839,8 +53007,11 @@
       <c r="KR57" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="KS57" t="n">
+      <c r="KS57" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="KT57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53758,8 +53929,11 @@
       <c r="KR58" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="KS58" t="n">
+      <c r="KS58" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="KT58" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54677,8 +54851,11 @@
       <c r="KR59" s="2" t="n">
         <v>321</v>
       </c>
-      <c r="KS59" t="n">
+      <c r="KS59" s="2" t="n">
         <v>369</v>
+      </c>
+      <c r="KT59" t="n">
+        <v>409</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55596,8 +55773,11 @@
       <c r="KR60" s="2" t="n">
         <v>1.89</v>
       </c>
-      <c r="KS60" t="n">
+      <c r="KS60" s="2" t="n">
         <v>1.91</v>
+      </c>
+      <c r="KT60" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56515,8 +56695,11 @@
       <c r="KR61" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="KS61" t="n">
+      <c r="KS61" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="KT61" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57434,8 +57617,11 @@
       <c r="KR62" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KS62" t="n">
+      <c r="KS62" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KT62" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58353,8 +58539,11 @@
       <c r="KR63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KS63" t="n">
+      <c r="KS63" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KT63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59272,8 +59461,11 @@
       <c r="KR64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KS64" t="n">
+      <c r="KS64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KT64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60191,8 +60383,11 @@
       <c r="KR65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KS65" t="n">
+      <c r="KS65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KT65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61110,8 +61305,11 @@
       <c r="KR66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS66" t="n">
+      <c r="KS66" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62029,8 +62227,11 @@
       <c r="KR67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KS67" t="n">
+      <c r="KS67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KT67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62948,8 +63149,11 @@
       <c r="KR68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS68" t="n">
+      <c r="KS68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KT68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63867,8 +64071,11 @@
       <c r="KR69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS69" t="n">
+      <c r="KS69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64786,8 +64993,11 @@
       <c r="KR70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KS70" t="n">
+      <c r="KS70" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KT70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65705,8 +65915,11 @@
       <c r="KR71" s="2" t="n">
         <v>47.8</v>
       </c>
-      <c r="KS71" t="n">
+      <c r="KS71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KT71" t="n">
+        <v>47.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66624,8 +66837,11 @@
       <c r="KR72" s="2" t="n">
         <v>29.18</v>
       </c>
-      <c r="KS72" t="n">
+      <c r="KS72" s="2" t="n">
         <v>52.71</v>
+      </c>
+      <c r="KT72" t="n">
+        <v>37.18</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67543,8 +67759,11 @@
       <c r="KR73" s="2" t="n">
         <v>13.96</v>
       </c>
-      <c r="KS73" t="n">
+      <c r="KS73" s="2" t="n">
         <v>26.36</v>
+      </c>
+      <c r="KT73" t="n">
+        <v>17.78</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68462,8 +68681,11 @@
       <c r="KR74" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KS74" t="n">
+      <c r="KS74" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KT74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69381,8 +69603,11 @@
       <c r="KR75" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KS75" t="n">
+      <c r="KS75" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KT75" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70300,8 +70525,11 @@
       <c r="KR76" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KS76" t="n">
+      <c r="KS76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KT76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71219,8 +71447,11 @@
       <c r="KR77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KS77" t="n">
+      <c r="KS77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KT77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72138,8 +72369,11 @@
       <c r="KR78" s="2" t="n">
         <v>2.22</v>
       </c>
-      <c r="KS78" t="n">
+      <c r="KS78" s="2" t="n">
         <v>3.5</v>
+      </c>
+      <c r="KT78" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73057,8 +73291,11 @@
       <c r="KR79" s="2" t="n">
         <v>4.64</v>
       </c>
-      <c r="KS79" t="n">
+      <c r="KS79" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT79" t="n">
+        <v>5.09</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73976,8 +74213,11 @@
       <c r="KR80" s="2" t="n">
         <v>41.2</v>
       </c>
-      <c r="KS80" t="n">
+      <c r="KS80" s="2" t="n">
         <v>26.5</v>
+      </c>
+      <c r="KT80" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74895,8 +75135,11 @@
       <c r="KR81" s="2" t="n">
         <v>21.6</v>
       </c>
-      <c r="KS81" t="n">
+      <c r="KS81" s="2" t="n">
         <v>14.3</v>
+      </c>
+      <c r="KT81" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75814,7 +76057,10 @@
       <c r="KR82" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="KS82" t="n">
+      <c r="KS82" s="2" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="KT82" t="n">
         <v>189.1</v>
       </c>
     </row>
@@ -76733,8 +76979,11 @@
       <c r="KR83" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="KS83" t="n">
+      <c r="KS83" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="KT83" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77652,8 +77901,11 @@
       <c r="KR84" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="KS84" t="n">
+      <c r="KS84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="KT84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78571,8 +78823,11 @@
       <c r="KR85" s="2" t="n">
         <v>113.4</v>
       </c>
-      <c r="KS85" t="n">
+      <c r="KS85" s="2" t="n">
         <v>94.7</v>
+      </c>
+      <c r="KT85" t="n">
+        <v>99.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -79490,8 +79745,11 @@
       <c r="KR86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS86" t="n">
+      <c r="KS86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KT86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80409,8 +80667,11 @@
       <c r="KR87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS87" t="n">
+      <c r="KS87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -81328,8 +81589,11 @@
       <c r="KR88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS88" t="n">
+      <c r="KS88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KT88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -82247,8 +82511,11 @@
       <c r="KR89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS89" t="n">
+      <c r="KS89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -83166,8 +83433,11 @@
       <c r="KR90" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="KS90" t="n">
+      <c r="KS90" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="KT90" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84085,8 +84355,11 @@
       <c r="KR91" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="KS91" t="n">
+      <c r="KS91" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="KT91" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85004,8 +85277,11 @@
       <c r="KR92" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="KS92" t="n">
+      <c r="KS92" s="2" t="n">
         <v>298</v>
+      </c>
+      <c r="KT92" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85923,8 +86199,11 @@
       <c r="KR93" s="2" t="n">
         <v>69.5</v>
       </c>
-      <c r="KS93" t="n">
+      <c r="KS93" s="2" t="n">
         <v>80.8</v>
+      </c>
+      <c r="KT93" t="n">
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -86842,8 +87121,11 @@
       <c r="KR94" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KS94" t="n">
+      <c r="KS94" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KT94" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -87761,8 +88043,11 @@
       <c r="KR95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS95" t="n">
+      <c r="KS95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88680,8 +88965,11 @@
       <c r="KR96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KS96" t="n">
+      <c r="KS96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89599,8 +89887,11 @@
       <c r="KR97" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KS97" t="n">
+      <c r="KS97" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KT97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -90518,8 +90809,11 @@
       <c r="KR98" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KS98" t="n">
+      <c r="KS98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KT98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -91437,7 +91731,10 @@
       <c r="KR99" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KS99" t="n">
+      <c r="KS99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KT99" t="n">
         <v>49</v>
       </c>
     </row>
@@ -92356,8 +92653,11 @@
       <c r="KR100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS100" t="n">
+      <c r="KS100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -93275,8 +93575,11 @@
       <c r="KR101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KS101" t="n">
+      <c r="KS101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KT101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -94194,8 +94497,11 @@
       <c r="KR102" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="KS102" t="n">
+      <c r="KS102" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KT102" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KT102"/>
+  <dimension ref="A1:KU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JY92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KE94" activeCellId="0" sqref="KE94"/>
@@ -1378,8 +1378,11 @@
       <c r="KS1" s="2" t="n">
         <v>10906</v>
       </c>
-      <c r="KT1" t="n">
+      <c r="KT1" s="2" t="n">
         <v>10919</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>10928</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2300,7 +2303,10 @@
       <c r="KS2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KT2" t="n">
+      <c r="KT2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KU2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3222,8 +3228,11 @@
       <c r="KS3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KT3" t="n">
+      <c r="KT3" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4144,7 +4153,10 @@
       <c r="KS4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT4" t="n">
+      <c r="KT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5066,8 +5078,11 @@
       <c r="KS5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT5" t="n">
+      <c r="KT5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5988,8 +6003,11 @@
       <c r="KS6" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KT6" t="n">
+      <c r="KT6" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6910,8 +6928,11 @@
       <c r="KS7" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KT7" t="n">
+      <c r="KT7" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KU7" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7832,8 +7853,11 @@
       <c r="KS8" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KT8" t="n">
+      <c r="KT8" s="2" t="n">
         <v>-5</v>
+      </c>
+      <c r="KU8" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8754,8 +8778,11 @@
       <c r="KS9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT9" t="n">
+      <c r="KT9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KU9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9676,8 +9703,11 @@
       <c r="KS10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT10" t="n">
+      <c r="KT10" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KU10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10598,8 +10628,11 @@
       <c r="KS11" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="KT11" t="n">
+      <c r="KT11" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="KU11" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11520,8 +11553,11 @@
       <c r="KS12" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KT12" t="n">
+      <c r="KT12" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="KU12" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12442,8 +12478,11 @@
       <c r="KS13" s="2" t="n">
         <v>372</v>
       </c>
-      <c r="KT13" t="n">
+      <c r="KT13" s="2" t="n">
         <v>384</v>
+      </c>
+      <c r="KU13" t="n">
+        <v>409</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13364,8 +13403,11 @@
       <c r="KS14" s="2" t="n">
         <v>1.58</v>
       </c>
-      <c r="KT14" t="n">
+      <c r="KT14" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="KU14" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14286,8 +14328,11 @@
       <c r="KS15" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="KT15" t="n">
+      <c r="KT15" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KU15" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15208,8 +15253,11 @@
       <c r="KS16" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KT16" t="n">
+      <c r="KT16" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KU16" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16130,8 +16178,11 @@
       <c r="KS17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KT17" t="n">
+      <c r="KT17" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KU17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17052,8 +17103,11 @@
       <c r="KS18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KT18" t="n">
+      <c r="KT18" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KU18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17974,8 +18028,11 @@
       <c r="KS19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KT19" t="n">
+      <c r="KT19" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KU19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18896,8 +18953,11 @@
       <c r="KS20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KT20" t="n">
+      <c r="KT20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KU20" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19818,8 +19878,11 @@
       <c r="KS21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT21" t="n">
+      <c r="KT21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KU21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20740,8 +20803,11 @@
       <c r="KS22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KT22" t="n">
+      <c r="KT22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KU22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21662,7 +21728,10 @@
       <c r="KS23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KT23" t="n">
+      <c r="KT23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22584,8 +22653,11 @@
       <c r="KS24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KT24" t="n">
+      <c r="KT24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KU24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23506,8 +23578,11 @@
       <c r="KS25" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KT25" t="n">
+      <c r="KT25" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="KU25" t="n">
+        <v>61.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24428,8 +24503,11 @@
       <c r="KS26" s="2" t="n">
         <v>28.62</v>
       </c>
-      <c r="KT26" t="n">
+      <c r="KT26" s="2" t="n">
         <v>38.4</v>
+      </c>
+      <c r="KU26" t="n">
+        <v>21.53</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25350,8 +25428,11 @@
       <c r="KS27" s="2" t="n">
         <v>14.88</v>
       </c>
-      <c r="KT27" t="n">
+      <c r="KT27" s="2" t="n">
         <v>16.7</v>
+      </c>
+      <c r="KU27" t="n">
+        <v>13.19</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26272,8 +26353,11 @@
       <c r="KS28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KT28" t="n">
+      <c r="KT28" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KU28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27194,8 +27278,11 @@
       <c r="KS29" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KT29" t="n">
+      <c r="KT29" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KU29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28116,8 +28203,11 @@
       <c r="KS30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KT30" t="n">
+      <c r="KT30" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KU30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29038,8 +29128,11 @@
       <c r="KS31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KT31" t="n">
+      <c r="KT31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KU31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29960,8 +30053,11 @@
       <c r="KS32" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="KT32" t="n">
+      <c r="KT32" s="2" t="n">
         <v>2.48</v>
+      </c>
+      <c r="KU32" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30882,8 +30978,11 @@
       <c r="KS33" s="2" t="n">
         <v>3.77</v>
       </c>
-      <c r="KT33" t="n">
+      <c r="KT33" s="2" t="n">
         <v>5.7</v>
+      </c>
+      <c r="KU33" t="n">
+        <v>3.37</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31804,8 +31903,11 @@
       <c r="KS34" s="2" t="n">
         <v>44.9</v>
       </c>
-      <c r="KT34" t="n">
+      <c r="KT34" s="2" t="n">
         <v>36.8</v>
+      </c>
+      <c r="KU34" t="n">
+        <v>45.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32726,8 +32828,11 @@
       <c r="KS35" s="2" t="n">
         <v>26.5</v>
       </c>
-      <c r="KT35" t="n">
+      <c r="KT35" s="2" t="n">
         <v>17.5</v>
+      </c>
+      <c r="KU35" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33648,8 +33753,11 @@
       <c r="KS36" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="KT36" t="n">
+      <c r="KT36" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="KU36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34570,8 +34678,11 @@
       <c r="KS37" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="KT37" t="n">
+      <c r="KT37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KU37" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35492,8 +35603,11 @@
       <c r="KS38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KT38" t="n">
+      <c r="KT38" s="2" t="n">
         <v>26.74</v>
+      </c>
+      <c r="KU38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36414,8 +36528,11 @@
       <c r="KS39" s="2" t="n">
         <v>108.3</v>
       </c>
-      <c r="KT39" t="n">
+      <c r="KT39" s="2" t="n">
         <v>118.1</v>
+      </c>
+      <c r="KU39" t="n">
+        <v>117.9</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37336,8 +37453,11 @@
       <c r="KS40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT40" t="n">
+      <c r="KT40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KU40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38258,8 +38378,11 @@
       <c r="KS41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KT41" t="n">
+      <c r="KT41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KU41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39180,7 +39303,10 @@
       <c r="KS42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT42" t="n">
+      <c r="KT42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40102,7 +40228,10 @@
       <c r="KS43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT43" t="n">
+      <c r="KT43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KU43" t="n">
         <v>9</v>
       </c>
     </row>
@@ -41024,8 +41153,11 @@
       <c r="KS44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KT44" t="n">
+      <c r="KT44" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="KU44" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41946,8 +42078,11 @@
       <c r="KS45" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KT45" t="n">
+      <c r="KT45" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="KU45" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42868,8 +43003,11 @@
       <c r="KS46" s="2" t="n">
         <v>273</v>
       </c>
-      <c r="KT46" t="n">
+      <c r="KT46" s="2" t="n">
         <v>271</v>
+      </c>
+      <c r="KU46" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43790,8 +43928,11 @@
       <c r="KS47" s="2" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="KT47" t="n">
+      <c r="KT47" s="2" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="KU47" t="n">
+        <v>73.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44712,8 +44853,11 @@
       <c r="KS48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KT48" t="n">
+      <c r="KT48" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KU48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45634,8 +45778,11 @@
       <c r="KS49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT49" t="n">
+      <c r="KT49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KU49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46556,8 +46703,11 @@
       <c r="KS50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KT50" t="n">
+      <c r="KT50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KU50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47478,8 +47628,11 @@
       <c r="KS51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KT51" t="n">
+      <c r="KT51" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KU51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48400,8 +48553,11 @@
       <c r="KS52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KT52" t="n">
+      <c r="KT52" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KU52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49322,8 +49478,11 @@
       <c r="KS53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KT53" t="n">
+      <c r="KT53" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KU53" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50244,8 +50403,11 @@
       <c r="KS54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KT54" t="n">
+      <c r="KT54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KU54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51166,8 +51328,11 @@
       <c r="KS55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT55" t="n">
+      <c r="KT55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KU55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52088,8 +52253,11 @@
       <c r="KS56" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="KT56" t="n">
+      <c r="KT56" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KU56" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53010,8 +53178,11 @@
       <c r="KS57" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KT57" t="n">
+      <c r="KT57" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KU57" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53932,8 +54103,11 @@
       <c r="KS58" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="KT58" t="n">
+      <c r="KT58" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="KU58" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54854,8 +55028,11 @@
       <c r="KS59" s="2" t="n">
         <v>369</v>
       </c>
-      <c r="KT59" t="n">
+      <c r="KT59" s="2" t="n">
         <v>409</v>
+      </c>
+      <c r="KU59" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55776,8 +55953,11 @@
       <c r="KS60" s="2" t="n">
         <v>1.91</v>
       </c>
-      <c r="KT60" t="n">
+      <c r="KT60" s="2" t="n">
         <v>1.14</v>
+      </c>
+      <c r="KU60" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56698,8 +56878,11 @@
       <c r="KS61" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="KT61" t="n">
+      <c r="KT61" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KU61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57620,8 +57803,11 @@
       <c r="KS62" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KT62" t="n">
+      <c r="KT62" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KU62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58542,8 +58728,11 @@
       <c r="KS63" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KT63" t="n">
+      <c r="KT63" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KU63" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59464,8 +59653,11 @@
       <c r="KS64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KT64" t="n">
+      <c r="KT64" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KU64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60386,8 +60578,11 @@
       <c r="KS65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KT65" t="n">
+      <c r="KT65" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KU65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61308,8 +61503,11 @@
       <c r="KS66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT66" t="n">
+      <c r="KT66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KU66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62230,8 +62428,11 @@
       <c r="KS67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT67" t="n">
+      <c r="KT67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KU67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -63152,8 +63353,11 @@
       <c r="KS68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT68" t="n">
+      <c r="KT68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KU68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64074,8 +64278,11 @@
       <c r="KS69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT69" t="n">
+      <c r="KT69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KU69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64996,8 +65203,11 @@
       <c r="KS70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KT70" t="n">
+      <c r="KT70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KU70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65918,8 +66128,11 @@
       <c r="KS71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KT71" t="n">
+      <c r="KT71" s="2" t="n">
         <v>47.8</v>
+      </c>
+      <c r="KU71" t="n">
+        <v>47.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66840,8 +67053,11 @@
       <c r="KS72" s="2" t="n">
         <v>52.71</v>
       </c>
-      <c r="KT72" t="n">
+      <c r="KT72" s="2" t="n">
         <v>37.18</v>
+      </c>
+      <c r="KU72" t="n">
+        <v>30.1</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67762,8 +67978,11 @@
       <c r="KS73" s="2" t="n">
         <v>26.36</v>
       </c>
-      <c r="KT73" t="n">
+      <c r="KT73" s="2" t="n">
         <v>17.78</v>
+      </c>
+      <c r="KU73" t="n">
+        <v>14.33</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68684,8 +68903,11 @@
       <c r="KS74" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KT74" t="n">
+      <c r="KT74" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KU74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69606,7 +69828,10 @@
       <c r="KS75" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KT75" t="n">
+      <c r="KT75" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="KU75" t="n">
         <v>67</v>
       </c>
     </row>
@@ -70528,8 +70753,11 @@
       <c r="KS76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KT76" t="n">
+      <c r="KT76" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KU76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71450,8 +71678,11 @@
       <c r="KS77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KT77" t="n">
+      <c r="KT77" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KU77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72372,8 +72603,11 @@
       <c r="KS78" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="KT78" t="n">
+      <c r="KT78" s="2" t="n">
         <v>2.43</v>
+      </c>
+      <c r="KU78" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73294,8 +73528,11 @@
       <c r="KS79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT79" t="n">
+      <c r="KT79" s="2" t="n">
         <v>5.09</v>
+      </c>
+      <c r="KU79" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -74216,8 +74453,11 @@
       <c r="KS80" s="2" t="n">
         <v>26.5</v>
       </c>
-      <c r="KT80" t="n">
+      <c r="KT80" s="2" t="n">
         <v>33.9</v>
+      </c>
+      <c r="KU80" t="n">
+        <v>41.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -75138,8 +75378,11 @@
       <c r="KS81" s="2" t="n">
         <v>14.3</v>
       </c>
-      <c r="KT81" t="n">
+      <c r="KT81" s="2" t="n">
         <v>19.6</v>
+      </c>
+      <c r="KU81" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -76060,8 +76303,11 @@
       <c r="KS82" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KT82" t="n">
+      <c r="KT82" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="KU82" t="n">
+        <v>186.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76982,8 +77228,11 @@
       <c r="KS83" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="KT83" t="n">
+      <c r="KT83" s="2" t="n">
         <v>87.8</v>
+      </c>
+      <c r="KU83" t="n">
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77904,8 +78153,11 @@
       <c r="KS84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="KT84" t="n">
+      <c r="KT84" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="KU84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78826,8 +79078,11 @@
       <c r="KS85" s="2" t="n">
         <v>94.7</v>
       </c>
-      <c r="KT85" t="n">
+      <c r="KT85" s="2" t="n">
         <v>99.8</v>
+      </c>
+      <c r="KU85" t="n">
+        <v>105.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -79748,8 +80003,11 @@
       <c r="KS86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT86" t="n">
+      <c r="KT86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KU86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80670,8 +80928,11 @@
       <c r="KS87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT87" t="n">
+      <c r="KT87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KU87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -81592,8 +81853,11 @@
       <c r="KS88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT88" t="n">
+      <c r="KT88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KU88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -82514,7 +82778,10 @@
       <c r="KS89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KT89" t="n">
+      <c r="KT89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU89" t="n">
         <v>6</v>
       </c>
     </row>
@@ -83436,8 +83703,11 @@
       <c r="KS90" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="KT90" t="n">
+      <c r="KT90" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KU90" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84358,8 +84628,11 @@
       <c r="KS91" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="KT91" t="n">
+      <c r="KT91" s="2" t="n">
         <v>254</v>
+      </c>
+      <c r="KU91" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85280,8 +85553,11 @@
       <c r="KS92" s="2" t="n">
         <v>298</v>
       </c>
-      <c r="KT92" t="n">
+      <c r="KT92" s="2" t="n">
         <v>295</v>
+      </c>
+      <c r="KU92" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -86202,8 +86478,11 @@
       <c r="KS93" s="2" t="n">
         <v>80.8</v>
       </c>
-      <c r="KT93" t="n">
+      <c r="KT93" s="2" t="n">
         <v>72.09999999999999</v>
+      </c>
+      <c r="KU93" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -87124,7 +87403,10 @@
       <c r="KS94" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KT94" t="n">
+      <c r="KT94" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="KU94" t="n">
         <v>67</v>
       </c>
     </row>
@@ -88046,8 +88328,11 @@
       <c r="KS95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KT95" t="n">
+      <c r="KT95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KU95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88968,8 +89253,11 @@
       <c r="KS96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KT96" t="n">
+      <c r="KT96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KU96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89890,8 +90178,11 @@
       <c r="KS97" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KT97" t="n">
+      <c r="KT97" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KU97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -90812,8 +91103,11 @@
       <c r="KS98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KT98" t="n">
+      <c r="KT98" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KU98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -91734,8 +92028,11 @@
       <c r="KS99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KT99" t="n">
+      <c r="KT99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KU99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92656,8 +92953,11 @@
       <c r="KS100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT100" t="n">
+      <c r="KT100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KU100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -93578,8 +93878,11 @@
       <c r="KS101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT101" t="n">
+      <c r="KT101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KU101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -94500,8 +94803,11 @@
       <c r="KS102" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KT102" t="n">
+      <c r="KT102" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="KU102" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KU102"/>
+  <dimension ref="A1:KV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JY92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KE94" activeCellId="0" sqref="KE94"/>
@@ -1381,8 +1381,11 @@
       <c r="KT1" s="2" t="n">
         <v>10919</v>
       </c>
-      <c r="KU1" t="n">
+      <c r="KU1" s="2" t="n">
         <v>10928</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>10934</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2306,7 +2309,10 @@
       <c r="KT2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KU2" t="n">
+      <c r="KU2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3231,8 +3237,11 @@
       <c r="KT3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KU3" t="n">
+      <c r="KU3" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4156,8 +4165,11 @@
       <c r="KT4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU4" t="n">
+      <c r="KU4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5081,7 +5093,10 @@
       <c r="KT5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU5" t="n">
+      <c r="KU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6006,8 +6021,11 @@
       <c r="KT6" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KU6" t="n">
+      <c r="KU6" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6931,8 +6949,11 @@
       <c r="KT7" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KU7" t="n">
+      <c r="KU7" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KV7" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7856,8 +7877,11 @@
       <c r="KT8" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="KU8" t="n">
+      <c r="KU8" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KV8" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8781,8 +8805,11 @@
       <c r="KT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU9" t="n">
+      <c r="KU9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KV9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9706,8 +9733,11 @@
       <c r="KT10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KU10" t="n">
+      <c r="KU10" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KV10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10631,8 +10661,11 @@
       <c r="KT11" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="KU11" t="n">
+      <c r="KU11" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="KV11" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11556,8 +11589,11 @@
       <c r="KT12" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="KU12" t="n">
+      <c r="KU12" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="KV12" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12481,8 +12517,11 @@
       <c r="KT13" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="KU13" t="n">
+      <c r="KU13" s="2" t="n">
         <v>409</v>
+      </c>
+      <c r="KV13" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13406,8 +13445,11 @@
       <c r="KT14" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="KU14" t="n">
+      <c r="KU14" s="2" t="n">
         <v>1.19</v>
+      </c>
+      <c r="KV14" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14331,8 +14373,11 @@
       <c r="KT15" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KU15" t="n">
+      <c r="KU15" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KV15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15256,8 +15301,11 @@
       <c r="KT16" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KU16" t="n">
+      <c r="KU16" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="KV16" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16181,8 +16229,11 @@
       <c r="KT17" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KU17" t="n">
+      <c r="KU17" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KV17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17106,8 +17157,11 @@
       <c r="KT18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU18" t="n">
+      <c r="KU18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KV18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18031,8 +18085,11 @@
       <c r="KT19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KU19" t="n">
+      <c r="KU19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KV19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18956,8 +19013,11 @@
       <c r="KT20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU20" t="n">
+      <c r="KU20" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KV20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19881,8 +19941,11 @@
       <c r="KT21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU21" t="n">
+      <c r="KU21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20806,8 +20869,11 @@
       <c r="KT22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KU22" t="n">
+      <c r="KU22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21731,8 +21797,11 @@
       <c r="KT23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KU23" t="n">
+      <c r="KU23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KV23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22656,8 +22725,11 @@
       <c r="KT24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KU24" t="n">
+      <c r="KU24" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KV24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23581,8 +23653,11 @@
       <c r="KT25" s="2" t="n">
         <v>43.5</v>
       </c>
-      <c r="KU25" t="n">
+      <c r="KU25" s="2" t="n">
         <v>61.3</v>
+      </c>
+      <c r="KV25" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24506,8 +24581,11 @@
       <c r="KT26" s="2" t="n">
         <v>38.4</v>
       </c>
-      <c r="KU26" t="n">
+      <c r="KU26" s="2" t="n">
         <v>21.53</v>
+      </c>
+      <c r="KV26" t="n">
+        <v>32.89</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25431,8 +25509,11 @@
       <c r="KT27" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="KU27" t="n">
+      <c r="KU27" s="2" t="n">
         <v>13.19</v>
+      </c>
+      <c r="KV27" t="n">
+        <v>15.58</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26356,8 +26437,11 @@
       <c r="KT28" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KU28" t="n">
+      <c r="KU28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KV28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27281,8 +27365,11 @@
       <c r="KT29" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KU29" t="n">
+      <c r="KU29" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KV29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28206,8 +28293,11 @@
       <c r="KT30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KU30" t="n">
+      <c r="KU30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KV30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29131,8 +29221,11 @@
       <c r="KT31" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KU31" t="n">
+      <c r="KU31" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KV31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30056,8 +30149,11 @@
       <c r="KT32" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="KU32" t="n">
+      <c r="KU32" s="2" t="n">
         <v>2.06</v>
+      </c>
+      <c r="KV32" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30981,8 +31077,11 @@
       <c r="KT33" s="2" t="n">
         <v>5.7</v>
       </c>
-      <c r="KU33" t="n">
+      <c r="KU33" s="2" t="n">
         <v>3.37</v>
+      </c>
+      <c r="KV33" t="n">
+        <v>4.78</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31906,8 +32005,11 @@
       <c r="KT34" s="2" t="n">
         <v>36.8</v>
       </c>
-      <c r="KU34" t="n">
+      <c r="KU34" s="2" t="n">
         <v>45.3</v>
+      </c>
+      <c r="KV34" t="n">
+        <v>37.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32831,8 +32933,11 @@
       <c r="KT35" s="2" t="n">
         <v>17.5</v>
       </c>
-      <c r="KU35" t="n">
+      <c r="KU35" s="2" t="n">
         <v>29.7</v>
+      </c>
+      <c r="KV35" t="n">
+        <v>20.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33756,8 +33861,11 @@
       <c r="KT36" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KU36" t="n">
+      <c r="KU36" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KV36" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34681,8 +34789,11 @@
       <c r="KT37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KU37" t="n">
+      <c r="KU37" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="KV37" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35606,8 +35717,11 @@
       <c r="KT38" s="2" t="n">
         <v>26.74</v>
       </c>
-      <c r="KU38" t="n">
+      <c r="KU38" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="KV38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36531,8 +36645,11 @@
       <c r="KT39" s="2" t="n">
         <v>118.1</v>
       </c>
-      <c r="KU39" t="n">
+      <c r="KU39" s="2" t="n">
         <v>117.9</v>
+      </c>
+      <c r="KV39" t="n">
+        <v>114.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37456,8 +37573,11 @@
       <c r="KT40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KU40" t="n">
+      <c r="KU40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KV40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38381,8 +38501,11 @@
       <c r="KT41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU41" t="n">
+      <c r="KU41" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KV41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39306,8 +39429,11 @@
       <c r="KT42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KU42" t="n">
+      <c r="KU42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KV42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -40231,8 +40357,11 @@
       <c r="KT43" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KU43" t="n">
+      <c r="KU43" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KV43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -41156,8 +41285,11 @@
       <c r="KT44" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="KU44" t="n">
+      <c r="KU44" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="KV44" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42081,8 +42213,11 @@
       <c r="KT45" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="KU45" t="n">
+      <c r="KU45" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="KV45" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43006,8 +43141,11 @@
       <c r="KT46" s="2" t="n">
         <v>271</v>
       </c>
-      <c r="KU46" t="n">
+      <c r="KU46" s="2" t="n">
         <v>302</v>
+      </c>
+      <c r="KV46" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43931,8 +44069,11 @@
       <c r="KT47" s="2" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="KU47" t="n">
+      <c r="KU47" s="2" t="n">
         <v>73.8</v>
+      </c>
+      <c r="KV47" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44856,8 +44997,11 @@
       <c r="KT48" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KU48" t="n">
+      <c r="KU48" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KV48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45781,8 +45925,11 @@
       <c r="KT49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU49" t="n">
+      <c r="KU49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46706,8 +46853,11 @@
       <c r="KT50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KU50" t="n">
+      <c r="KU50" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KV50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47631,8 +47781,11 @@
       <c r="KT51" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KU51" t="n">
+      <c r="KU51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KV51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48556,8 +48709,11 @@
       <c r="KT52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KU52" t="n">
+      <c r="KU52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KV52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49481,8 +49637,11 @@
       <c r="KT53" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KU53" t="n">
+      <c r="KU53" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KV53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50406,8 +50565,11 @@
       <c r="KT54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KU54" t="n">
+      <c r="KU54" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KV54" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51331,8 +51493,11 @@
       <c r="KT55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU55" t="n">
+      <c r="KU55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52256,8 +52421,11 @@
       <c r="KT56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KU56" t="n">
+      <c r="KU56" s="2" t="n">
         <v>52.6</v>
+      </c>
+      <c r="KV56" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53181,8 +53349,11 @@
       <c r="KT57" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="KU57" t="n">
+      <c r="KU57" s="2" t="n">
         <v>181</v>
+      </c>
+      <c r="KV57" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54106,8 +54277,11 @@
       <c r="KT58" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="KU58" t="n">
+      <c r="KU58" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="KV58" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55031,8 +55205,11 @@
       <c r="KT59" s="2" t="n">
         <v>409</v>
       </c>
-      <c r="KU59" t="n">
+      <c r="KU59" s="2" t="n">
         <v>301</v>
+      </c>
+      <c r="KV59" t="n">
+        <v>417</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55956,8 +56133,11 @@
       <c r="KT60" s="2" t="n">
         <v>1.14</v>
       </c>
-      <c r="KU60" t="n">
+      <c r="KU60" s="2" t="n">
         <v>1.51</v>
+      </c>
+      <c r="KV60" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56881,8 +57061,11 @@
       <c r="KT61" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KU61" t="n">
+      <c r="KU61" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="KV61" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57806,8 +57989,11 @@
       <c r="KT62" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KU62" t="n">
+      <c r="KU62" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KV62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58731,8 +58917,11 @@
       <c r="KT63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KU63" t="n">
+      <c r="KU63" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KV63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59656,8 +59845,11 @@
       <c r="KT64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KU64" t="n">
+      <c r="KU64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KV64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60581,8 +60773,11 @@
       <c r="KT65" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU65" t="n">
+      <c r="KU65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KV65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61506,8 +61701,11 @@
       <c r="KT66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KU66" t="n">
+      <c r="KU66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62431,7 +62629,10 @@
       <c r="KT67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KU67" t="n">
+      <c r="KU67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KV67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -63356,8 +63557,11 @@
       <c r="KT68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU68" t="n">
+      <c r="KU68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KV68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64281,7 +64485,10 @@
       <c r="KT69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU69" t="n">
+      <c r="KU69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -65206,8 +65413,11 @@
       <c r="KT70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KU70" t="n">
+      <c r="KU70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KV70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66131,8 +66341,11 @@
       <c r="KT71" s="2" t="n">
         <v>47.8</v>
       </c>
-      <c r="KU71" t="n">
+      <c r="KU71" s="2" t="n">
         <v>47.6</v>
+      </c>
+      <c r="KV71" t="n">
+        <v>40.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67056,8 +67269,11 @@
       <c r="KT72" s="2" t="n">
         <v>37.18</v>
       </c>
-      <c r="KU72" t="n">
+      <c r="KU72" s="2" t="n">
         <v>30.1</v>
+      </c>
+      <c r="KV72" t="n">
+        <v>46.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67981,8 +68197,11 @@
       <c r="KT73" s="2" t="n">
         <v>17.78</v>
       </c>
-      <c r="KU73" t="n">
+      <c r="KU73" s="2" t="n">
         <v>14.33</v>
+      </c>
+      <c r="KV73" t="n">
+        <v>18.95</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68906,8 +69125,11 @@
       <c r="KT74" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KU74" t="n">
+      <c r="KU74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KV74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69831,8 +70053,11 @@
       <c r="KT75" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KU75" t="n">
+      <c r="KU75" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KV75" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70756,8 +70981,11 @@
       <c r="KT76" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KU76" t="n">
+      <c r="KU76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KV76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71681,8 +71909,11 @@
       <c r="KT77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KU77" t="n">
+      <c r="KU77" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KV77" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72606,8 +72837,11 @@
       <c r="KT78" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="KU78" t="n">
+      <c r="KU78" s="2" t="n">
         <v>2.19</v>
+      </c>
+      <c r="KV78" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73531,8 +73765,11 @@
       <c r="KT79" s="2" t="n">
         <v>5.09</v>
       </c>
-      <c r="KU79" t="n">
+      <c r="KU79" s="2" t="n">
         <v>4.6</v>
+      </c>
+      <c r="KV79" t="n">
+        <v>5.56</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -74456,8 +74693,11 @@
       <c r="KT80" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="KU80" t="n">
+      <c r="KU80" s="2" t="n">
         <v>41.3</v>
+      </c>
+      <c r="KV80" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -75381,8 +75621,11 @@
       <c r="KT81" s="2" t="n">
         <v>19.6</v>
       </c>
-      <c r="KU81" t="n">
+      <c r="KU81" s="2" t="n">
         <v>21.7</v>
+      </c>
+      <c r="KV81" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -76306,8 +76549,11 @@
       <c r="KT82" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KU82" t="n">
+      <c r="KU82" s="2" t="n">
         <v>186.1</v>
+      </c>
+      <c r="KV82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -77231,8 +77477,11 @@
       <c r="KT83" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="KU83" t="n">
+      <c r="KU83" s="2" t="n">
         <v>84.90000000000001</v>
+      </c>
+      <c r="KV83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78156,8 +78405,11 @@
       <c r="KT84" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="KU84" t="n">
+      <c r="KU84" s="2" t="n">
         <v>26.33</v>
+      </c>
+      <c r="KV84" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79081,8 +79333,11 @@
       <c r="KT85" s="2" t="n">
         <v>99.8</v>
       </c>
-      <c r="KU85" t="n">
+      <c r="KU85" s="2" t="n">
         <v>105.7</v>
+      </c>
+      <c r="KV85" t="n">
+        <v>83.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80006,8 +80261,11 @@
       <c r="KT86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU86" t="n">
+      <c r="KU86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KV86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80931,8 +81189,11 @@
       <c r="KT87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KU87" t="n">
+      <c r="KU87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KV87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -81856,8 +82117,11 @@
       <c r="KT88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU88" t="n">
+      <c r="KU88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -82781,8 +83045,11 @@
       <c r="KT89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KU89" t="n">
+      <c r="KU89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KV89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -83706,8 +83973,11 @@
       <c r="KT90" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KU90" t="n">
+      <c r="KU90" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="KV90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84631,8 +84901,11 @@
       <c r="KT91" s="2" t="n">
         <v>254</v>
       </c>
-      <c r="KU91" t="n">
+      <c r="KU91" s="2" t="n">
         <v>186</v>
+      </c>
+      <c r="KV91" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85556,8 +85829,11 @@
       <c r="KT92" s="2" t="n">
         <v>295</v>
       </c>
-      <c r="KU92" t="n">
+      <c r="KU92" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="KV92" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -86481,8 +86757,11 @@
       <c r="KT93" s="2" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="KU93" t="n">
+      <c r="KU93" s="2" t="n">
         <v>73.09999999999999</v>
+      </c>
+      <c r="KV93" t="n">
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -87406,8 +87685,11 @@
       <c r="KT94" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KU94" t="n">
+      <c r="KU94" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KV94" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -88331,8 +88613,11 @@
       <c r="KT95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU95" t="n">
+      <c r="KU95" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KV95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -89256,8 +89541,11 @@
       <c r="KT96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU96" t="n">
+      <c r="KU96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -90181,8 +90469,11 @@
       <c r="KT97" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KU97" t="n">
+      <c r="KU97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KV97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -91106,8 +91397,11 @@
       <c r="KT98" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KU98" t="n">
+      <c r="KU98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KV98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92031,8 +92325,11 @@
       <c r="KT99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KU99" t="n">
+      <c r="KU99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KV99" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92956,8 +93253,11 @@
       <c r="KT100" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU100" t="n">
+      <c r="KU100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KV100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -93881,7 +94181,10 @@
       <c r="KT101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KU101" t="n">
+      <c r="KU101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KV101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -94806,8 +95109,11 @@
       <c r="KT102" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="KU102" t="n">
+      <c r="KU102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KV102" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KW102"/>
+  <dimension ref="A1:KX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JY92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KE94" activeCellId="0" sqref="KE94"/>
@@ -1387,8 +1387,11 @@
       <c r="KV1" s="2" t="n">
         <v>10934</v>
       </c>
-      <c r="KW1" t="n">
+      <c r="KW1" s="2" t="n">
         <v>10946</v>
+      </c>
+      <c r="KX1" t="n">
+        <v>10952</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2318,7 +2321,10 @@
       <c r="KV2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KW2" t="n">
+      <c r="KW2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KX2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3249,8 +3255,11 @@
       <c r="KV3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KW3" t="n">
+      <c r="KW3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4180,8 +4189,11 @@
       <c r="KV4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KW4" t="n">
+      <c r="KW4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5111,7 +5123,10 @@
       <c r="KV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KW5" t="n">
+      <c r="KW5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6042,8 +6057,11 @@
       <c r="KV6" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KW6" t="n">
+      <c r="KW6" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="KX6" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6973,8 +6991,11 @@
       <c r="KV7" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KW7" t="n">
+      <c r="KW7" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="KX7" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7904,8 +7925,11 @@
       <c r="KV8" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="KW8" t="n">
+      <c r="KW8" s="2" t="n">
         <v>-7</v>
+      </c>
+      <c r="KX8" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8835,8 +8859,11 @@
       <c r="KV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KW9" t="n">
+      <c r="KW9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KX9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9766,8 +9793,11 @@
       <c r="KV10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KW10" t="n">
+      <c r="KW10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KX10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10697,8 +10727,11 @@
       <c r="KV11" s="2" t="n">
         <v>196</v>
       </c>
-      <c r="KW11" t="n">
+      <c r="KW11" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="KX11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11628,8 +11661,11 @@
       <c r="KV12" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KW12" t="n">
+      <c r="KW12" s="2" t="n">
         <v>165</v>
+      </c>
+      <c r="KX12" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12559,8 +12595,11 @@
       <c r="KV13" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="KW13" t="n">
+      <c r="KW13" s="2" t="n">
         <v>370</v>
+      </c>
+      <c r="KX13" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13490,8 +13529,11 @@
       <c r="KV14" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="KW14" t="n">
+      <c r="KW14" s="2" t="n">
         <v>1.24</v>
+      </c>
+      <c r="KX14" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14421,8 +14463,11 @@
       <c r="KV15" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="KW15" t="n">
+      <c r="KW15" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KX15" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15352,8 +15397,11 @@
       <c r="KV16" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KW16" t="n">
+      <c r="KW16" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KX16" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16283,8 +16331,11 @@
       <c r="KV17" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KW17" t="n">
+      <c r="KW17" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KX17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17214,8 +17265,11 @@
       <c r="KV18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KW18" t="n">
+      <c r="KW18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KX18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18145,8 +18199,11 @@
       <c r="KV19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KW19" t="n">
+      <c r="KW19" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KX19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19076,8 +19133,11 @@
       <c r="KV20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KW20" t="n">
+      <c r="KW20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KX20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20007,8 +20067,11 @@
       <c r="KV21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KW21" t="n">
+      <c r="KW21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KX21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20938,8 +21001,11 @@
       <c r="KV22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KW22" t="n">
+      <c r="KW22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KX22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21869,7 +21935,10 @@
       <c r="KV23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KW23" t="n">
+      <c r="KW23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KX23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22800,8 +22869,11 @@
       <c r="KV24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KW24" t="n">
+      <c r="KW24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KX24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23731,8 +23803,11 @@
       <c r="KV25" s="2" t="n">
         <v>47.4</v>
       </c>
-      <c r="KW25" t="n">
+      <c r="KW25" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KX25" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24662,8 +24737,11 @@
       <c r="KV26" s="2" t="n">
         <v>32.89</v>
       </c>
-      <c r="KW26" t="n">
+      <c r="KW26" s="2" t="n">
         <v>30.83</v>
+      </c>
+      <c r="KX26" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25593,8 +25671,11 @@
       <c r="KV27" s="2" t="n">
         <v>15.58</v>
       </c>
-      <c r="KW27" t="n">
+      <c r="KW27" s="2" t="n">
         <v>14.8</v>
+      </c>
+      <c r="KX27" t="n">
+        <v>16.67</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26524,7 +26605,10 @@
       <c r="KV28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KW28" t="n">
+      <c r="KW28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KX28" t="n">
         <v>44</v>
       </c>
     </row>
@@ -27455,8 +27539,11 @@
       <c r="KV29" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KW29" t="n">
+      <c r="KW29" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KX29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28386,8 +28473,11 @@
       <c r="KV30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KW30" t="n">
+      <c r="KW30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KX30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29317,8 +29407,11 @@
       <c r="KV31" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KW31" t="n">
+      <c r="KW31" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KX31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30248,8 +30341,11 @@
       <c r="KV32" s="2" t="n">
         <v>2.26</v>
       </c>
-      <c r="KW32" t="n">
+      <c r="KW32" s="2" t="n">
         <v>2.12</v>
+      </c>
+      <c r="KX32" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31179,8 +31275,11 @@
       <c r="KV33" s="2" t="n">
         <v>4.78</v>
       </c>
-      <c r="KW33" t="n">
+      <c r="KW33" s="2" t="n">
         <v>4.42</v>
+      </c>
+      <c r="KX33" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32110,8 +32209,11 @@
       <c r="KV34" s="2" t="n">
         <v>37.2</v>
       </c>
-      <c r="KW34" t="n">
+      <c r="KW34" s="2" t="n">
         <v>43.4</v>
+      </c>
+      <c r="KX34" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33041,8 +33143,11 @@
       <c r="KV35" s="2" t="n">
         <v>20.9</v>
       </c>
-      <c r="KW35" t="n">
+      <c r="KW35" s="2" t="n">
         <v>22.6</v>
+      </c>
+      <c r="KX35" t="n">
+        <v>29.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33972,8 +34077,11 @@
       <c r="KV36" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KW36" t="n">
+      <c r="KW36" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="KX36" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34903,8 +35011,11 @@
       <c r="KV37" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KW37" t="n">
+      <c r="KW37" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KX37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35834,8 +35945,11 @@
       <c r="KV38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="KW38" t="n">
+      <c r="KW38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KX38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36765,8 +36879,11 @@
       <c r="KV39" s="2" t="n">
         <v>114.1</v>
       </c>
-      <c r="KW39" t="n">
+      <c r="KW39" s="2" t="n">
         <v>109.3</v>
+      </c>
+      <c r="KX39" t="n">
+        <v>107.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37696,7 +37813,10 @@
       <c r="KV40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KW40" t="n">
+      <c r="KW40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KX40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38627,7 +38747,10 @@
       <c r="KV41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KW41" t="n">
+      <c r="KW41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KX41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -39558,8 +39681,11 @@
       <c r="KV42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KW42" t="n">
+      <c r="KW42" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KX42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -40489,8 +40615,11 @@
       <c r="KV43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KW43" t="n">
+      <c r="KW43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KX43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -41420,8 +41549,11 @@
       <c r="KV44" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="KW44" t="n">
+      <c r="KW44" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="KX44" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42351,8 +42483,11 @@
       <c r="KV45" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="KW45" t="n">
+      <c r="KW45" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="KX45" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43282,8 +43417,11 @@
       <c r="KV46" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="KW46" t="n">
+      <c r="KW46" s="2" t="n">
         <v>256</v>
+      </c>
+      <c r="KX46" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44213,8 +44351,11 @@
       <c r="KV47" s="2" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="KW47" t="n">
+      <c r="KW47" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="KX47" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45144,8 +45285,11 @@
       <c r="KV48" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KW48" t="n">
+      <c r="KW48" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KX48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46075,8 +46219,11 @@
       <c r="KV49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KW49" t="n">
+      <c r="KW49" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KX49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47006,8 +47153,11 @@
       <c r="KV50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KW50" t="n">
+      <c r="KW50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KX50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47937,7 +48087,10 @@
       <c r="KV51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KW51" t="n">
+      <c r="KW51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KX51" t="n">
         <v>44</v>
       </c>
     </row>
@@ -48868,8 +49021,11 @@
       <c r="KV52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KW52" t="n">
+      <c r="KW52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KX52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49799,8 +49955,11 @@
       <c r="KV53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KW53" t="n">
+      <c r="KW53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KX53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50730,8 +50889,11 @@
       <c r="KV54" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KW54" t="n">
+      <c r="KW54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KX54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51661,8 +51823,11 @@
       <c r="KV55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KW55" t="n">
+      <c r="KW55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KX55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52592,8 +52757,11 @@
       <c r="KV56" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="KW56" t="n">
+      <c r="KW56" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="KX56" t="n">
+        <v>81.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53523,8 +53691,11 @@
       <c r="KV57" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KW57" t="n">
+      <c r="KW57" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="KX57" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54454,8 +54625,11 @@
       <c r="KV58" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="KW58" t="n">
+      <c r="KW58" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="KX58" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55385,8 +55559,11 @@
       <c r="KV59" s="2" t="n">
         <v>417</v>
       </c>
-      <c r="KW59" t="n">
+      <c r="KW59" s="2" t="n">
         <v>371</v>
+      </c>
+      <c r="KX59" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56316,8 +56493,11 @@
       <c r="KV60" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="KW60" t="n">
+      <c r="KW60" s="2" t="n">
         <v>1.39</v>
+      </c>
+      <c r="KX60" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57247,8 +57427,11 @@
       <c r="KV61" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="KW61" t="n">
+      <c r="KW61" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="KX61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58178,8 +58361,11 @@
       <c r="KV62" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KW62" t="n">
+      <c r="KW62" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KX62" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59109,8 +59295,11 @@
       <c r="KV63" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KW63" t="n">
+      <c r="KW63" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KX63" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60040,8 +60229,11 @@
       <c r="KV64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KW64" t="n">
+      <c r="KW64" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KX64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60971,8 +61163,11 @@
       <c r="KV65" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KW65" t="n">
+      <c r="KW65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KX65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61902,8 +62097,11 @@
       <c r="KV66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KW66" t="n">
+      <c r="KW66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KX66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62833,8 +63031,11 @@
       <c r="KV67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KW67" t="n">
+      <c r="KW67" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KX67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -63764,8 +63965,11 @@
       <c r="KV68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KW68" t="n">
+      <c r="KW68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KX68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64695,8 +64899,11 @@
       <c r="KV69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KW69" t="n">
+      <c r="KW69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KX69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -65626,8 +65833,11 @@
       <c r="KV70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KW70" t="n">
+      <c r="KW70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KX70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66557,8 +66767,11 @@
       <c r="KV71" s="2" t="n">
         <v>40.9</v>
       </c>
-      <c r="KW71" t="n">
+      <c r="KW71" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="KX71" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67488,8 +67701,11 @@
       <c r="KV72" s="2" t="n">
         <v>46.33</v>
       </c>
-      <c r="KW72" t="n">
+      <c r="KW72" s="2" t="n">
         <v>26.5</v>
+      </c>
+      <c r="KX72" t="n">
+        <v>35.09</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -68419,8 +68635,11 @@
       <c r="KV73" s="2" t="n">
         <v>18.95</v>
       </c>
-      <c r="KW73" t="n">
+      <c r="KW73" s="2" t="n">
         <v>16.86</v>
+      </c>
+      <c r="KX73" t="n">
+        <v>16.08</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -69350,8 +69569,11 @@
       <c r="KV74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KW74" t="n">
+      <c r="KW74" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KX74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70281,8 +70503,11 @@
       <c r="KV75" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KW75" t="n">
+      <c r="KW75" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KX75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -71212,8 +71437,11 @@
       <c r="KV76" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KW76" t="n">
+      <c r="KW76" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KX76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72143,7 +72371,10 @@
       <c r="KV77" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KW77" t="n">
+      <c r="KW77" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KX77" t="n">
         <v>50</v>
       </c>
     </row>
@@ -73074,8 +73305,11 @@
       <c r="KV78" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="KW78" t="n">
+      <c r="KW78" s="2" t="n">
         <v>2.27</v>
+      </c>
+      <c r="KX78" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74005,8 +74239,11 @@
       <c r="KV79" s="2" t="n">
         <v>5.56</v>
       </c>
-      <c r="KW79" t="n">
+      <c r="KW79" s="2" t="n">
         <v>3.57</v>
+      </c>
+      <c r="KX79" t="n">
+        <v>4.55</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -74936,7 +75173,10 @@
       <c r="KV80" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KW80" t="n">
+      <c r="KW80" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KX80" t="n">
         <v>44</v>
       </c>
     </row>
@@ -75867,8 +76107,11 @@
       <c r="KV81" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KW81" t="n">
+      <c r="KW81" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KX81" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -76798,8 +77041,11 @@
       <c r="KV82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="KW82" t="n">
+      <c r="KW82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KX82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -77729,8 +77975,11 @@
       <c r="KV83" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KW83" t="n">
+      <c r="KW83" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KX83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78660,8 +78909,11 @@
       <c r="KV84" s="2" t="n">
         <v>24.33</v>
       </c>
-      <c r="KW84" t="n">
+      <c r="KW84" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="KX84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79591,8 +79843,11 @@
       <c r="KV85" s="2" t="n">
         <v>83.2</v>
       </c>
-      <c r="KW85" t="n">
+      <c r="KW85" s="2" t="n">
         <v>98.8</v>
+      </c>
+      <c r="KX85" t="n">
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80522,7 +80777,10 @@
       <c r="KV86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KW86" t="n">
+      <c r="KW86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KX86" t="n">
         <v>8</v>
       </c>
     </row>
@@ -81453,8 +81711,11 @@
       <c r="KV87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KW87" t="n">
+      <c r="KW87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KX87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -82384,8 +82645,11 @@
       <c r="KV88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KW88" t="n">
+      <c r="KW88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KX88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -83315,8 +83579,11 @@
       <c r="KV89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KW89" t="n">
+      <c r="KW89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KX89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -84246,8 +84513,11 @@
       <c r="KV90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KW90" t="n">
+      <c r="KW90" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KX90" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85177,8 +85447,11 @@
       <c r="KV91" s="2" t="n">
         <v>286</v>
       </c>
-      <c r="KW91" t="n">
+      <c r="KW91" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="KX91" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86108,8 +86381,11 @@
       <c r="KV92" s="2" t="n">
         <v>330</v>
       </c>
-      <c r="KW92" t="n">
+      <c r="KW92" s="2" t="n">
         <v>274</v>
+      </c>
+      <c r="KX92" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87039,8 +87315,11 @@
       <c r="KV93" s="2" t="n">
         <v>79.09999999999999</v>
       </c>
-      <c r="KW93" t="n">
+      <c r="KW93" s="2" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="KX93" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -87970,8 +88249,11 @@
       <c r="KV94" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KW94" t="n">
+      <c r="KW94" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KX94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -88901,8 +89183,11 @@
       <c r="KV95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KW95" t="n">
+      <c r="KW95" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KX95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -89832,8 +90117,11 @@
       <c r="KV96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KW96" t="n">
+      <c r="KW96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KX96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -90763,8 +91051,11 @@
       <c r="KV97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KW97" t="n">
+      <c r="KW97" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KX97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -91694,8 +91985,11 @@
       <c r="KV98" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KW98" t="n">
+      <c r="KW98" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KX98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92625,8 +92919,11 @@
       <c r="KV99" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KW99" t="n">
+      <c r="KW99" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KX99" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -93556,8 +93853,11 @@
       <c r="KV100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KW100" t="n">
+      <c r="KW100" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KX100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -94487,8 +94787,11 @@
       <c r="KV101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KW101" t="n">
+      <c r="KW101" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KX101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -95418,8 +95721,11 @@
       <c r="KV102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KW102" t="n">
+      <c r="KW102" s="2" t="n">
         <v>92.90000000000001</v>
+      </c>
+      <c r="KX102" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KY102"/>
+  <dimension ref="A1:LB102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JY92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KE94" activeCellId="0" sqref="KE94"/>
@@ -1393,8 +1393,17 @@
       <c r="KX1" s="2" t="n">
         <v>10952</v>
       </c>
-      <c r="KY1" t="n">
+      <c r="KY1" s="2" t="n">
         <v>10977</v>
+      </c>
+      <c r="KZ1" s="2" t="n">
+        <v>10985</v>
+      </c>
+      <c r="LA1" s="2" t="n">
+        <v>10993</v>
+      </c>
+      <c r="LB1" t="n">
+        <v>11001</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2330,7 +2339,16 @@
       <c r="KX2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KY2" t="n">
+      <c r="KY2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KZ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LA2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LB2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3267,8 +3285,17 @@
       <c r="KX3" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KY3" t="n">
+      <c r="KY3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4204,8 +4231,17 @@
       <c r="KX4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KY4" t="n">
+      <c r="KY4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5141,8 +5177,17 @@
       <c r="KX5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KY5" t="n">
+      <c r="KY5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -6078,8 +6123,17 @@
       <c r="KX6" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="KY6" t="n">
+      <c r="KY6" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KZ6" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="LA6" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="LB6" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7015,8 +7069,17 @@
       <c r="KX7" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KY7" t="n">
+      <c r="KY7" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="KZ7" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="LA7" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LB7" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7952,8 +8015,17 @@
       <c r="KX8" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KY8" t="n">
+      <c r="KY8" s="2" t="n">
         <v>-45</v>
+      </c>
+      <c r="KZ8" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="LA8" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="LB8" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8889,7 +8961,16 @@
       <c r="KX9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KY9" t="n">
+      <c r="KY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9826,8 +9907,17 @@
       <c r="KX10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY10" t="n">
+      <c r="KY10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LA10" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LB10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10763,8 +10853,17 @@
       <c r="KX11" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="KY11" t="n">
+      <c r="KY11" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="KZ11" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="LA11" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="LB11" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11700,8 +11799,17 @@
       <c r="KX12" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="KY12" t="n">
+      <c r="KY12" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="KZ12" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="LA12" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="LB12" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12637,8 +12745,17 @@
       <c r="KX13" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="KY13" t="n">
+      <c r="KY13" s="2" t="n">
         <v>362</v>
+      </c>
+      <c r="KZ13" s="2" t="n">
+        <v>382</v>
+      </c>
+      <c r="LA13" s="2" t="n">
+        <v>421</v>
+      </c>
+      <c r="LB13" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13574,8 +13691,17 @@
       <c r="KX14" s="2" t="n">
         <v>1.22</v>
       </c>
-      <c r="KY14" t="n">
+      <c r="KY14" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="KZ14" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="LA14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="LB14" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14511,8 +14637,17 @@
       <c r="KX15" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KY15" t="n">
+      <c r="KY15" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="KZ15" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="LA15" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="LB15" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15448,8 +15583,17 @@
       <c r="KX16" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="KY16" t="n">
+      <c r="KY16" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KZ16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="LA16" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="LB16" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16385,8 +16529,17 @@
       <c r="KX17" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KY17" t="n">
+      <c r="KY17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KZ17" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LA17" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LB17" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17322,8 +17475,17 @@
       <c r="KX18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KY18" t="n">
+      <c r="KY18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KZ18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LA18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LB18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18259,8 +18421,17 @@
       <c r="KX19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KY19" t="n">
+      <c r="KY19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KZ19" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LA19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LB19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19196,8 +19367,17 @@
       <c r="KX20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KY20" t="n">
+      <c r="KY20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LA20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LB20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20133,8 +20313,17 @@
       <c r="KX21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KY21" t="n">
+      <c r="KY21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KZ21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LA21" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LB21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21070,8 +21259,17 @@
       <c r="KX22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY22" t="n">
+      <c r="KY22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LA22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LB22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22007,8 +22205,17 @@
       <c r="KX23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KY23" t="n">
+      <c r="KY23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22944,8 +23151,17 @@
       <c r="KX24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KY24" t="n">
+      <c r="KY24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KZ24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LA24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LB24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23881,8 +24097,17 @@
       <c r="KX25" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KY25" t="n">
+      <c r="KY25" s="2" t="n">
         <v>47.4</v>
+      </c>
+      <c r="KZ25" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="LA25" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="LB25" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24818,8 +25043,17 @@
       <c r="KX26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KY26" t="n">
+      <c r="KY26" s="2" t="n">
         <v>40.22</v>
+      </c>
+      <c r="KZ26" s="2" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="LA26" s="2" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="LB26" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25755,8 +25989,17 @@
       <c r="KX27" s="2" t="n">
         <v>16.67</v>
       </c>
-      <c r="KY27" t="n">
+      <c r="KY27" s="2" t="n">
         <v>19.05</v>
+      </c>
+      <c r="KZ27" s="2" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="LA27" s="2" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="LB27" t="n">
+        <v>18.33</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26692,8 +26935,17 @@
       <c r="KX28" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KY28" t="n">
+      <c r="KY28" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KZ28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LA28" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LB28" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27629,8 +27881,17 @@
       <c r="KX29" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KY29" t="n">
+      <c r="KY29" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KZ29" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="LA29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LB29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28566,8 +28827,17 @@
       <c r="KX30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KY30" t="n">
+      <c r="KY30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KZ30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LA30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="LB30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29503,8 +29773,17 @@
       <c r="KX31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KY31" t="n">
+      <c r="KY31" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KZ31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LA31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LB31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30440,8 +30719,17 @@
       <c r="KX32" s="2" t="n">
         <v>2.25</v>
       </c>
-      <c r="KY32" t="n">
+      <c r="KY32" s="2" t="n">
         <v>2.79</v>
+      </c>
+      <c r="KZ32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="LA32" s="2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="LB32" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31377,8 +31665,17 @@
       <c r="KX33" s="2" t="n">
         <v>3.38</v>
       </c>
-      <c r="KY33" t="n">
+      <c r="KY33" s="2" t="n">
         <v>5.89</v>
+      </c>
+      <c r="KZ33" s="2" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="LA33" s="2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="LB33" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32314,8 +32611,17 @@
       <c r="KX34" s="2" t="n">
         <v>40.7</v>
       </c>
-      <c r="KY34" t="n">
+      <c r="KY34" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KZ34" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="LA34" s="2" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="LB34" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33251,8 +33557,17 @@
       <c r="KX35" s="2" t="n">
         <v>29.6</v>
       </c>
-      <c r="KY35" t="n">
+      <c r="KY35" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KZ35" s="2" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="LA35" s="2" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="LB35" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34188,8 +34503,17 @@
       <c r="KX36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="KY36" t="n">
+      <c r="KY36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KZ36" s="2" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="LA36" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="LB36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35125,8 +35449,17 @@
       <c r="KX37" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KY37" t="n">
+      <c r="KY37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KZ37" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="LA37" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="LB37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36062,8 +36395,17 @@
       <c r="KX38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KY38" t="n">
+      <c r="KY38" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KZ38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="LA38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="LB38" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36999,8 +37341,17 @@
       <c r="KX39" s="2" t="n">
         <v>107.3</v>
       </c>
-      <c r="KY39" t="n">
+      <c r="KY39" s="2" t="n">
         <v>106.6</v>
+      </c>
+      <c r="KZ39" s="2" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="LA39" s="2" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="LB39" t="n">
+        <v>111.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37936,8 +38287,17 @@
       <c r="KX40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY40" t="n">
+      <c r="KY40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LA40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LB40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38873,8 +39233,17 @@
       <c r="KX41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KY41" t="n">
+      <c r="KY41" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KZ41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39810,7 +40179,16 @@
       <c r="KX42" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY42" t="n">
+      <c r="KY42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KZ42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LA42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -40747,7 +41125,16 @@
       <c r="KX43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY43" t="n">
+      <c r="KY43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KZ43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LA43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LB43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -41684,8 +42071,17 @@
       <c r="KX44" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="KY44" t="n">
+      <c r="KY44" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="KZ44" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="LA44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="LB44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42621,8 +43017,17 @@
       <c r="KX45" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="KY45" t="n">
+      <c r="KY45" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="KZ45" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="LA45" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="LB45" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43558,8 +43963,17 @@
       <c r="KX46" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="KY46" t="n">
+      <c r="KY46" s="2" t="n">
         <v>265</v>
+      </c>
+      <c r="KZ46" s="2" t="n">
+        <v>291</v>
+      </c>
+      <c r="LA46" s="2" t="n">
+        <v>341</v>
+      </c>
+      <c r="LB46" t="n">
+        <v>272</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44495,8 +44909,17 @@
       <c r="KX47" s="2" t="n">
         <v>72.2</v>
       </c>
-      <c r="KY47" t="n">
+      <c r="KY47" s="2" t="n">
         <v>73.2</v>
+      </c>
+      <c r="KZ47" s="2" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="LA47" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="LB47" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45432,8 +45855,17 @@
       <c r="KX48" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KY48" t="n">
+      <c r="KY48" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KZ48" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="LA48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LB48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46369,8 +46801,17 @@
       <c r="KX49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KY49" t="n">
+      <c r="KY49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LA49" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LB49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47306,8 +47747,17 @@
       <c r="KX50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KY50" t="n">
+      <c r="KY50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KZ50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LA50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LB50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48243,8 +48693,17 @@
       <c r="KX51" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KY51" t="n">
+      <c r="KY51" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KZ51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LA51" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LB51" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49180,8 +49639,17 @@
       <c r="KX52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KY52" t="n">
+      <c r="KY52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KZ52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LA52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="LB52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50117,8 +50585,17 @@
       <c r="KX53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KY53" t="n">
+      <c r="KY53" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KZ53" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LA53" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LB53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51054,8 +51531,17 @@
       <c r="KX54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY54" t="n">
+      <c r="KY54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ54" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LA54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LB54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51991,8 +52477,17 @@
       <c r="KX55" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KY55" t="n">
+      <c r="KY55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KZ55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LA55" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LB55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52928,8 +53423,17 @@
       <c r="KX56" s="2" t="n">
         <v>81.2</v>
       </c>
-      <c r="KY56" t="n">
+      <c r="KY56" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="KZ56" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="LA56" s="2" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="LB56" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53865,8 +54369,17 @@
       <c r="KX57" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="KY57" t="n">
+      <c r="KY57" s="2" t="n">
         <v>250</v>
+      </c>
+      <c r="KZ57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="LA57" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="LB57" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54802,8 +55315,17 @@
       <c r="KX58" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="KY58" t="n">
+      <c r="KY58" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="KZ58" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="LA58" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="LB58" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55739,8 +56261,17 @@
       <c r="KX59" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="KY59" t="n">
+      <c r="KY59" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="KZ59" s="2" t="n">
+        <v>333</v>
+      </c>
+      <c r="LA59" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="LB59" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56676,8 +57207,17 @@
       <c r="KX60" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="KY60" t="n">
+      <c r="KY60" s="2" t="n">
         <v>1.76</v>
+      </c>
+      <c r="KZ60" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="LA60" s="2" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="LB60" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57613,8 +58153,17 @@
       <c r="KX61" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="KY61" t="n">
+      <c r="KY61" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="KZ61" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="LA61" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="LB61" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58550,8 +59099,17 @@
       <c r="KX62" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KY62" t="n">
+      <c r="KY62" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KZ62" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="LA62" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="LB62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59487,8 +60045,17 @@
       <c r="KX63" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KY63" t="n">
+      <c r="KY63" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KZ63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LA63" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="LB63" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60424,8 +60991,17 @@
       <c r="KX64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KY64" t="n">
+      <c r="KY64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KZ64" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LA64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LB64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61361,8 +61937,17 @@
       <c r="KX65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KY65" t="n">
+      <c r="KY65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KZ65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LA65" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LB65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62298,8 +62883,17 @@
       <c r="KX66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KY66" t="n">
+      <c r="KY66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KZ66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LA66" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63235,7 +63829,16 @@
       <c r="KX67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KY67" t="n">
+      <c r="KY67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KZ67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LA67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB67" t="n">
         <v>11</v>
       </c>
     </row>
@@ -64172,8 +64775,17 @@
       <c r="KX68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KY68" t="n">
+      <c r="KY68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LA68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LB68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65109,8 +65721,17 @@
       <c r="KX69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KY69" t="n">
+      <c r="KY69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KZ69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -66046,8 +66667,17 @@
       <c r="KX70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KY70" t="n">
+      <c r="KY70" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KZ70" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LA70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LB70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66983,8 +67613,17 @@
       <c r="KX71" s="2" t="n">
         <v>45.8</v>
       </c>
-      <c r="KY71" t="n">
+      <c r="KY71" s="2" t="n">
         <v>55.2</v>
+      </c>
+      <c r="KZ71" s="2" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="LA71" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LB71" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67920,8 +68559,17 @@
       <c r="KX72" s="2" t="n">
         <v>35.09</v>
       </c>
-      <c r="KY72" t="n">
+      <c r="KY72" s="2" t="n">
         <v>24.5</v>
+      </c>
+      <c r="KZ72" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="LA72" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="LB72" t="n">
+        <v>25.57</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -68857,8 +69505,17 @@
       <c r="KX73" s="2" t="n">
         <v>16.08</v>
       </c>
-      <c r="KY73" t="n">
+      <c r="KY73" s="2" t="n">
         <v>13.52</v>
+      </c>
+      <c r="KZ73" s="2" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="LA73" s="2" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="LB73" t="n">
+        <v>14.32</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -69794,8 +70451,17 @@
       <c r="KX74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KY74" t="n">
+      <c r="KY74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KZ74" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="LA74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LB74" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70731,8 +71397,17 @@
       <c r="KX75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KY75" t="n">
+      <c r="KY75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KZ75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LA75" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LB75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -71668,8 +72343,17 @@
       <c r="KX76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KY76" t="n">
+      <c r="KY76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KZ76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LA76" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LB76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72605,8 +73289,17 @@
       <c r="KX77" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KY77" t="n">
+      <c r="KY77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KZ77" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LA77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LB77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -73542,8 +74235,17 @@
       <c r="KX78" s="2" t="n">
         <v>2.08</v>
       </c>
-      <c r="KY78" t="n">
+      <c r="KY78" s="2" t="n">
         <v>1.83</v>
+      </c>
+      <c r="KZ78" s="2" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="LA78" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="LB78" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74479,8 +75181,17 @@
       <c r="KX79" s="2" t="n">
         <v>4.55</v>
       </c>
-      <c r="KY79" t="n">
+      <c r="KY79" s="2" t="n">
         <v>3.31</v>
+      </c>
+      <c r="KZ79" s="2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="LA79" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LB79" t="n">
+        <v>3.93</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75416,8 +76127,17 @@
       <c r="KX80" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KY80" t="n">
+      <c r="KY80" s="2" t="n">
         <v>50.9</v>
+      </c>
+      <c r="KZ80" s="2" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="LA80" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="LB80" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76353,8 +77073,17 @@
       <c r="KX81" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KY81" t="n">
+      <c r="KY81" s="2" t="n">
         <v>30.2</v>
+      </c>
+      <c r="KZ81" s="2" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="LA81" s="2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="LB81" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77290,8 +78019,17 @@
       <c r="KX82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KY82" t="n">
+      <c r="KY82" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="KZ82" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="LA82" s="2" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="LB82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -78227,8 +78965,17 @@
       <c r="KX83" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="KY83" t="n">
+      <c r="KY83" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="KZ83" s="2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="LA83" s="2" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="LB83" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -79164,8 +79911,17 @@
       <c r="KX84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KY84" t="n">
+      <c r="KY84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KZ84" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="LA84" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LB84" t="n">
+        <v>27.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -80101,8 +80857,17 @@
       <c r="KX85" s="2" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="KY85" t="n">
+      <c r="KY85" s="2" t="n">
         <v>113.7</v>
+      </c>
+      <c r="KZ85" s="2" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="LA85" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LB85" t="n">
+        <v>132.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -81038,8 +81803,17 @@
       <c r="KX86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY86" t="n">
+      <c r="KY86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KZ86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LA86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LB86" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -81975,8 +82749,17 @@
       <c r="KX87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KY87" t="n">
+      <c r="KY87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KZ87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LA87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -82912,8 +83695,17 @@
       <c r="KX88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY88" t="n">
+      <c r="KY88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LA88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -83849,8 +84641,17 @@
       <c r="KX89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KY89" t="n">
+      <c r="KY89" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KZ89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LA89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -84786,8 +85587,17 @@
       <c r="KX90" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="KY90" t="n">
+      <c r="KY90" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="KZ90" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="LA90" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="LB90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85723,8 +86533,17 @@
       <c r="KX91" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="KY91" t="n">
+      <c r="KY91" s="2" t="n">
         <v>265</v>
+      </c>
+      <c r="KZ91" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="LA91" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="LB91" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86660,8 +87479,17 @@
       <c r="KX92" s="2" t="n">
         <v>278</v>
       </c>
-      <c r="KY92" t="n">
+      <c r="KY92" s="2" t="n">
         <v>296</v>
+      </c>
+      <c r="KZ92" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="LA92" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="LB92" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87597,8 +88425,17 @@
       <c r="KX93" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KY93" t="n">
+      <c r="KY93" s="2" t="n">
         <v>75.5</v>
+      </c>
+      <c r="KZ93" s="2" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="LA93" s="2" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="LB93" t="n">
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -88534,8 +89371,17 @@
       <c r="KX94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KY94" t="n">
+      <c r="KY94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KZ94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LA94" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LB94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -89471,8 +90317,17 @@
       <c r="KX95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KY95" t="n">
+      <c r="KY95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KZ95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LA95" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LB95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -90408,8 +91263,17 @@
       <c r="KX96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KY96" t="n">
+      <c r="KY96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KZ96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LA96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LB96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -91345,8 +92209,17 @@
       <c r="KX97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KY97" t="n">
+      <c r="KY97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KZ97" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="LA97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LB97" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -92282,8 +93155,17 @@
       <c r="KX98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KY98" t="n">
+      <c r="KY98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KZ98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LA98" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LB98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -93219,8 +94101,17 @@
       <c r="KX99" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KY99" t="n">
+      <c r="KY99" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KZ99" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LA99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LB99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -94156,8 +95047,17 @@
       <c r="KX100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY100" t="n">
+      <c r="KY100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KZ100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -95093,7 +95993,16 @@
       <c r="KX101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KY101" t="n">
+      <c r="KY101" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KZ101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LA101" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB101" t="n">
         <v>11</v>
       </c>
     </row>
@@ -96030,8 +96939,17 @@
       <c r="KX102" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="KY102" t="n">
+      <c r="KY102" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="KZ102" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="LA102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="LB102" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LB102"/>
+  <dimension ref="A1:LG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JY92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KE94" activeCellId="0" sqref="KE94"/>
@@ -1402,8 +1402,23 @@
       <c r="LA1" s="2" t="n">
         <v>10993</v>
       </c>
-      <c r="LB1" t="n">
+      <c r="LB1" s="2" t="n">
         <v>11001</v>
+      </c>
+      <c r="LC1" s="2" t="n">
+        <v>11006</v>
+      </c>
+      <c r="LD1" s="2" t="n">
+        <v>11013</v>
+      </c>
+      <c r="LE1" s="2" t="n">
+        <v>11027</v>
+      </c>
+      <c r="LF1" s="2" t="n">
+        <v>11037</v>
+      </c>
+      <c r="LG1" t="n">
+        <v>11044</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2348,7 +2363,22 @@
       <c r="LA2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="LB2" t="n">
+      <c r="LB2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LC2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LD2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LE2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LF2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LG2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3294,8 +3324,23 @@
       <c r="LA3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LB3" t="n">
+      <c r="LB3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LC3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LE3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4240,8 +4285,23 @@
       <c r="LA4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LB4" t="n">
+      <c r="LB4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5186,7 +5246,22 @@
       <c r="LA5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LB5" t="n">
+      <c r="LB5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6132,8 +6207,23 @@
       <c r="LA6" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="LB6" t="n">
+      <c r="LB6" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="LC6" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="LD6" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="LE6" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="LF6" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="LG6" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7078,8 +7168,23 @@
       <c r="LA7" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="LB7" t="n">
+      <c r="LB7" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="LC7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="LD7" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="LE7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="LF7" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="LG7" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -8024,8 +8129,23 @@
       <c r="LA8" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="LB8" t="n">
+      <c r="LB8" s="2" t="n">
         <v>-4</v>
+      </c>
+      <c r="LC8" s="2" t="n">
+        <v>-29</v>
+      </c>
+      <c r="LD8" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="LE8" s="2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="LF8" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="LG8" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8970,8 +9090,23 @@
       <c r="LA9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LB9" t="n">
+      <c r="LB9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9916,8 +10051,23 @@
       <c r="LA10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LB10" t="n">
+      <c r="LB10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LC10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LE10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LF10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10862,8 +11012,23 @@
       <c r="LA11" s="2" t="n">
         <v>244</v>
       </c>
-      <c r="LB11" t="n">
+      <c r="LB11" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="LC11" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="LD11" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="LE11" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="LF11" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="LG11" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11808,8 +11973,23 @@
       <c r="LA12" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="LB12" t="n">
+      <c r="LB12" s="2" t="n">
         <v>169</v>
+      </c>
+      <c r="LC12" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="LD12" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="LE12" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="LF12" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="LG12" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12754,8 +12934,23 @@
       <c r="LA13" s="2" t="n">
         <v>421</v>
       </c>
-      <c r="LB13" t="n">
+      <c r="LB13" s="2" t="n">
         <v>385</v>
+      </c>
+      <c r="LC13" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="LD13" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="LE13" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="LF13" s="2" t="n">
+        <v>346</v>
+      </c>
+      <c r="LG13" t="n">
+        <v>451</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13700,8 +13895,23 @@
       <c r="LA14" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="LB14" t="n">
+      <c r="LB14" s="2" t="n">
         <v>1.28</v>
+      </c>
+      <c r="LC14" s="2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="LD14" s="2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="LE14" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="LF14" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="LG14" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14646,8 +14856,23 @@
       <c r="LA15" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="LB15" t="n">
+      <c r="LB15" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="LC15" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="LD15" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="LE15" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="LF15" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="LG15" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15592,8 +15817,23 @@
       <c r="LA16" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="LB16" t="n">
+      <c r="LB16" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="LC16" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LD16" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="LE16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="LF16" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LG16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16538,8 +16778,23 @@
       <c r="LA17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="LB17" t="n">
+      <c r="LB17" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LC17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LD17" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LE17" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LF17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LG17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17484,8 +17739,23 @@
       <c r="LA18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LB18" t="n">
+      <c r="LB18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LC18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LD18" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LE18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LF18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LG18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18430,7 +18700,22 @@
       <c r="LA19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="LB19" t="n">
+      <c r="LB19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LC19" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LD19" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LF19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LG19" t="n">
         <v>14</v>
       </c>
     </row>
@@ -19376,8 +19661,23 @@
       <c r="LA20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LB20" t="n">
+      <c r="LB20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LC20" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LE20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LG20" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20322,8 +20622,23 @@
       <c r="LA21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LB21" t="n">
+      <c r="LB21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LC21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LE21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LG21" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21268,8 +21583,23 @@
       <c r="LA22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LB22" t="n">
+      <c r="LB22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LC22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LD22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LG22" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22214,8 +22544,23 @@
       <c r="LA23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LB23" t="n">
+      <c r="LB23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LC23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LD23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -23160,8 +23505,23 @@
       <c r="LA24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="LB24" t="n">
+      <c r="LB24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="LC24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LD24" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="LE24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LF24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LG24" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -24106,8 +24466,23 @@
       <c r="LA25" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="LB25" t="n">
+      <c r="LB25" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="LC25" s="2" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="LD25" s="2" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="LE25" s="2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="LF25" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="LG25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -25052,8 +25427,23 @@
       <c r="LA26" s="2" t="n">
         <v>26.31</v>
       </c>
-      <c r="LB26" t="n">
+      <c r="LB26" s="2" t="n">
         <v>27.5</v>
+      </c>
+      <c r="LC26" s="2" t="n">
+        <v>39.67</v>
+      </c>
+      <c r="LD26" s="2" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="LE26" s="2" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="LF26" s="2" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="LG26" t="n">
+        <v>23.74</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25998,8 +26388,23 @@
       <c r="LA27" s="2" t="n">
         <v>16.19</v>
       </c>
-      <c r="LB27" t="n">
+      <c r="LB27" s="2" t="n">
         <v>18.33</v>
+      </c>
+      <c r="LC27" s="2" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="LD27" s="2" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="LE27" s="2" t="n">
+        <v>17.24</v>
+      </c>
+      <c r="LF27" s="2" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="LG27" t="n">
+        <v>11.87</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26944,8 +27349,23 @@
       <c r="LA28" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="LB28" t="n">
+      <c r="LB28" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LC28" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LD28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LE28" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LF28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LG28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27890,8 +28310,23 @@
       <c r="LA29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="LB29" t="n">
+      <c r="LB29" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="LC29" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="LD29" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LE29" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LF29" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LG29" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28836,8 +29271,23 @@
       <c r="LA30" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="LB30" t="n">
+      <c r="LB30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LC30" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LD30" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LE30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LF30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LG30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29782,8 +30232,23 @@
       <c r="LA31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="LB31" t="n">
+      <c r="LB31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="LC31" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LD31" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LE31" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LF31" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="LG31" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30728,8 +31193,23 @@
       <c r="LA32" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="LB32" t="n">
+      <c r="LB32" s="2" t="n">
         <v>2.43</v>
+      </c>
+      <c r="LC32" s="2" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="LD32" s="2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="LE32" s="2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="LF32" s="2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="LG32" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31674,8 +32154,23 @@
       <c r="LA33" s="2" t="n">
         <v>3.19</v>
       </c>
-      <c r="LB33" t="n">
+      <c r="LB33" s="2" t="n">
         <v>3.64</v>
+      </c>
+      <c r="LC33" s="2" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="LD33" s="2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="LE33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF33" s="2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="LG33" t="n">
+        <v>4.05</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32620,8 +33115,23 @@
       <c r="LA34" s="2" t="n">
         <v>43.1</v>
       </c>
-      <c r="LB34" t="n">
+      <c r="LB34" s="2" t="n">
         <v>41.2</v>
+      </c>
+      <c r="LC34" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LD34" s="2" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="LE34" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LF34" s="2" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="LG34" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33566,8 +34076,23 @@
       <c r="LA35" s="2" t="n">
         <v>31.4</v>
       </c>
-      <c r="LB35" t="n">
+      <c r="LB35" s="2" t="n">
         <v>27.5</v>
+      </c>
+      <c r="LC35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LD35" s="2" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="LE35" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LF35" s="2" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="LG35" t="n">
+        <v>24.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34512,8 +35037,23 @@
       <c r="LA36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="LB36" t="n">
+      <c r="LB36" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="LC36" s="2" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="LD36" s="2" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="LE36" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="LF36" s="2" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="LG36" t="n">
+        <v>190.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35458,8 +35998,23 @@
       <c r="LA37" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="LB37" t="n">
+      <c r="LB37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="LC37" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LD37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="LE37" s="2" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="LF37" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LG37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36404,8 +36959,23 @@
       <c r="LA38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="LB38" t="n">
+      <c r="LB38" s="2" t="n">
         <v>26.41</v>
+      </c>
+      <c r="LC38" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="LD38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="LE38" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="LF38" s="2" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="LG38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -37350,8 +37920,23 @@
       <c r="LA39" s="2" t="n">
         <v>107.1</v>
       </c>
-      <c r="LB39" t="n">
+      <c r="LB39" s="2" t="n">
         <v>111.7</v>
+      </c>
+      <c r="LC39" s="2" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="LD39" s="2" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="LE39" s="2" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="LF39" s="2" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="LG39" t="n">
+        <v>106.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -38296,8 +38881,23 @@
       <c r="LA40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LB40" t="n">
+      <c r="LB40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LC40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LG40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -39242,8 +39842,23 @@
       <c r="LA41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LB41" t="n">
+      <c r="LB41" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LC41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LD41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LE41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LF41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LG41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -40188,8 +40803,23 @@
       <c r="LA42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LB42" t="n">
+      <c r="LB42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LC42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LG42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -41134,8 +41764,23 @@
       <c r="LA43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LB43" t="n">
+      <c r="LB43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LC43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LG43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -42080,8 +42725,23 @@
       <c r="LA44" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="LB44" t="n">
+      <c r="LB44" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="LC44" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="LD44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="LE44" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="LF44" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="LG44" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -43026,8 +43686,23 @@
       <c r="LA45" s="2" t="n">
         <v>283</v>
       </c>
-      <c r="LB45" t="n">
+      <c r="LB45" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="LC45" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="LD45" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="LE45" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="LF45" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="LG45" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43972,8 +44647,23 @@
       <c r="LA46" s="2" t="n">
         <v>341</v>
       </c>
-      <c r="LB46" t="n">
+      <c r="LB46" s="2" t="n">
         <v>272</v>
+      </c>
+      <c r="LC46" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="LD46" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="LE46" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="LF46" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="LG46" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44918,8 +45608,23 @@
       <c r="LA47" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="LB47" t="n">
+      <c r="LB47" s="2" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="LC47" s="2" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="LD47" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="LE47" s="2" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="LF47" s="2" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="LG47" t="n">
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45864,8 +46569,23 @@
       <c r="LA48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="LB48" t="n">
+      <c r="LB48" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="LC48" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="LD48" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LE48" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LF48" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LG48" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46810,8 +47530,23 @@
       <c r="LA49" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="LB49" t="n">
+      <c r="LB49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LC49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LD49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LE49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LF49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47756,8 +48491,23 @@
       <c r="LA50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LB50" t="n">
+      <c r="LB50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LC50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LD50" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LE50" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LG50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48702,8 +49452,23 @@
       <c r="LA51" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="LB51" t="n">
+      <c r="LB51" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LC51" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LD51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LE51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LF51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LG51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49648,8 +50413,23 @@
       <c r="LA52" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="LB52" t="n">
+      <c r="LB52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LC52" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LD52" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LE52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LF52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LG52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50594,8 +51374,23 @@
       <c r="LA53" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="LB53" t="n">
+      <c r="LB53" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LC53" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LD53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LE53" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LF53" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LG53" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51540,8 +52335,23 @@
       <c r="LA54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LB54" t="n">
+      <c r="LB54" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LC54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LF54" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -52486,8 +53296,23 @@
       <c r="LA55" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LB55" t="n">
+      <c r="LB55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LC55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LE55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LG55" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -53432,8 +54257,23 @@
       <c r="LA56" s="2" t="n">
         <v>81.2</v>
       </c>
-      <c r="LB56" t="n">
+      <c r="LB56" s="2" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="LC56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="LD56" s="2" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="LE56" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="LF56" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="LG56" t="n">
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -54378,8 +55218,23 @@
       <c r="LA57" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="LB57" t="n">
+      <c r="LB57" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="LC57" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="LD57" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="LE57" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="LF57" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="LG57" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -55324,8 +56179,23 @@
       <c r="LA58" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="LB58" t="n">
+      <c r="LB58" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="LC58" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="LD58" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="LE58" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="LF58" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="LG58" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -56270,8 +57140,23 @@
       <c r="LA59" s="2" t="n">
         <v>309</v>
       </c>
-      <c r="LB59" t="n">
+      <c r="LB59" s="2" t="n">
         <v>358</v>
+      </c>
+      <c r="LC59" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="LD59" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="LE59" s="2" t="n">
+        <v>385</v>
+      </c>
+      <c r="LF59" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="LG59" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -57216,8 +58101,23 @@
       <c r="LA60" s="2" t="n">
         <v>1.71</v>
       </c>
-      <c r="LB60" t="n">
+      <c r="LB60" s="2" t="n">
         <v>1.39</v>
+      </c>
+      <c r="LC60" s="2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="LD60" s="2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="LE60" s="2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="LF60" s="2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="LG60" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -58162,8 +59062,23 @@
       <c r="LA61" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="LB61" t="n">
+      <c r="LB61" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="LC61" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LD61" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="LE61" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="LF61" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="LG61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -59108,8 +60023,23 @@
       <c r="LA62" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="LB62" t="n">
+      <c r="LB62" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="LC62" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LD62" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LE62" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="LF62" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="LG62" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -60054,8 +60984,23 @@
       <c r="LA63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="LB63" t="n">
+      <c r="LB63" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="LC63" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LD63" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LE63" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LF63" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LG63" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -61000,7 +61945,22 @@
       <c r="LA64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="LB64" t="n">
+      <c r="LB64" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LC64" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LD64" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE64" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LF64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LG64" t="n">
         <v>14</v>
       </c>
     </row>
@@ -61946,8 +62906,23 @@
       <c r="LA65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LB65" t="n">
+      <c r="LB65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LC65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LD65" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LE65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LF65" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LG65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62892,8 +63867,23 @@
       <c r="LA66" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LB66" t="n">
+      <c r="LB66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LC66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LD66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LF66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LG66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63838,8 +64828,23 @@
       <c r="LA67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LB67" t="n">
+      <c r="LB67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LC67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LD67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LF67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -64784,8 +65789,23 @@
       <c r="LA68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LB68" t="n">
+      <c r="LB68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LC68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LF68" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LG68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65730,8 +66750,23 @@
       <c r="LA69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LB69" t="n">
+      <c r="LB69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LC69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LG69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -66676,8 +67711,23 @@
       <c r="LA70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LB70" t="n">
+      <c r="LB70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="LC70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LD70" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LE70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LF70" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LG70" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -67622,8 +68672,23 @@
       <c r="LA71" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="LB71" t="n">
+      <c r="LB71" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LC71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="LD71" s="2" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="LE71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LF71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LG71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -68568,8 +69633,23 @@
       <c r="LA72" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="LB72" t="n">
+      <c r="LB72" s="2" t="n">
         <v>25.57</v>
+      </c>
+      <c r="LC72" s="2" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="LD72" s="2" t="n">
+        <v>37.22</v>
+      </c>
+      <c r="LE72" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="LF72" s="2" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="LG72" t="n">
+        <v>55.83</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -69514,8 +70594,23 @@
       <c r="LA73" s="2" t="n">
         <v>20.6</v>
       </c>
-      <c r="LB73" t="n">
+      <c r="LB73" s="2" t="n">
         <v>14.32</v>
+      </c>
+      <c r="LC73" s="2" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="LD73" s="2" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="LE73" s="2" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="LF73" s="2" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="LG73" t="n">
+        <v>27.92</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -70460,8 +71555,23 @@
       <c r="LA74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LB74" t="n">
+      <c r="LB74" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LC74" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LD74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LE74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LF74" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LG74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -71406,8 +72516,23 @@
       <c r="LA75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LB75" t="n">
+      <c r="LB75" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="LC75" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="LD75" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="LE75" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LF75" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LG75" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -72352,8 +73477,23 @@
       <c r="LA76" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="LB76" t="n">
+      <c r="LB76" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LC76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LD76" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LE76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LF76" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LG76" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -73298,8 +74438,23 @@
       <c r="LA77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="LB77" t="n">
+      <c r="LB77" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="LC77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LD77" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LE77" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LF77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LG77" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -74244,8 +75399,23 @@
       <c r="LA78" s="2" t="n">
         <v>3.4</v>
       </c>
-      <c r="LB78" t="n">
+      <c r="LB78" s="2" t="n">
         <v>2.2</v>
+      </c>
+      <c r="LC78" s="2" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="LD78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="LE78" s="2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="LF78" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="LG78" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -75190,8 +76360,23 @@
       <c r="LA79" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LB79" t="n">
+      <c r="LB79" s="2" t="n">
         <v>3.93</v>
+      </c>
+      <c r="LC79" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="LD79" s="2" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="LE79" s="2" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="LF79" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="LG79" t="n">
+        <v>6.83</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -76136,8 +77321,23 @@
       <c r="LA80" s="2" t="n">
         <v>27.5</v>
       </c>
-      <c r="LB80" t="n">
+      <c r="LB80" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="LC80" s="2" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="LD80" s="2" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="LE80" s="2" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="LF80" s="2" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="LG80" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -77082,8 +78282,23 @@
       <c r="LA81" s="2" t="n">
         <v>5.9</v>
       </c>
-      <c r="LB81" t="n">
+      <c r="LB81" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="LC81" s="2" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="LD81" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="LE81" s="2" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="LF81" s="2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="LG81" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -78028,8 +79243,23 @@
       <c r="LA82" s="2" t="n">
         <v>189.8</v>
       </c>
-      <c r="LB82" t="n">
+      <c r="LB82" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="LC82" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="LD82" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="LE82" s="2" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="LF82" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="LG82" t="n">
+        <v>185.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -78974,8 +80204,23 @@
       <c r="LA83" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="LB83" t="n">
+      <c r="LB83" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="LC83" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="LD83" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="LE83" s="2" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="LF83" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="LG83" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -79920,8 +81165,23 @@
       <c r="LA84" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="LB84" t="n">
+      <c r="LB84" s="2" t="n">
         <v>27.16</v>
+      </c>
+      <c r="LC84" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LD84" s="2" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="LE84" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="LF84" s="2" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="LG84" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -80866,8 +82126,23 @@
       <c r="LA85" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="LB85" t="n">
+      <c r="LB85" s="2" t="n">
         <v>132.1</v>
+      </c>
+      <c r="LC85" s="2" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="LD85" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="LE85" s="2" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="LF85" s="2" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="LG85" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -81812,8 +83087,23 @@
       <c r="LA86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LB86" t="n">
+      <c r="LB86" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LC86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LD86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LF86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LG86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -82758,8 +84048,23 @@
       <c r="LA87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LB87" t="n">
+      <c r="LB87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LC87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LD87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LE87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -83704,8 +85009,23 @@
       <c r="LA88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LB88" t="n">
+      <c r="LB88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LC88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LF88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LG88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -84650,8 +85970,23 @@
       <c r="LA89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LB89" t="n">
+      <c r="LB89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LC89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LD89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LF89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LG89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -85596,8 +86931,23 @@
       <c r="LA90" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="LB90" t="n">
+      <c r="LB90" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="LC90" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="LD90" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="LE90" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="LF90" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="LG90" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -86542,8 +87892,23 @@
       <c r="LA91" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="LB91" t="n">
+      <c r="LB91" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="LC91" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="LD91" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="LE91" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="LF91" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="LG91" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -87488,8 +88853,23 @@
       <c r="LA92" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="LB92" t="n">
+      <c r="LB92" s="2" t="n">
         <v>258</v>
+      </c>
+      <c r="LC92" s="2" t="n">
+        <v>268</v>
+      </c>
+      <c r="LD92" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="LE92" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="LF92" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="LG92" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -88434,8 +89814,23 @@
       <c r="LA93" s="2" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="LB93" t="n">
+      <c r="LB93" s="2" t="n">
         <v>72.09999999999999</v>
+      </c>
+      <c r="LC93" s="2" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="LD93" s="2" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="LE93" s="2" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="LF93" s="2" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="LG93" t="n">
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -89380,8 +90775,23 @@
       <c r="LA94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LB94" t="n">
+      <c r="LB94" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="LC94" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="LD94" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="LE94" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LF94" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LG94" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -90326,8 +91736,23 @@
       <c r="LA95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LB95" t="n">
+      <c r="LB95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LC95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LE95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LG95" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -91272,8 +92697,23 @@
       <c r="LA96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LB96" t="n">
+      <c r="LB96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LC96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LD96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LF96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LG96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -92218,8 +93658,23 @@
       <c r="LA97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LB97" t="n">
+      <c r="LB97" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LC97" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LD97" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LE97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LF97" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LG97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -93164,8 +94619,23 @@
       <c r="LA98" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="LB98" t="n">
+      <c r="LB98" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LC98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LD98" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LE98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LF98" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LG98" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -94110,7 +95580,22 @@
       <c r="LA99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="LB99" t="n">
+      <c r="LB99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LC99" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LD99" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LE99" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="LF99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LG99" t="n">
         <v>45</v>
       </c>
     </row>
@@ -95056,8 +96541,23 @@
       <c r="LA100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LB100" t="n">
+      <c r="LB100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LC100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE100" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LF100" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -96002,8 +97502,23 @@
       <c r="LA101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LB101" t="n">
+      <c r="LB101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LC101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LD101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE101" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LF101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -96948,8 +98463,23 @@
       <c r="LA102" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="LB102" t="n">
+      <c r="LB102" s="2" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="LC102" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="LD102" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="LE102" s="2" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="LF102" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="LG102" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>
